--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2CA3C92-0DDA-4833-8060-DC75BD9276F1}"/>
+  <xr:revisionPtr revIDLastSave="570" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8310BAAB-8159-4EF7-A7EA-526AAFCDDB4C}"/>
   <bookViews>
     <workbookView xWindow="-18420" yWindow="5625" windowWidth="17280" windowHeight="9960" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="26">
   <si>
     <t>Participant</t>
   </si>
@@ -112,6 +112,12 @@
   <si>
     <t>Matt P.</t>
   </si>
+  <si>
+    <t>Bike</t>
+  </si>
+  <si>
+    <t>Ellipical</t>
+  </si>
 </sst>
 </file>
 
@@ -164,6 +170,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -486,8 +496,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,7 +713,7 @@
         <v>45726</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>30</v>
@@ -924,115 +934,1410 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1">
+        <v>45727</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>64</v>
+      </c>
+      <c r="E12">
+        <v>5.33</v>
+      </c>
+      <c r="F12">
+        <v>59</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>53</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45727</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>35</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>28</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45727</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>4.32</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>19</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45727</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>1.24</v>
+      </c>
+      <c r="F15">
+        <v>43</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" s="1"/>
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45727</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>42</v>
+      </c>
+      <c r="E16">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="F16">
+        <v>226</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>29</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1">
+        <v>45727</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>63</v>
+      </c>
+      <c r="E17">
+        <v>63</v>
+      </c>
+      <c r="F17">
+        <v>348</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>55</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>45727</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>66</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>23</v>
+      </c>
+      <c r="H18">
+        <v>41</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1">
+        <v>45727</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>68</v>
+      </c>
+      <c r="E19">
+        <v>7.05</v>
+      </c>
+      <c r="F19">
+        <v>466</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>14</v>
+      </c>
+      <c r="I19">
+        <v>48</v>
+      </c>
+      <c r="J19">
+        <v>6</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45727</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+      <c r="F20">
+        <v>16</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1">
+        <v>45727</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>98</v>
+      </c>
+      <c r="E21">
+        <v>25.27</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>58</v>
+      </c>
+      <c r="H21">
+        <v>41</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45728</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>47</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>42</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="1">
+        <v>45728</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>33</v>
+      </c>
+      <c r="E23">
+        <v>2.46</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>9</v>
+      </c>
+      <c r="H23">
+        <v>24</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1">
+        <v>45728</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>32</v>
+      </c>
+      <c r="E24">
+        <v>3.54</v>
+      </c>
+      <c r="F24">
+        <v>171</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>28</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="1">
+        <v>45728</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25">
+        <v>61</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>61</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="1">
+        <v>45728</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26">
+        <v>30</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>30</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1">
+        <v>45728</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27">
+        <v>38</v>
+      </c>
+      <c r="E27">
+        <v>11.34</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>21</v>
+      </c>
+      <c r="H27">
+        <v>16</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="1">
+        <v>45728</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <v>6</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="1">
+        <v>45728</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29">
+        <v>60</v>
+      </c>
+      <c r="E29">
+        <v>6.58</v>
+      </c>
+      <c r="F29">
+        <v>548</v>
+      </c>
+      <c r="G29">
+        <v>21</v>
+      </c>
+      <c r="H29">
+        <v>38</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45728</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30">
+        <v>70</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>47</v>
+      </c>
+      <c r="H30">
+        <v>23</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="1">
+        <v>45728</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31">
+        <v>46</v>
+      </c>
+      <c r="E31">
+        <v>4.68</v>
+      </c>
+      <c r="F31">
+        <v>305</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>14</v>
+      </c>
+      <c r="I31">
+        <v>19</v>
+      </c>
+      <c r="J31">
+        <v>11</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="1">
+        <v>45729</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32">
+        <v>19</v>
+      </c>
+      <c r="E32">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F32">
+        <v>125</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>18</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="1">
+        <v>45729</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33">
+        <v>36</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>18</v>
+      </c>
+      <c r="H33">
+        <v>18</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="1">
+        <v>45729</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34">
+        <v>97</v>
+      </c>
+      <c r="E34">
+        <v>8.34</v>
+      </c>
+      <c r="F34">
+        <v>726</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>74</v>
+      </c>
+      <c r="I34">
+        <v>20</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="1">
+        <v>45729</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35">
+        <v>28</v>
+      </c>
+      <c r="E35">
+        <v>2.39</v>
+      </c>
+      <c r="F35">
+        <v>16</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>25</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="1">
+        <v>45729</v>
+      </c>
+      <c r="C36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36">
+        <v>30</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>18</v>
+      </c>
+      <c r="H36">
+        <v>12</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="1">
+        <v>45729</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37">
+        <v>36</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>22</v>
+      </c>
+      <c r="H37">
+        <v>15</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="1">
+        <v>45729</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38">
+        <v>50</v>
+      </c>
+      <c r="E38">
+        <v>4.99</v>
+      </c>
+      <c r="F38">
+        <v>194</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>28</v>
+      </c>
+      <c r="I38">
+        <v>19</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="1">
+        <v>45729</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39">
+        <v>45</v>
+      </c>
+      <c r="E39">
+        <v>11.46</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>36</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="1">
+        <v>45729</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40">
+        <v>21</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+      <c r="H40">
+        <v>11</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="1">
+        <v>45730</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41">
+        <v>54</v>
+      </c>
+      <c r="E41">
+        <v>6.66</v>
+      </c>
+      <c r="F41">
+        <v>154</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>48</v>
+      </c>
+      <c r="I41">
+        <v>4</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" s="1">
+        <v>45730</v>
+      </c>
+      <c r="C42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42">
+        <v>44</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>44</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="1">
+        <v>45730</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <v>83</v>
+      </c>
+      <c r="E43">
+        <v>7.12</v>
+      </c>
+      <c r="F43">
+        <v>291</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>76</v>
+      </c>
+      <c r="I43">
+        <v>4</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="1">
+        <v>45730</v>
+      </c>
+      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44">
+        <v>30</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>11</v>
+      </c>
+      <c r="H44">
+        <v>19</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="1">
+        <v>45730</v>
+      </c>
+      <c r="C45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45">
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <v>5.99</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>18</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45730</v>
+      </c>
+      <c r="C46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46">
+        <v>84</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>36</v>
+      </c>
+      <c r="H46">
+        <v>48</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="1">
+        <v>45730</v>
+      </c>
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47">
+        <v>31</v>
+      </c>
+      <c r="E47">
+        <v>3.16</v>
+      </c>
+      <c r="F47">
+        <v>138</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+      <c r="I47">
+        <v>25</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="1">
+        <v>45730</v>
+      </c>
+      <c r="C48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48">
+        <v>86</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>71</v>
+      </c>
+      <c r="H48">
+        <v>16</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="570" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8310BAAB-8159-4EF7-A7EA-526AAFCDDB4C}"/>
+  <xr:revisionPtr revIDLastSave="573" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02D96B8F-1C02-4B97-B3E1-4298A591CB2D}"/>
   <bookViews>
     <workbookView xWindow="-18420" yWindow="5625" windowWidth="17280" windowHeight="9960" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -496,8 +496,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1137,7 +1137,7 @@
         <v>63</v>
       </c>
       <c r="E17">
-        <v>63</v>
+        <v>6.3</v>
       </c>
       <c r="F17">
         <v>348</v>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="573" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02D96B8F-1C02-4B97-B3E1-4298A591CB2D}"/>
+  <xr:revisionPtr revIDLastSave="633" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99834839-3A11-43AC-9F95-DD4EE2CC1E18}"/>
   <bookViews>
     <workbookView xWindow="-18420" yWindow="5625" windowWidth="17280" windowHeight="9960" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="27">
   <si>
     <t>Participant</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Ellipical</t>
+  </si>
+  <si>
+    <t>Matt</t>
   </si>
 </sst>
 </file>
@@ -496,8 +499,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2339,52 +2342,227 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="1">
+        <v>45731</v>
+      </c>
+      <c r="C49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49">
+        <v>42</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>29</v>
+      </c>
+      <c r="H49">
+        <v>13</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="1">
+        <v>45731</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50">
+        <v>94</v>
+      </c>
+      <c r="E50">
+        <v>9.34</v>
+      </c>
+      <c r="F50">
+        <v>476</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>48</v>
+      </c>
+      <c r="I50">
+        <v>43</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="1">
+        <v>45731</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51">
+        <v>47</v>
+      </c>
+      <c r="E51">
+        <v>4.74</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>16</v>
+      </c>
+      <c r="I51">
+        <v>22</v>
+      </c>
+      <c r="J51">
+        <v>8</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="1">
+        <v>45731</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52">
+        <v>125</v>
+      </c>
+      <c r="E52">
+        <v>12.02</v>
+      </c>
+      <c r="F52">
+        <v>719</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>100</v>
+      </c>
+      <c r="I52">
+        <v>25</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="1">
+        <v>45731</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53">
+        <v>53</v>
+      </c>
+      <c r="E53">
+        <v>4.66</v>
+      </c>
+      <c r="F53">
+        <v>207</v>
+      </c>
+      <c r="G53">
+        <v>5</v>
+      </c>
+      <c r="H53">
+        <v>42</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="633" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99834839-3A11-43AC-9F95-DD4EE2CC1E18}"/>
+  <xr:revisionPtr revIDLastSave="634" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91BCF7CD-8F03-4E08-8F7F-E172FFF6D9D8}"/>
   <bookViews>
     <workbookView xWindow="-18420" yWindow="5625" windowWidth="17280" windowHeight="9960" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="26">
   <si>
     <t>Participant</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>Ellipical</t>
-  </si>
-  <si>
-    <t>Matt</t>
   </si>
 </sst>
 </file>
@@ -499,8 +496,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2496,7 +2493,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B53" s="1">
         <v>45731</v>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="634" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91BCF7CD-8F03-4E08-8F7F-E172FFF6D9D8}"/>
+  <xr:revisionPtr revIDLastSave="647" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBE91E76-0D28-4C78-8BB6-ABB0AA2549EF}"/>
   <bookViews>
     <workbookView xWindow="-18420" yWindow="5625" windowWidth="17280" windowHeight="9960" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="26">
   <si>
     <t>Participant</t>
   </si>
@@ -497,7 +497,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
+      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2530,7 +2530,42 @@
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B54" s="1"/>
+      <c r="A54" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="1">
+        <v>45731</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54">
+        <v>118</v>
+      </c>
+      <c r="E54">
+        <v>10.1</v>
+      </c>
+      <c r="F54">
+        <v>312</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>108</v>
+      </c>
+      <c r="I54">
+        <v>9</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="647" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBE91E76-0D28-4C78-8BB6-ABB0AA2549EF}"/>
+  <xr:revisionPtr revIDLastSave="709" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFAFBA97-4F08-4A1F-A1B7-1FA52CC3AEB9}"/>
   <bookViews>
     <workbookView xWindow="-18420" yWindow="5625" windowWidth="17280" windowHeight="9960" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="26">
   <si>
     <t>Participant</t>
   </si>
@@ -496,8 +496,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2568,19 +2568,194 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B55" s="1"/>
+      <c r="A55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="1">
+        <v>45731</v>
+      </c>
+      <c r="C55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55">
+        <v>33</v>
+      </c>
+      <c r="E55">
+        <v>3.51</v>
+      </c>
+      <c r="F55">
+        <v>190</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>14</v>
+      </c>
+      <c r="I55">
+        <v>17</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B56" s="1"/>
+      <c r="A56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" s="1">
+        <v>45731</v>
+      </c>
+      <c r="C56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56">
+        <v>62</v>
+      </c>
+      <c r="E56">
+        <v>12.24</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <v>37</v>
+      </c>
+      <c r="I56">
+        <v>22</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B57" s="1"/>
+      <c r="A57" t="s">
+        <v>21</v>
+      </c>
+      <c r="B57" s="1">
+        <v>45731</v>
+      </c>
+      <c r="C57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57">
+        <v>112</v>
+      </c>
+      <c r="E57">
+        <v>10.69</v>
+      </c>
+      <c r="F57">
+        <v>745</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>23</v>
+      </c>
+      <c r="I57">
+        <v>89</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B58" s="1"/>
+      <c r="A58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" s="1">
+        <v>45732</v>
+      </c>
+      <c r="C58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58">
+        <v>43</v>
+      </c>
+      <c r="E58">
+        <v>4.01</v>
+      </c>
+      <c r="F58">
+        <v>7</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58">
+        <v>20</v>
+      </c>
+      <c r="I58">
+        <v>15</v>
+      </c>
+      <c r="J58">
+        <v>5</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B59" s="1"/>
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="1">
+        <v>45732</v>
+      </c>
+      <c r="C59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59">
+        <v>60</v>
+      </c>
+      <c r="E59">
+        <v>21.41</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59">
+        <v>39</v>
+      </c>
+      <c r="I59">
+        <v>18</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="709" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFAFBA97-4F08-4A1F-A1B7-1FA52CC3AEB9}"/>
+  <xr:revisionPtr revIDLastSave="769" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7F89571-F950-48EF-AF1B-63D64B789115}"/>
   <bookViews>
-    <workbookView xWindow="-18420" yWindow="5625" windowWidth="17280" windowHeight="9960" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
+    <workbookView xWindow="-28920" yWindow="1710" windowWidth="29040" windowHeight="15720" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$346</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="27">
   <si>
     <t>Participant</t>
   </si>
@@ -117,6 +118,9 @@
   </si>
   <si>
     <t>Ellipical</t>
+  </si>
+  <si>
+    <t>Phil</t>
   </si>
 </sst>
 </file>
@@ -496,8 +500,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H60" sqref="H60"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2758,19 +2762,194 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B60" s="1"/>
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="1">
+        <v>45732</v>
+      </c>
+      <c r="C60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60">
+        <v>30</v>
+      </c>
+      <c r="E60">
+        <v>7.96</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>29</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B61" s="1"/>
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" s="1">
+        <v>45732</v>
+      </c>
+      <c r="C61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61">
+        <v>28</v>
+      </c>
+      <c r="E61">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>24</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B62" s="1"/>
+      <c r="A62" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="1">
+        <v>45732</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62">
+        <v>114</v>
+      </c>
+      <c r="E62">
+        <v>11.2</v>
+      </c>
+      <c r="F62">
+        <v>650</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>28</v>
+      </c>
+      <c r="I62">
+        <v>86</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B63" s="1"/>
+      <c r="A63" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="1">
+        <v>45732</v>
+      </c>
+      <c r="C63" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63">
+        <v>59</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>16</v>
+      </c>
+      <c r="H63">
+        <v>39</v>
+      </c>
+      <c r="I63">
+        <v>4</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B64" s="1"/>
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="1">
+        <v>45732</v>
+      </c>
+      <c r="C64" t="s">
+        <v>22</v>
+      </c>
+      <c r="D64">
+        <v>45</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>38</v>
+      </c>
+      <c r="H64">
+        <v>7</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="769" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7F89571-F950-48EF-AF1B-63D64B789115}"/>
+  <xr:revisionPtr revIDLastSave="817" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AA720EB-AE1D-4001-B09F-8B7FB6CDC93E}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1710" windowWidth="29040" windowHeight="15720" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="28">
   <si>
     <t>Participant</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Phil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt F. </t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A65" sqref="A65"/>
+      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2951,52 +2954,192 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="1"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" s="1"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B68" s="1"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="1">
+        <v>45732</v>
+      </c>
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65">
+        <v>48</v>
+      </c>
+      <c r="E65">
+        <v>4.32</v>
+      </c>
+      <c r="F65">
+        <v>506</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>7</v>
+      </c>
+      <c r="I65">
+        <v>30</v>
+      </c>
+      <c r="J65">
+        <v>6</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" s="1">
+        <v>45732</v>
+      </c>
+      <c r="C66" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66">
+        <v>31</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>16</v>
+      </c>
+      <c r="H66">
+        <v>16</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="1">
+        <v>45732</v>
+      </c>
+      <c r="C67" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67">
+        <v>111</v>
+      </c>
+      <c r="E67">
+        <v>29.18</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>17</v>
+      </c>
+      <c r="H67">
+        <v>94</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" s="1">
+        <v>45732</v>
+      </c>
+      <c r="C68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68">
+        <v>46</v>
+      </c>
+      <c r="E68">
+        <v>4.09</v>
+      </c>
+      <c r="F68">
+        <v>213</v>
+      </c>
+      <c r="G68">
+        <v>6</v>
+      </c>
+      <c r="H68">
+        <v>30</v>
+      </c>
+      <c r="I68">
+        <v>7</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.3">

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="817" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AA720EB-AE1D-4001-B09F-8B7FB6CDC93E}"/>
+  <xr:revisionPtr revIDLastSave="818" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{891F984E-DA57-4937-B295-ECBCB69D2EB5}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1710" windowWidth="29040" windowHeight="15720" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="27">
   <si>
     <t>Participant</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>Phil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matt F. </t>
   </si>
 </sst>
 </file>
@@ -504,7 +501,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2994,7 +2991,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B66" s="1">
         <v>45732</v>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="818" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{891F984E-DA57-4937-B295-ECBCB69D2EB5}"/>
+  <xr:revisionPtr revIDLastSave="824" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{223149A8-7033-4E50-9CA1-F8C885BBA3B2}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="1710" windowWidth="29040" windowHeight="15720" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -99,9 +99,6 @@
     <t>Andrew</t>
   </si>
   <si>
-    <t>Matt F.</t>
-  </si>
-  <si>
     <t>Todd</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>Phil</t>
+  </si>
+  <si>
+    <t>Foxy</t>
   </si>
 </sst>
 </file>
@@ -500,8 +500,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A66" sqref="A66"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C353" sqref="C353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,7 +597,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1">
         <v>45726</v>
@@ -673,7 +673,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1">
         <v>45726</v>
@@ -711,13 +711,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1">
         <v>45726</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>30</v>
@@ -787,13 +787,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>45726</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>77</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
         <v>45726</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1">
         <v>45727</v>
@@ -977,13 +977,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1">
         <v>45727</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13">
         <v>35</v>
@@ -1015,13 +1015,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1">
         <v>45727</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14">
         <v>25</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
         <v>45727</v>
@@ -1173,7 +1173,7 @@
         <v>45727</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18">
         <v>66</v>
@@ -1281,13 +1281,13 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1">
         <v>45727</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21">
         <v>98</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1">
         <v>45728</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="1">
         <v>45728</v>
@@ -1439,7 +1439,7 @@
         <v>45728</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25">
         <v>61</v>
@@ -1477,7 +1477,7 @@
         <v>45728</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26">
         <v>30</v>
@@ -1515,7 +1515,7 @@
         <v>45728</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27">
         <v>38</v>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" s="1">
         <v>45728</v>
@@ -1591,7 +1591,7 @@
         <v>45728</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D29">
         <v>60</v>
@@ -1623,13 +1623,13 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" s="1">
         <v>45728</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D30">
         <v>70</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="1">
         <v>45728</v>
@@ -1737,13 +1737,13 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B33" s="1">
         <v>45729</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33">
         <v>36</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B35" s="1">
         <v>45729</v>
@@ -1857,7 +1857,7 @@
         <v>45729</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D36">
         <v>30</v>
@@ -1895,7 +1895,7 @@
         <v>45729</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B39" s="1">
         <v>45729</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B40" s="1">
         <v>45729</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41" s="1">
         <v>45730</v>
@@ -2085,7 +2085,7 @@
         <v>45730</v>
       </c>
       <c r="C42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D42">
         <v>44</v>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B43" s="1">
         <v>45730</v>
@@ -2161,7 +2161,7 @@
         <v>45730</v>
       </c>
       <c r="C44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D44">
         <v>30</v>
@@ -2199,7 +2199,7 @@
         <v>45730</v>
       </c>
       <c r="C45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D45">
         <v>20</v>
@@ -2231,13 +2231,13 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B46" s="1">
         <v>45730</v>
       </c>
       <c r="C46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D46">
         <v>84</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B47" s="1">
         <v>45730</v>
@@ -2313,7 +2313,7 @@
         <v>45730</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D48">
         <v>86</v>
@@ -2345,13 +2345,13 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B49" s="1">
         <v>45731</v>
       </c>
       <c r="C49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D49">
         <v>42</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B53" s="1">
         <v>45731</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B54" s="1">
         <v>45731</v>
@@ -2611,13 +2611,13 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B56" s="1">
         <v>45731</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D56">
         <v>62</v>
@@ -2649,7 +2649,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B57" s="1">
         <v>45731</v>
@@ -2731,7 +2731,7 @@
         <v>45732</v>
       </c>
       <c r="C59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D59">
         <v>60</v>
@@ -2769,7 +2769,7 @@
         <v>45732</v>
       </c>
       <c r="C60" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D60">
         <v>30</v>
@@ -2807,7 +2807,7 @@
         <v>45732</v>
       </c>
       <c r="C61" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D61">
         <v>28</v>
@@ -2877,13 +2877,13 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B63" s="1">
         <v>45732</v>
       </c>
       <c r="C63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D63">
         <v>59</v>
@@ -2921,7 +2921,7 @@
         <v>45732</v>
       </c>
       <c r="C64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D64">
         <v>45</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B65" s="1">
         <v>45732</v>
@@ -2991,13 +2991,13 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B66" s="1">
         <v>45732</v>
       </c>
       <c r="C66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D66">
         <v>31</v>
@@ -3029,13 +3029,13 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B67" s="1">
         <v>45732</v>
       </c>
       <c r="C67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D67">
         <v>111</v>
@@ -3067,7 +3067,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B68" s="1">
         <v>45732</v>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="824" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{223149A8-7033-4E50-9CA1-F8C885BBA3B2}"/>
+  <xr:revisionPtr revIDLastSave="860" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3EC0A89-1AD9-4718-A5C4-42A31828CBB1}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1710" windowWidth="29040" windowHeight="15720" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
+    <workbookView xWindow="-18270" yWindow="5055" windowWidth="16110" windowHeight="11535" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="27">
   <si>
     <t>Participant</t>
   </si>
@@ -500,8 +500,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C353" sqref="C353"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3104,13 +3104,118 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B69" s="1"/>
+      <c r="A69" t="s">
+        <v>19</v>
+      </c>
+      <c r="B69" s="1">
+        <v>45733</v>
+      </c>
+      <c r="C69" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69">
+        <v>34</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>17</v>
+      </c>
+      <c r="H69">
+        <v>17</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B70" s="1"/>
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="1">
+        <v>45733</v>
+      </c>
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70">
+        <v>72</v>
+      </c>
+      <c r="E70">
+        <v>6.99</v>
+      </c>
+      <c r="F70">
+        <v>354</v>
+      </c>
+      <c r="G70">
+        <v>8</v>
+      </c>
+      <c r="H70">
+        <v>54</v>
+      </c>
+      <c r="I70">
+        <v>8</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>2</v>
+      </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B71" s="1"/>
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="1">
+        <v>45733</v>
+      </c>
+      <c r="C71" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71">
+        <v>55</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>40</v>
+      </c>
+      <c r="H71">
+        <v>16</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="860" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3EC0A89-1AD9-4718-A5C4-42A31828CBB1}"/>
+  <xr:revisionPtr revIDLastSave="908" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58463046-EDFF-4FFF-B3F3-BAC0CAD8C601}"/>
   <bookViews>
     <workbookView xWindow="-18270" yWindow="5055" windowWidth="16110" windowHeight="11535" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="27">
   <si>
     <t>Participant</t>
   </si>
@@ -500,8 +500,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3218,16 +3218,156 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B72" s="1"/>
+      <c r="A72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B72" s="1">
+        <v>45733</v>
+      </c>
+      <c r="C72" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72">
+        <v>34</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>32</v>
+      </c>
+      <c r="H72">
+        <v>3</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>2</v>
+      </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B73" s="1"/>
+      <c r="A73" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" s="1">
+        <v>45733</v>
+      </c>
+      <c r="C73" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73">
+        <v>62</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>56</v>
+      </c>
+      <c r="H73">
+        <v>6</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>2</v>
+      </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B74" s="1"/>
+      <c r="A74" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" s="1">
+        <v>45733</v>
+      </c>
+      <c r="C74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74">
+        <v>118</v>
+      </c>
+      <c r="E74">
+        <v>14.27</v>
+      </c>
+      <c r="F74">
+        <v>653</v>
+      </c>
+      <c r="G74">
+        <v>3</v>
+      </c>
+      <c r="H74">
+        <v>80</v>
+      </c>
+      <c r="I74">
+        <v>35</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>2</v>
+      </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B75" s="1"/>
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" s="1">
+        <v>45733</v>
+      </c>
+      <c r="C75" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75">
+        <v>28</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>28</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>2</v>
+      </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="908" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{58463046-EDFF-4FFF-B3F3-BAC0CAD8C601}"/>
+  <xr:revisionPtr revIDLastSave="980" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9212FC8-0453-4BE3-8E14-0CD91AEAB3DF}"/>
   <bookViews>
     <workbookView xWindow="-18270" yWindow="5055" windowWidth="16110" windowHeight="11535" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="27">
   <si>
     <t>Participant</t>
   </si>
@@ -500,8 +500,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A76" sqref="A76"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3370,66 +3370,276 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B76" s="1"/>
+      <c r="A76" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76" s="1">
+        <v>45733</v>
+      </c>
+      <c r="C76" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76">
+        <v>21</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>20</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>2</v>
+      </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B77" s="1"/>
+      <c r="A77" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" s="1">
+        <v>45733</v>
+      </c>
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77">
+        <v>31</v>
+      </c>
+      <c r="E77">
+        <v>3.17</v>
+      </c>
+      <c r="F77">
+        <v>217</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>15</v>
+      </c>
+      <c r="I77">
+        <v>14</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>2</v>
+      </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B78" s="1"/>
+      <c r="A78" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" s="1">
+        <v>45733</v>
+      </c>
+      <c r="C78" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78">
+        <v>82</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>61</v>
+      </c>
+      <c r="H78">
+        <v>21</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>2</v>
+      </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B79" s="1"/>
+      <c r="A79" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" s="1">
+        <v>45733</v>
+      </c>
+      <c r="C79" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79">
+        <v>37</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>4</v>
+      </c>
+      <c r="H79">
+        <v>32</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>2</v>
+      </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B80" s="1"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="1"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>22</v>
+      </c>
+      <c r="B80" s="1">
+        <v>45733</v>
+      </c>
+      <c r="C80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80">
+        <v>86</v>
+      </c>
+      <c r="E80">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="F80">
+        <v>607</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="H80">
+        <v>71</v>
+      </c>
+      <c r="I80">
+        <v>11</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" s="1">
+        <v>45734</v>
+      </c>
+      <c r="C81" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81">
+        <v>35</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>34</v>
+      </c>
+      <c r="H81">
+        <v>2</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B89" s="1"/>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.3">

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="980" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9212FC8-0453-4BE3-8E14-0CD91AEAB3DF}"/>
+  <xr:revisionPtr revIDLastSave="1051" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77398098-C726-4427-9F72-2C27679744FF}"/>
   <bookViews>
     <workbookView xWindow="-18270" yWindow="5055" windowWidth="16110" windowHeight="11535" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="27">
   <si>
     <t>Participant</t>
   </si>
@@ -501,7 +501,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
+      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3598,22 +3598,232 @@
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B82" s="1"/>
+      <c r="A82" t="s">
+        <v>26</v>
+      </c>
+      <c r="B82" s="1">
+        <v>45734</v>
+      </c>
+      <c r="C82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82">
+        <v>60</v>
+      </c>
+      <c r="E82">
+        <v>5</v>
+      </c>
+      <c r="F82">
+        <v>249</v>
+      </c>
+      <c r="G82">
+        <v>13</v>
+      </c>
+      <c r="H82">
+        <v>47</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>2</v>
+      </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>17</v>
+      </c>
+      <c r="B83" s="1">
+        <v>45734</v>
+      </c>
+      <c r="C83" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83">
+        <v>13</v>
+      </c>
+      <c r="E83">
+        <v>1.3</v>
+      </c>
+      <c r="F83">
+        <v>49</v>
+      </c>
+      <c r="G83">
+        <v>2</v>
+      </c>
+      <c r="H83">
+        <v>9</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>2</v>
+      </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" s="1">
+        <v>45734</v>
+      </c>
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84">
+        <v>21</v>
+      </c>
+      <c r="E84">
+        <v>2.12</v>
+      </c>
+      <c r="F84">
+        <v>79</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>17</v>
+      </c>
+      <c r="I84">
+        <v>4</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>2</v>
+      </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>17</v>
+      </c>
+      <c r="B85" s="1">
+        <v>45734</v>
+      </c>
+      <c r="C85" t="s">
+        <v>24</v>
+      </c>
+      <c r="D85">
+        <v>21</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>20</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" s="1">
+        <v>45734</v>
+      </c>
+      <c r="C86" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86">
+        <v>29</v>
+      </c>
+      <c r="E86">
+        <v>2.94</v>
+      </c>
+      <c r="F86">
+        <v>108</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>25</v>
+      </c>
+      <c r="I86">
+        <v>3</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>2</v>
+      </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" s="1">
+        <v>45734</v>
+      </c>
+      <c r="C87" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87">
+        <v>63</v>
+      </c>
+      <c r="E87">
+        <v>6.3</v>
+      </c>
+      <c r="F87">
+        <v>512</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>38</v>
+      </c>
+      <c r="I87">
+        <v>21</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1051" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77398098-C726-4427-9F72-2C27679744FF}"/>
+  <xr:revisionPtr revIDLastSave="1151" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31A23E12-A0CF-4099-B87F-5123EC10214F}"/>
   <bookViews>
     <workbookView xWindow="-18270" yWindow="5055" windowWidth="16110" windowHeight="11535" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="27">
   <si>
     <t>Participant</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Weight Training</t>
   </si>
   <si>
-    <t>Matt P.</t>
-  </si>
-  <si>
     <t>Bike</t>
   </si>
   <si>
@@ -121,6 +118,9 @@
   </si>
   <si>
     <t>Foxy</t>
+  </si>
+  <si>
+    <t>Matt</t>
   </si>
 </sst>
 </file>
@@ -500,8 +500,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B355" sqref="B355"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,7 +597,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1">
         <v>45726</v>
@@ -717,7 +717,7 @@
         <v>45726</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>30</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1">
         <v>45726</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1">
         <v>45727</v>
@@ -1021,7 +1021,7 @@
         <v>45727</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14">
         <v>25</v>
@@ -1281,13 +1281,13 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1">
         <v>45727</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21">
         <v>98</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1">
         <v>45728</v>
@@ -1515,7 +1515,7 @@
         <v>45728</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27">
         <v>38</v>
@@ -1591,7 +1591,7 @@
         <v>45728</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29">
         <v>60</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1">
         <v>45728</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" s="1">
         <v>45729</v>
@@ -1857,7 +1857,7 @@
         <v>45729</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D36">
         <v>30</v>
@@ -1895,7 +1895,7 @@
         <v>45729</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B39" s="1">
         <v>45729</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B40" s="1">
         <v>45729</v>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B43" s="1">
         <v>45730</v>
@@ -2161,7 +2161,7 @@
         <v>45730</v>
       </c>
       <c r="C44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D44">
         <v>30</v>
@@ -2199,7 +2199,7 @@
         <v>45730</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D45">
         <v>20</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B53" s="1">
         <v>45731</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B54" s="1">
         <v>45731</v>
@@ -2617,7 +2617,7 @@
         <v>45731</v>
       </c>
       <c r="C56" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D56">
         <v>62</v>
@@ -2731,7 +2731,7 @@
         <v>45732</v>
       </c>
       <c r="C59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D59">
         <v>60</v>
@@ -2769,7 +2769,7 @@
         <v>45732</v>
       </c>
       <c r="C60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D60">
         <v>30</v>
@@ -2807,7 +2807,7 @@
         <v>45732</v>
       </c>
       <c r="C61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D61">
         <v>28</v>
@@ -2877,13 +2877,13 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B63" s="1">
         <v>45732</v>
       </c>
       <c r="C63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D63">
         <v>59</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B65" s="1">
         <v>45732</v>
@@ -2991,13 +2991,13 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B66" s="1">
         <v>45732</v>
       </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D66">
         <v>31</v>
@@ -3029,13 +3029,13 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B67" s="1">
         <v>45732</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D67">
         <v>111</v>
@@ -3067,7 +3067,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B68" s="1">
         <v>45732</v>
@@ -3377,7 +3377,7 @@
         <v>45733</v>
       </c>
       <c r="C76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D76">
         <v>21</v>
@@ -3409,7 +3409,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B77" s="1">
         <v>45733</v>
@@ -3485,13 +3485,13 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B79" s="1">
         <v>45733</v>
       </c>
       <c r="C79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D79">
         <v>37</v>
@@ -3523,7 +3523,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B80" s="1">
         <v>45733</v>
@@ -3599,7 +3599,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B82" s="1">
         <v>45734</v>
@@ -3719,7 +3719,7 @@
         <v>45734</v>
       </c>
       <c r="C85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D85">
         <v>21</v>
@@ -3826,28 +3826,308 @@
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>19</v>
+      </c>
+      <c r="B88" s="1">
+        <v>45734</v>
+      </c>
+      <c r="C88" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88">
+        <v>60</v>
+      </c>
+      <c r="E88">
+        <v>11.49</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>22</v>
+      </c>
+      <c r="H88">
+        <v>39</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>2</v>
+      </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>20</v>
+      </c>
+      <c r="B89" s="1">
+        <v>45734</v>
+      </c>
+      <c r="C89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89">
+        <v>51</v>
+      </c>
+      <c r="E89">
+        <v>5.23</v>
+      </c>
+      <c r="F89">
+        <v>463</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>11</v>
+      </c>
+      <c r="I89">
+        <v>37</v>
+      </c>
+      <c r="J89">
+        <v>3</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>2</v>
+      </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>24</v>
+      </c>
+      <c r="B90" s="1">
+        <v>45734</v>
+      </c>
+      <c r="C90" t="s">
+        <v>22</v>
+      </c>
+      <c r="D90">
+        <v>53</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>23</v>
+      </c>
+      <c r="H90">
+        <v>30</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>2</v>
+      </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>26</v>
+      </c>
+      <c r="B91" s="1">
+        <v>45734</v>
+      </c>
+      <c r="C91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91">
+        <v>15</v>
+      </c>
+      <c r="E91">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>15</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>2</v>
+      </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>26</v>
+      </c>
+      <c r="B92" s="1">
+        <v>45734</v>
+      </c>
+      <c r="C92" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92">
+        <v>50</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>47</v>
+      </c>
+      <c r="H92">
+        <v>3</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>25</v>
+      </c>
+      <c r="B93" s="1">
+        <v>45734</v>
+      </c>
+      <c r="C93" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93">
+        <v>37</v>
+      </c>
+      <c r="E93">
+        <v>3.07</v>
+      </c>
+      <c r="F93">
+        <v>49</v>
+      </c>
+      <c r="G93">
+        <v>5</v>
+      </c>
+      <c r="H93">
+        <v>33</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>2</v>
+      </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>18</v>
+      </c>
+      <c r="B94" s="1">
+        <v>45735</v>
+      </c>
+      <c r="C94" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94">
+        <v>51</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>50</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" s="1">
+        <v>45735</v>
+      </c>
+      <c r="C95" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95">
+        <v>90</v>
+      </c>
+      <c r="E95">
+        <v>8.6</v>
+      </c>
+      <c r="F95">
+        <v>413</v>
+      </c>
+      <c r="G95">
+        <v>9</v>
+      </c>
+      <c r="H95">
+        <v>71</v>
+      </c>
+      <c r="I95">
+        <v>10</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>2</v>
+      </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1151" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31A23E12-A0CF-4099-B87F-5123EC10214F}"/>
+  <xr:revisionPtr revIDLastSave="1163" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B08FF75-3DF3-467B-9B2B-7BF31523B0C1}"/>
   <bookViews>
     <workbookView xWindow="-18270" yWindow="5055" windowWidth="16110" windowHeight="11535" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="27">
   <si>
     <t>Participant</t>
   </si>
@@ -500,8 +500,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B355" sqref="B355"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4130,7 +4130,42 @@
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B96" s="1"/>
+      <c r="A96" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" s="1">
+        <v>45735</v>
+      </c>
+      <c r="C96" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96">
+        <v>66</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>58</v>
+      </c>
+      <c r="H96">
+        <v>9</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>2</v>
+      </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1163" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B08FF75-3DF3-467B-9B2B-7BF31523B0C1}"/>
+  <xr:revisionPtr revIDLastSave="1199" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B341362E-FA79-48B7-8874-4D0CF8939C69}"/>
   <bookViews>
     <workbookView xWindow="-18270" yWindow="5055" windowWidth="16110" windowHeight="11535" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="27">
   <si>
     <t>Participant</t>
   </si>
@@ -500,8 +500,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C97" sqref="C97"/>
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4167,52 +4167,157 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>25</v>
+      </c>
+      <c r="B97" s="1">
+        <v>45735</v>
+      </c>
+      <c r="C97" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97">
+        <v>14</v>
+      </c>
+      <c r="E97">
+        <v>1.22</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>6</v>
+      </c>
+      <c r="H97">
+        <v>8</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" s="1">
+        <v>45735</v>
+      </c>
+      <c r="C98" t="s">
+        <v>21</v>
+      </c>
+      <c r="D98">
+        <v>46</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>46</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>25</v>
+      </c>
+      <c r="B99" s="1">
+        <v>45735</v>
+      </c>
+      <c r="C99" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99">
+        <v>15</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>15</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.3">

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1199" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B341362E-FA79-48B7-8874-4D0CF8939C69}"/>
+  <xr:revisionPtr revIDLastSave="1283" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C49FA68-BC17-4E92-991E-B449F73D0995}"/>
   <bookViews>
     <workbookView xWindow="-18270" yWindow="5055" windowWidth="16110" windowHeight="11535" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="27">
   <si>
     <t>Participant</t>
   </si>
@@ -500,8 +500,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4282,25 +4282,270 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B100" s="1"/>
+      <c r="A100" t="s">
+        <v>19</v>
+      </c>
+      <c r="B100" s="1">
+        <v>45735</v>
+      </c>
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100">
+        <v>41</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>23</v>
+      </c>
+      <c r="I100">
+        <v>14</v>
+      </c>
+      <c r="J100">
+        <v>2</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B101" s="1"/>
+      <c r="A101" t="s">
+        <v>20</v>
+      </c>
+      <c r="B101" s="1">
+        <v>45735</v>
+      </c>
+      <c r="C101" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101">
+        <v>78</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>64</v>
+      </c>
+      <c r="H101">
+        <v>14</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>2</v>
+      </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B102" s="1"/>
+      <c r="A102" t="s">
+        <v>24</v>
+      </c>
+      <c r="B102" s="1">
+        <v>45735</v>
+      </c>
+      <c r="C102" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102">
+        <v>85</v>
+      </c>
+      <c r="E102">
+        <v>7.6</v>
+      </c>
+      <c r="F102">
+        <v>475</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>46</v>
+      </c>
+      <c r="I102">
+        <v>33</v>
+      </c>
+      <c r="J102">
+        <v>2</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>2</v>
+      </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B103" s="1"/>
+      <c r="A103" t="s">
+        <v>26</v>
+      </c>
+      <c r="B103" s="1">
+        <v>45735</v>
+      </c>
+      <c r="C103" t="s">
+        <v>22</v>
+      </c>
+      <c r="D103">
+        <v>65</v>
+      </c>
+      <c r="E103">
+        <v>19.45</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>20</v>
+      </c>
+      <c r="H103">
+        <v>34</v>
+      </c>
+      <c r="I103">
+        <v>11</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>2</v>
+      </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B104" s="1"/>
+      <c r="A104" t="s">
+        <v>18</v>
+      </c>
+      <c r="B104" s="1">
+        <v>45736</v>
+      </c>
+      <c r="C104" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104">
+        <v>59</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>53</v>
+      </c>
+      <c r="H104">
+        <v>6</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>2</v>
+      </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B105" s="1"/>
+      <c r="A105" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" s="1">
+        <v>45736</v>
+      </c>
+      <c r="C105" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105">
+        <v>77</v>
+      </c>
+      <c r="E105">
+        <v>7</v>
+      </c>
+      <c r="F105">
+        <v>315</v>
+      </c>
+      <c r="G105">
+        <v>5</v>
+      </c>
+      <c r="H105">
+        <v>71</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>2</v>
+      </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B106" s="1"/>
+      <c r="A106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106" s="1">
+        <v>45736</v>
+      </c>
+      <c r="C106" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106">
+        <v>79</v>
+      </c>
+      <c r="E106">
+        <v>8.02</v>
+      </c>
+      <c r="F106">
+        <v>440</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>73</v>
+      </c>
+      <c r="I106">
+        <v>6</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>2</v>
+      </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1283" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C49FA68-BC17-4E92-991E-B449F73D0995}"/>
+  <xr:revisionPtr revIDLastSave="1346" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8615C876-68B8-4290-BC2A-44BE62DD90E9}"/>
   <bookViews>
-    <workbookView xWindow="-18270" yWindow="5055" windowWidth="16110" windowHeight="11535" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
+    <workbookView xWindow="-28920" yWindow="1710" windowWidth="29040" windowHeight="15720" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$346</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="27">
   <si>
     <t>Participant</t>
   </si>
@@ -501,7 +500,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A107" sqref="A107"/>
+      <selection pane="bottomLeft" activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4548,19 +4547,194 @@
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B107" s="1"/>
+      <c r="A107" t="s">
+        <v>19</v>
+      </c>
+      <c r="B107" s="1">
+        <v>45736</v>
+      </c>
+      <c r="C107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107">
+        <v>45</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>10</v>
+      </c>
+      <c r="H107">
+        <v>24</v>
+      </c>
+      <c r="I107">
+        <v>12</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>2</v>
+      </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B108" s="1"/>
+      <c r="A108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" s="1">
+        <v>45736</v>
+      </c>
+      <c r="C108" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108">
+        <v>10</v>
+      </c>
+      <c r="E108">
+        <v>3.03</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>10</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>2</v>
+      </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B109" s="1"/>
+      <c r="A109" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" s="1">
+        <v>45736</v>
+      </c>
+      <c r="C109" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109">
+        <v>8</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>43</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>7</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>2</v>
+      </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B110" s="1"/>
+      <c r="A110" t="s">
+        <v>17</v>
+      </c>
+      <c r="B110" s="1">
+        <v>45736</v>
+      </c>
+      <c r="C110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110">
+        <v>49</v>
+      </c>
+      <c r="E110">
+        <v>5.15</v>
+      </c>
+      <c r="F110">
+        <v>171</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>9</v>
+      </c>
+      <c r="I110">
+        <v>35</v>
+      </c>
+      <c r="J110">
+        <v>5</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>2</v>
+      </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B111" s="1"/>
+      <c r="A111" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111" s="1">
+        <v>45736</v>
+      </c>
+      <c r="C111" t="s">
+        <v>21</v>
+      </c>
+      <c r="D111">
+        <v>34</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>33</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>2</v>
+      </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1346" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8615C876-68B8-4290-BC2A-44BE62DD90E9}"/>
+  <xr:revisionPtr revIDLastSave="1407" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{359211F1-93AE-40DA-8A85-EE4312004E4D}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1710" windowWidth="29040" windowHeight="15720" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
+    <workbookView xWindow="-19725" yWindow="4875" windowWidth="17280" windowHeight="9960" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="27">
   <si>
     <t>Participant</t>
   </si>
@@ -499,8 +499,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A112" sqref="A112"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4737,54 +4737,229 @@
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B112" s="1"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B113" s="1"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B114" s="1"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B115" s="1"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B116" s="1"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>20</v>
+      </c>
+      <c r="B112" s="1">
+        <v>45736</v>
+      </c>
+      <c r="C112" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112">
+        <v>67</v>
+      </c>
+      <c r="E112">
+        <v>7</v>
+      </c>
+      <c r="F112">
+        <v>285</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>12</v>
+      </c>
+      <c r="I112">
+        <v>54</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>17</v>
+      </c>
+      <c r="B113" s="1">
+        <v>45736</v>
+      </c>
+      <c r="C113" t="s">
+        <v>23</v>
+      </c>
+      <c r="D113">
+        <v>44</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>3</v>
+      </c>
+      <c r="H113">
+        <v>41</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>26</v>
+      </c>
+      <c r="B114" s="1">
+        <v>45736</v>
+      </c>
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114">
+        <v>72</v>
+      </c>
+      <c r="E114">
+        <v>8.15</v>
+      </c>
+      <c r="F114">
+        <v>627</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>34</v>
+      </c>
+      <c r="I114">
+        <v>35</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>18</v>
+      </c>
+      <c r="B115" s="1">
+        <v>45737</v>
+      </c>
+      <c r="C115" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115">
+        <v>33</v>
+      </c>
+      <c r="E115">
+        <v>2.44</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>6</v>
+      </c>
+      <c r="H115">
+        <v>27</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>13</v>
+      </c>
+      <c r="B116" s="1">
+        <v>45737</v>
+      </c>
+      <c r="C116" t="s">
+        <v>21</v>
+      </c>
+      <c r="D116">
+        <v>57</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>44</v>
+      </c>
+      <c r="H116">
+        <v>13</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B117" s="1"/>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B121" s="1"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B127" s="1"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B128" s="1"/>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.3">

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1407" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{359211F1-93AE-40DA-8A85-EE4312004E4D}"/>
+  <xr:revisionPtr revIDLastSave="1443" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13BEE91B-76C7-4C2B-B4A5-C2CA4CE59397}"/>
   <bookViews>
     <workbookView xWindow="-19725" yWindow="4875" windowWidth="17280" windowHeight="9960" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="27">
   <si>
     <t>Participant</t>
   </si>
@@ -499,8 +499,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A117" sqref="A117"/>
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4927,13 +4927,118 @@
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B117" s="1"/>
+      <c r="A117" t="s">
+        <v>24</v>
+      </c>
+      <c r="B117" s="1">
+        <v>45737</v>
+      </c>
+      <c r="C117" t="s">
+        <v>21</v>
+      </c>
+      <c r="D117">
+        <v>59</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>5</v>
+      </c>
+      <c r="H117">
+        <v>31</v>
+      </c>
+      <c r="I117">
+        <v>13</v>
+      </c>
+      <c r="J117">
+        <v>6</v>
+      </c>
+      <c r="K117">
+        <v>5</v>
+      </c>
+      <c r="L117">
+        <v>2</v>
+      </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B118" s="1"/>
+      <c r="A118" t="s">
+        <v>19</v>
+      </c>
+      <c r="B118" s="1">
+        <v>45737</v>
+      </c>
+      <c r="C118" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118">
+        <v>76</v>
+      </c>
+      <c r="E118">
+        <v>7.72</v>
+      </c>
+      <c r="F118">
+        <v>761</v>
+      </c>
+      <c r="G118">
+        <v>2</v>
+      </c>
+      <c r="H118">
+        <v>70</v>
+      </c>
+      <c r="I118">
+        <v>4</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>2</v>
+      </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B119" s="1"/>
+      <c r="A119" t="s">
+        <v>10</v>
+      </c>
+      <c r="B119" s="1">
+        <v>45737</v>
+      </c>
+      <c r="C119" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119">
+        <v>102</v>
+      </c>
+      <c r="E119">
+        <v>9.85</v>
+      </c>
+      <c r="F119">
+        <v>518</v>
+      </c>
+      <c r="G119">
+        <v>7</v>
+      </c>
+      <c r="H119">
+        <v>67</v>
+      </c>
+      <c r="I119">
+        <v>26</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>2</v>
+      </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1443" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13BEE91B-76C7-4C2B-B4A5-C2CA4CE59397}"/>
+  <xr:revisionPtr revIDLastSave="1446" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C08F72D-FC5E-4886-AE46-9BB84CE5D5BF}"/>
   <bookViews>
     <workbookView xWindow="-19725" yWindow="4875" windowWidth="17280" windowHeight="9960" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="26">
   <si>
     <t>Participant</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>Workout</t>
-  </si>
-  <si>
-    <t>Ride</t>
   </si>
   <si>
     <t>Run</t>
@@ -499,8 +496,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A120" sqref="A120"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C349" sqref="C349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,13 +555,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1">
         <v>45726</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>60</v>
@@ -596,13 +593,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
         <v>45726</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>40</v>
@@ -640,7 +637,7 @@
         <v>45726</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>46</v>
@@ -672,13 +669,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1">
         <v>45726</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>63</v>
@@ -710,13 +707,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>45726</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <v>30</v>
@@ -754,7 +751,7 @@
         <v>45726</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7">
         <v>48</v>
@@ -786,13 +783,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>45726</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>77</v>
@@ -824,13 +821,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1">
         <v>45726</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>107</v>
@@ -862,13 +859,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1">
         <v>45726</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>63</v>
@@ -900,7 +897,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1">
         <v>45727</v>
@@ -938,13 +935,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1">
         <v>45727</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12">
         <v>64</v>
@@ -976,13 +973,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1">
         <v>45727</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>35</v>
@@ -1014,13 +1011,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1">
         <v>45727</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <v>25</v>
@@ -1052,13 +1049,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1">
         <v>45727</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15">
         <v>12</v>
@@ -1096,7 +1093,7 @@
         <v>45727</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16">
         <v>42</v>
@@ -1128,13 +1125,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1">
         <v>45727</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17">
         <v>63</v>
@@ -1166,13 +1163,13 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>45727</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18">
         <v>66</v>
@@ -1210,7 +1207,7 @@
         <v>45727</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19">
         <v>68</v>
@@ -1248,7 +1245,7 @@
         <v>45727</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -1280,13 +1277,13 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1">
         <v>45727</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21">
         <v>98</v>
@@ -1318,13 +1315,13 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1">
         <v>45728</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22">
         <v>47</v>
@@ -1356,13 +1353,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="1">
         <v>45728</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23">
         <v>33</v>
@@ -1394,13 +1391,13 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="1">
         <v>45728</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24">
         <v>32</v>
@@ -1438,7 +1435,7 @@
         <v>45728</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25">
         <v>61</v>
@@ -1476,7 +1473,7 @@
         <v>45728</v>
       </c>
       <c r="C26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26">
         <v>30</v>
@@ -1514,7 +1511,7 @@
         <v>45728</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D27">
         <v>38</v>
@@ -1546,7 +1543,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" s="1">
         <v>45728</v>
@@ -1590,7 +1587,7 @@
         <v>45728</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29">
         <v>60</v>
@@ -1622,13 +1619,13 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30" s="1">
         <v>45728</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D30">
         <v>70</v>
@@ -1660,13 +1657,13 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="1">
         <v>45728</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31">
         <v>46</v>
@@ -1704,7 +1701,7 @@
         <v>45729</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32">
         <v>19</v>
@@ -1736,13 +1733,13 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33" s="1">
         <v>45729</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D33">
         <v>36</v>
@@ -1774,13 +1771,13 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34" s="1">
         <v>45729</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34">
         <v>97</v>
@@ -1812,13 +1809,13 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B35" s="1">
         <v>45729</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D35">
         <v>28</v>
@@ -1850,13 +1847,13 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" s="1">
         <v>45729</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D36">
         <v>30</v>
@@ -1888,13 +1885,13 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" s="1">
         <v>45729</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D37">
         <v>36</v>
@@ -1932,7 +1929,7 @@
         <v>45729</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38">
         <v>50</v>
@@ -1964,13 +1961,13 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39" s="1">
         <v>45729</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D39">
         <v>45</v>
@@ -2002,7 +1999,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40" s="1">
         <v>45729</v>
@@ -2040,13 +2037,13 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" s="1">
         <v>45730</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D41">
         <v>54</v>
@@ -2084,7 +2081,7 @@
         <v>45730</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D42">
         <v>44</v>
@@ -2116,13 +2113,13 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B43" s="1">
         <v>45730</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D43">
         <v>83</v>
@@ -2154,13 +2151,13 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B44" s="1">
         <v>45730</v>
       </c>
       <c r="C44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D44">
         <v>30</v>
@@ -2198,7 +2195,7 @@
         <v>45730</v>
       </c>
       <c r="C45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D45">
         <v>20</v>
@@ -2230,13 +2227,13 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B46" s="1">
         <v>45730</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D46">
         <v>84</v>
@@ -2268,13 +2265,13 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B47" s="1">
         <v>45730</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D47">
         <v>31</v>
@@ -2306,13 +2303,13 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B48" s="1">
         <v>45730</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D48">
         <v>86</v>
@@ -2344,13 +2341,13 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B49" s="1">
         <v>45731</v>
       </c>
       <c r="C49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D49">
         <v>42</v>
@@ -2388,7 +2385,7 @@
         <v>45731</v>
       </c>
       <c r="C50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D50">
         <v>94</v>
@@ -2420,13 +2417,13 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B51" s="1">
         <v>45731</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D51">
         <v>47</v>
@@ -2464,7 +2461,7 @@
         <v>45731</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D52">
         <v>125</v>
@@ -2496,13 +2493,13 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="1">
         <v>45731</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D53">
         <v>53</v>
@@ -2534,13 +2531,13 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B54" s="1">
         <v>45731</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D54">
         <v>118</v>
@@ -2572,13 +2569,13 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B55" s="1">
         <v>45731</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D55">
         <v>33</v>
@@ -2610,13 +2607,13 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B56" s="1">
         <v>45731</v>
       </c>
       <c r="C56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D56">
         <v>62</v>
@@ -2648,13 +2645,13 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B57" s="1">
         <v>45731</v>
       </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D57">
         <v>112</v>
@@ -2686,13 +2683,13 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B58" s="1">
         <v>45732</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D58">
         <v>43</v>
@@ -2730,7 +2727,7 @@
         <v>45732</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D59">
         <v>60</v>
@@ -2768,7 +2765,7 @@
         <v>45732</v>
       </c>
       <c r="C60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D60">
         <v>30</v>
@@ -2806,7 +2803,7 @@
         <v>45732</v>
       </c>
       <c r="C61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D61">
         <v>28</v>
@@ -2838,13 +2835,13 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B62" s="1">
         <v>45732</v>
       </c>
       <c r="C62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D62">
         <v>114</v>
@@ -2876,13 +2873,13 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B63" s="1">
         <v>45732</v>
       </c>
       <c r="C63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D63">
         <v>59</v>
@@ -2920,7 +2917,7 @@
         <v>45732</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D64">
         <v>45</v>
@@ -2952,13 +2949,13 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B65" s="1">
         <v>45732</v>
       </c>
       <c r="C65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D65">
         <v>48</v>
@@ -2990,13 +2987,13 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B66" s="1">
         <v>45732</v>
       </c>
       <c r="C66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D66">
         <v>31</v>
@@ -3028,13 +3025,13 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B67" s="1">
         <v>45732</v>
       </c>
       <c r="C67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D67">
         <v>111</v>
@@ -3066,13 +3063,13 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B68" s="1">
         <v>45732</v>
       </c>
       <c r="C68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D68">
         <v>46</v>
@@ -3104,13 +3101,13 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B69" s="1">
         <v>45733</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D69">
         <v>34</v>
@@ -3148,7 +3145,7 @@
         <v>45733</v>
       </c>
       <c r="C70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D70">
         <v>72</v>
@@ -3186,7 +3183,7 @@
         <v>45733</v>
       </c>
       <c r="C71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D71">
         <v>55</v>
@@ -3218,13 +3215,13 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B72" s="1">
         <v>45733</v>
       </c>
       <c r="C72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D72">
         <v>34</v>
@@ -3256,13 +3253,13 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B73" s="1">
         <v>45733</v>
       </c>
       <c r="C73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D73">
         <v>62</v>
@@ -3294,13 +3291,13 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B74" s="1">
         <v>45733</v>
       </c>
       <c r="C74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D74">
         <v>118</v>
@@ -3338,7 +3335,7 @@
         <v>45733</v>
       </c>
       <c r="C75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D75">
         <v>28</v>
@@ -3370,13 +3367,13 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B76" s="1">
         <v>45733</v>
       </c>
       <c r="C76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D76">
         <v>21</v>
@@ -3408,13 +3405,13 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B77" s="1">
         <v>45733</v>
       </c>
       <c r="C77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D77">
         <v>31</v>
@@ -3446,13 +3443,13 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B78" s="1">
         <v>45733</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D78">
         <v>82</v>
@@ -3484,13 +3481,13 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B79" s="1">
         <v>45733</v>
       </c>
       <c r="C79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D79">
         <v>37</v>
@@ -3522,13 +3519,13 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B80" s="1">
         <v>45733</v>
       </c>
       <c r="C80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D80">
         <v>86</v>
@@ -3560,13 +3557,13 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B81" s="1">
         <v>45734</v>
       </c>
       <c r="C81" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D81">
         <v>35</v>
@@ -3598,13 +3595,13 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B82" s="1">
         <v>45734</v>
       </c>
       <c r="C82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D82">
         <v>60</v>
@@ -3636,13 +3633,13 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B83" s="1">
         <v>45734</v>
       </c>
       <c r="C83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D83">
         <v>13</v>
@@ -3674,13 +3671,13 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B84" s="1">
         <v>45734</v>
       </c>
       <c r="C84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D84">
         <v>21</v>
@@ -3712,13 +3709,13 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B85" s="1">
         <v>45734</v>
       </c>
       <c r="C85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D85">
         <v>21</v>
@@ -3756,7 +3753,7 @@
         <v>45734</v>
       </c>
       <c r="C86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D86">
         <v>29</v>
@@ -3794,7 +3791,7 @@
         <v>45734</v>
       </c>
       <c r="C87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D87">
         <v>63</v>
@@ -3826,13 +3823,13 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B88" s="1">
         <v>45734</v>
       </c>
       <c r="C88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D88">
         <v>60</v>
@@ -3864,13 +3861,13 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B89" s="1">
         <v>45734</v>
       </c>
       <c r="C89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D89">
         <v>51</v>
@@ -3902,13 +3899,13 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B90" s="1">
         <v>45734</v>
       </c>
       <c r="C90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D90">
         <v>53</v>
@@ -3940,13 +3937,13 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B91" s="1">
         <v>45734</v>
       </c>
       <c r="C91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D91">
         <v>15</v>
@@ -3978,13 +3975,13 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B92" s="1">
         <v>45734</v>
       </c>
       <c r="C92" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D92">
         <v>50</v>
@@ -4016,13 +4013,13 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B93" s="1">
         <v>45734</v>
       </c>
       <c r="C93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D93">
         <v>37</v>
@@ -4054,13 +4051,13 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B94" s="1">
         <v>45735</v>
       </c>
       <c r="C94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D94">
         <v>51</v>
@@ -4098,7 +4095,7 @@
         <v>45735</v>
       </c>
       <c r="C95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D95">
         <v>90</v>
@@ -4136,7 +4133,7 @@
         <v>45735</v>
       </c>
       <c r="C96" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D96">
         <v>66</v>
@@ -4168,13 +4165,13 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B97" s="1">
         <v>45735</v>
       </c>
       <c r="C97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D97">
         <v>14</v>
@@ -4212,7 +4209,7 @@
         <v>45735</v>
       </c>
       <c r="C98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D98">
         <v>46</v>
@@ -4244,13 +4241,13 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B99" s="1">
         <v>45735</v>
       </c>
       <c r="C99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D99">
         <v>15</v>
@@ -4282,7 +4279,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B100" s="1">
         <v>45735</v>
@@ -4320,13 +4317,13 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B101" s="1">
         <v>45735</v>
       </c>
       <c r="C101" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D101">
         <v>78</v>
@@ -4358,13 +4355,13 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B102" s="1">
         <v>45735</v>
       </c>
       <c r="C102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D102">
         <v>85</v>
@@ -4396,13 +4393,13 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B103" s="1">
         <v>45735</v>
       </c>
       <c r="C103" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D103">
         <v>65</v>
@@ -4434,13 +4431,13 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B104" s="1">
         <v>45736</v>
       </c>
       <c r="C104" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D104">
         <v>59</v>
@@ -4472,13 +4469,13 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B105" s="1">
         <v>45736</v>
       </c>
       <c r="C105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D105">
         <v>77</v>
@@ -4516,7 +4513,7 @@
         <v>45736</v>
       </c>
       <c r="C106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D106">
         <v>79</v>
@@ -4548,7 +4545,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B107" s="1">
         <v>45736</v>
@@ -4592,7 +4589,7 @@
         <v>45736</v>
       </c>
       <c r="C108" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D108">
         <v>10</v>
@@ -4624,13 +4621,13 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B109" s="1">
         <v>45736</v>
       </c>
       <c r="C109" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D109">
         <v>8</v>
@@ -4662,13 +4659,13 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B110" s="1">
         <v>45736</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D110">
         <v>49</v>
@@ -4706,7 +4703,7 @@
         <v>45736</v>
       </c>
       <c r="C111" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D111">
         <v>34</v>
@@ -4738,13 +4735,13 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B112" s="1">
         <v>45736</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D112">
         <v>67</v>
@@ -4776,13 +4773,13 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B113" s="1">
         <v>45736</v>
       </c>
       <c r="C113" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D113">
         <v>44</v>
@@ -4814,13 +4811,13 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B114" s="1">
         <v>45736</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D114">
         <v>72</v>
@@ -4852,13 +4849,13 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B115" s="1">
         <v>45737</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D115">
         <v>33</v>
@@ -4896,7 +4893,7 @@
         <v>45737</v>
       </c>
       <c r="C116" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D116">
         <v>57</v>
@@ -4928,13 +4925,13 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B117" s="1">
         <v>45737</v>
       </c>
       <c r="C117" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D117">
         <v>59</v>
@@ -4966,13 +4963,13 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B118" s="1">
         <v>45737</v>
       </c>
       <c r="C118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D118">
         <v>76</v>
@@ -5010,7 +5007,7 @@
         <v>45737</v>
       </c>
       <c r="C119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D119">
         <v>102</v>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1446" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C08F72D-FC5E-4886-AE46-9BB84CE5D5BF}"/>
+  <xr:revisionPtr revIDLastSave="1507" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0D6A55C-81D6-4517-84DC-BDFF7B71339A}"/>
   <bookViews>
     <workbookView xWindow="-19725" yWindow="4875" windowWidth="17280" windowHeight="9960" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="26">
   <si>
     <t>Participant</t>
   </si>
@@ -496,8 +496,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C349" sqref="C349"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A125" sqref="A125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5038,19 +5038,194 @@
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B120" s="1"/>
+      <c r="A120" t="s">
+        <v>19</v>
+      </c>
+      <c r="B120" s="1">
+        <v>45737</v>
+      </c>
+      <c r="C120" t="s">
+        <v>20</v>
+      </c>
+      <c r="D120">
+        <v>76</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>32</v>
+      </c>
+      <c r="H120">
+        <v>44</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>2</v>
+      </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B121" s="1"/>
+      <c r="A121" t="s">
+        <v>18</v>
+      </c>
+      <c r="B121" s="1">
+        <v>45738</v>
+      </c>
+      <c r="C121" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121">
+        <v>30</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>30</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>2</v>
+      </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B122" s="1"/>
+      <c r="A122" t="s">
+        <v>17</v>
+      </c>
+      <c r="B122" s="1">
+        <v>45738</v>
+      </c>
+      <c r="C122" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122">
+        <v>58</v>
+      </c>
+      <c r="E122">
+        <v>5.05</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>7</v>
+      </c>
+      <c r="H122">
+        <v>51</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>2</v>
+      </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B123" s="1"/>
+      <c r="A123" t="s">
+        <v>25</v>
+      </c>
+      <c r="B123" s="1">
+        <v>45738</v>
+      </c>
+      <c r="C123" t="s">
+        <v>20</v>
+      </c>
+      <c r="D123">
+        <v>54</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>47</v>
+      </c>
+      <c r="H123">
+        <v>7</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B124" s="1"/>
+      <c r="A124" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" s="1">
+        <v>45738</v>
+      </c>
+      <c r="C124" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124">
+        <v>23</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>20</v>
+      </c>
+      <c r="H124">
+        <v>2</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>2</v>
+      </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B125" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1507" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0D6A55C-81D6-4517-84DC-BDFF7B71339A}"/>
+  <xr:revisionPtr revIDLastSave="1567" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9072F26E-669F-4117-A735-5ACFBE776643}"/>
   <bookViews>
     <workbookView xWindow="-19725" yWindow="4875" windowWidth="17280" windowHeight="9960" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="26">
   <si>
     <t>Participant</t>
   </si>
@@ -497,7 +497,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A125" sqref="A125"/>
+      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5228,63 +5228,238 @@
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B125" s="1"/>
+      <c r="A125" t="s">
+        <v>17</v>
+      </c>
+      <c r="B125" s="1">
+        <v>45738</v>
+      </c>
+      <c r="C125" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125">
+        <v>104</v>
+      </c>
+      <c r="E125">
+        <v>9.11</v>
+      </c>
+      <c r="F125">
+        <v>79</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>71</v>
+      </c>
+      <c r="I125">
+        <v>28</v>
+      </c>
+      <c r="J125">
+        <v>5</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B126" s="1"/>
+      <c r="A126" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" s="1">
+        <v>45738</v>
+      </c>
+      <c r="C126" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126">
+        <v>142</v>
+      </c>
+      <c r="E126">
+        <v>14</v>
+      </c>
+      <c r="F126">
+        <v>928</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>98</v>
+      </c>
+      <c r="I126">
+        <v>44</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>2</v>
+      </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B127" s="1"/>
+      <c r="A127" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" s="1">
+        <v>45738</v>
+      </c>
+      <c r="C127" t="s">
+        <v>20</v>
+      </c>
+      <c r="D127">
+        <v>22</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>22</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>2</v>
+      </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B128" s="1"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B129" s="1"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>24</v>
+      </c>
+      <c r="B128" s="1">
+        <v>45738</v>
+      </c>
+      <c r="C128" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128">
+        <v>115</v>
+      </c>
+      <c r="E128">
+        <v>10.02</v>
+      </c>
+      <c r="F128">
+        <v>492</v>
+      </c>
+      <c r="G128">
+        <v>2</v>
+      </c>
+      <c r="H128">
+        <v>110</v>
+      </c>
+      <c r="I128">
+        <v>3</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>25</v>
+      </c>
+      <c r="B129" s="1">
+        <v>45738</v>
+      </c>
+      <c r="C129" t="s">
+        <v>21</v>
+      </c>
+      <c r="D129">
+        <v>65</v>
+      </c>
+      <c r="E129">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>8</v>
+      </c>
+      <c r="H129">
+        <v>48</v>
+      </c>
+      <c r="I129">
+        <v>10</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B135" s="1"/>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
     </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B139" s="1"/>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.3">

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1567" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9072F26E-669F-4117-A735-5ACFBE776643}"/>
+  <xr:revisionPtr revIDLastSave="1651" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26E1215A-38BA-4A33-846D-574F12BEBFEB}"/>
   <bookViews>
-    <workbookView xWindow="-19725" yWindow="4875" windowWidth="17280" windowHeight="9960" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
+    <workbookView xWindow="2868" yWindow="1104" windowWidth="18564" windowHeight="11868" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="26">
   <si>
     <t>Participant</t>
   </si>
@@ -497,7 +497,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A130" sqref="A130"/>
+      <selection pane="bottomLeft" activeCell="A137" sqref="A137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5418,25 +5418,270 @@
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B130" s="1"/>
+      <c r="A130" t="s">
+        <v>19</v>
+      </c>
+      <c r="B130" s="1">
+        <v>45739</v>
+      </c>
+      <c r="C130" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130">
+        <v>67</v>
+      </c>
+      <c r="E130">
+        <v>6.6</v>
+      </c>
+      <c r="F130">
+        <v>410</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>65</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>2</v>
+      </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B131" s="1"/>
+      <c r="A131" t="s">
+        <v>10</v>
+      </c>
+      <c r="B131" s="1">
+        <v>45739</v>
+      </c>
+      <c r="C131" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131">
+        <v>136</v>
+      </c>
+      <c r="E131">
+        <v>12.96</v>
+      </c>
+      <c r="F131">
+        <v>705</v>
+      </c>
+      <c r="G131">
+        <v>11</v>
+      </c>
+      <c r="H131">
+        <v>91</v>
+      </c>
+      <c r="I131">
+        <v>31</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>2</v>
+      </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B132" s="1"/>
+      <c r="A132" t="s">
+        <v>25</v>
+      </c>
+      <c r="B132" s="1">
+        <v>45739</v>
+      </c>
+      <c r="C132" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132">
+        <v>126</v>
+      </c>
+      <c r="E132">
+        <v>12.6</v>
+      </c>
+      <c r="F132">
+        <v>1381</v>
+      </c>
+      <c r="G132">
+        <v>4</v>
+      </c>
+      <c r="H132">
+        <v>73</v>
+      </c>
+      <c r="I132">
+        <v>35</v>
+      </c>
+      <c r="J132">
+        <v>13</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>2</v>
+      </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B133" s="1"/>
+      <c r="A133" t="s">
+        <v>24</v>
+      </c>
+      <c r="B133" s="1">
+        <v>45739</v>
+      </c>
+      <c r="C133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133">
+        <v>67</v>
+      </c>
+      <c r="E133">
+        <v>6.23</v>
+      </c>
+      <c r="F133">
+        <v>233</v>
+      </c>
+      <c r="G133">
+        <v>2</v>
+      </c>
+      <c r="H133">
+        <v>65</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>2</v>
+      </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B134" s="1"/>
+      <c r="A134" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134" s="1">
+        <v>45739</v>
+      </c>
+      <c r="C134" t="s">
+        <v>21</v>
+      </c>
+      <c r="D134">
+        <v>60</v>
+      </c>
+      <c r="E134">
+        <v>21.56</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>51</v>
+      </c>
+      <c r="I134">
+        <v>8</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>2</v>
+      </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B135" s="1"/>
+      <c r="A135" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" s="1">
+        <v>45739</v>
+      </c>
+      <c r="C135" t="s">
+        <v>21</v>
+      </c>
+      <c r="D135">
+        <v>30</v>
+      </c>
+      <c r="E135">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>29</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>2</v>
+      </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B136" s="1"/>
+      <c r="A136" t="s">
+        <v>17</v>
+      </c>
+      <c r="B136" s="1">
+        <v>45739</v>
+      </c>
+      <c r="C136" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136">
+        <v>70</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>41</v>
+      </c>
+      <c r="H136">
+        <v>28</v>
+      </c>
+      <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>2</v>
+      </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1651" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{26E1215A-38BA-4A33-846D-574F12BEBFEB}"/>
+  <xr:revisionPtr revIDLastSave="1663" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{679EFDF7-1DE9-4B3A-A0C3-8344EE3CA0AA}"/>
   <bookViews>
     <workbookView xWindow="2868" yWindow="1104" windowWidth="18564" windowHeight="11868" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="27">
   <si>
     <t>Participant</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Matt</t>
+  </si>
+  <si>
+    <t>Elliptical</t>
   </si>
 </sst>
 </file>
@@ -497,7 +500,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A137" sqref="A137"/>
+      <selection pane="bottomLeft" activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5684,7 +5687,42 @@
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B137" s="1"/>
+      <c r="A137" t="s">
+        <v>17</v>
+      </c>
+      <c r="B137" s="1">
+        <v>45739</v>
+      </c>
+      <c r="C137" t="s">
+        <v>26</v>
+      </c>
+      <c r="D137">
+        <v>53</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>49</v>
+      </c>
+      <c r="H137">
+        <v>4</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>2</v>
+      </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1663" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{679EFDF7-1DE9-4B3A-A0C3-8344EE3CA0AA}"/>
+  <xr:revisionPtr revIDLastSave="1699" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D03FD52-5611-43B4-9CA6-80B43A5CC1A1}"/>
   <bookViews>
     <workbookView xWindow="2868" yWindow="1104" windowWidth="18564" windowHeight="11868" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="27">
   <si>
     <t>Participant</t>
   </si>
@@ -499,8 +499,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A138" sqref="A138"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5725,13 +5725,118 @@
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B138" s="1"/>
+      <c r="A138" t="s">
+        <v>18</v>
+      </c>
+      <c r="B138" s="1">
+        <v>45739</v>
+      </c>
+      <c r="C138" t="s">
+        <v>20</v>
+      </c>
+      <c r="D138">
+        <v>42</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>40</v>
+      </c>
+      <c r="H138">
+        <v>2</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>2</v>
+      </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B139" s="1"/>
+      <c r="A139" t="s">
+        <v>24</v>
+      </c>
+      <c r="B139" s="1">
+        <v>45740</v>
+      </c>
+      <c r="C139" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139">
+        <v>38</v>
+      </c>
+      <c r="E139">
+        <v>2.99</v>
+      </c>
+      <c r="F139">
+        <v>266</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>18</v>
+      </c>
+      <c r="I139">
+        <v>19</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>3</v>
+      </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B140" s="1"/>
+      <c r="A140" t="s">
+        <v>17</v>
+      </c>
+      <c r="B140" s="1">
+        <v>45740</v>
+      </c>
+      <c r="C140" t="s">
+        <v>21</v>
+      </c>
+      <c r="D140">
+        <v>66</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>32</v>
+      </c>
+      <c r="H140">
+        <v>35</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>3</v>
+      </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B141" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1699" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D03FD52-5611-43B4-9CA6-80B43A5CC1A1}"/>
+  <xr:revisionPtr revIDLastSave="1905" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1445C298-DB41-4AE9-88ED-1696E30C3499}"/>
   <bookViews>
-    <workbookView xWindow="2868" yWindow="1104" windowWidth="18564" windowHeight="11868" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
+    <workbookView xWindow="-20595" yWindow="3180" windowWidth="18570" windowHeight="11865" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>Elliptical</t>
+  </si>
+  <si>
+    <t>Rucking</t>
+  </si>
+  <si>
+    <t>Row</t>
   </si>
 </sst>
 </file>
@@ -499,8 +505,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A141" sqref="A141"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5839,63 +5845,658 @@
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B141" s="1"/>
+      <c r="A141" t="s">
+        <v>24</v>
+      </c>
+      <c r="B141" s="1">
+        <v>45740</v>
+      </c>
+      <c r="C141" t="s">
+        <v>27</v>
+      </c>
+      <c r="D141">
+        <v>60</v>
+      </c>
+      <c r="E141">
+        <v>4.25</v>
+      </c>
+      <c r="F141">
+        <v>522</v>
+      </c>
+      <c r="G141">
+        <v>14</v>
+      </c>
+      <c r="H141">
+        <v>43</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>3</v>
+      </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B142" s="1"/>
+      <c r="A142" t="s">
+        <v>18</v>
+      </c>
+      <c r="B142" s="1">
+        <v>45740</v>
+      </c>
+      <c r="C142" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142">
+        <v>128</v>
+      </c>
+      <c r="E142">
+        <v>15.01</v>
+      </c>
+      <c r="F142">
+        <v>367</v>
+      </c>
+      <c r="G142">
+        <v>4</v>
+      </c>
+      <c r="H142">
+        <v>97</v>
+      </c>
+      <c r="I142">
+        <v>25</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>3</v>
+      </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B143" s="1"/>
+      <c r="A143" t="s">
+        <v>16</v>
+      </c>
+      <c r="B143" s="1">
+        <v>45740</v>
+      </c>
+      <c r="C143" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143">
+        <v>15</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>2</v>
+      </c>
+      <c r="H143">
+        <v>13</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>3</v>
+      </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B144" s="1"/>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B145" s="1"/>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B146" s="1"/>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B147" s="1"/>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B148" s="1"/>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B149" s="1"/>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B150" s="1"/>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B151" s="1"/>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B152" s="1"/>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B153" s="1"/>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B154" s="1"/>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B155" s="1"/>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B156" s="1"/>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B157" s="1"/>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>10</v>
+      </c>
+      <c r="B144" s="1">
+        <v>45740</v>
+      </c>
+      <c r="C144" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144">
+        <v>10</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>10</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>16</v>
+      </c>
+      <c r="B145" s="1">
+        <v>45740</v>
+      </c>
+      <c r="C145" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145">
+        <v>12</v>
+      </c>
+      <c r="E145">
+        <v>1.25</v>
+      </c>
+      <c r="F145">
+        <v>56</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>12</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>23</v>
+      </c>
+      <c r="B146" s="1">
+        <v>45740</v>
+      </c>
+      <c r="C146" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146">
+        <v>29</v>
+      </c>
+      <c r="E146">
+        <v>2.96</v>
+      </c>
+      <c r="F146">
+        <v>195</v>
+      </c>
+      <c r="G146">
+        <v>3</v>
+      </c>
+      <c r="H146">
+        <v>22</v>
+      </c>
+      <c r="I146">
+        <v>2</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>16</v>
+      </c>
+      <c r="B147" s="1">
+        <v>45740</v>
+      </c>
+      <c r="C147" t="s">
+        <v>20</v>
+      </c>
+      <c r="D147">
+        <v>28</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>25</v>
+      </c>
+      <c r="H147">
+        <v>3</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>17</v>
+      </c>
+      <c r="B148" s="1">
+        <v>45740</v>
+      </c>
+      <c r="C148" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148">
+        <v>47</v>
+      </c>
+      <c r="E148">
+        <v>4.03</v>
+      </c>
+      <c r="F148">
+        <v>763</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <v>16</v>
+      </c>
+      <c r="I148">
+        <v>27</v>
+      </c>
+      <c r="J148">
+        <v>3</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>23</v>
+      </c>
+      <c r="B149" s="1">
+        <v>45740</v>
+      </c>
+      <c r="C149" t="s">
+        <v>21</v>
+      </c>
+      <c r="D149">
+        <v>60</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>5</v>
+      </c>
+      <c r="H149">
+        <v>54</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>10</v>
+      </c>
+      <c r="B150" s="1">
+        <v>45740</v>
+      </c>
+      <c r="C150" t="s">
+        <v>20</v>
+      </c>
+      <c r="D150">
+        <v>34</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>34</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>19</v>
+      </c>
+      <c r="B151" s="1">
+        <v>45740</v>
+      </c>
+      <c r="C151" t="s">
+        <v>20</v>
+      </c>
+      <c r="D151">
+        <v>96</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>42</v>
+      </c>
+      <c r="H151">
+        <v>44</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>25</v>
+      </c>
+      <c r="B152" s="1">
+        <v>45740</v>
+      </c>
+      <c r="C152" t="s">
+        <v>21</v>
+      </c>
+      <c r="D152">
+        <v>16</v>
+      </c>
+      <c r="E152">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>13</v>
+      </c>
+      <c r="H152">
+        <v>3</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>25</v>
+      </c>
+      <c r="B153" s="1">
+        <v>45740</v>
+      </c>
+      <c r="C153" t="s">
+        <v>20</v>
+      </c>
+      <c r="D153">
+        <v>31</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>30</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>13</v>
+      </c>
+      <c r="B154" s="1">
+        <v>45741</v>
+      </c>
+      <c r="C154" t="s">
+        <v>20</v>
+      </c>
+      <c r="D154">
+        <v>45</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>40</v>
+      </c>
+      <c r="H154">
+        <v>5</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>17</v>
+      </c>
+      <c r="B155" s="1">
+        <v>45741</v>
+      </c>
+      <c r="C155" t="s">
+        <v>20</v>
+      </c>
+      <c r="D155">
+        <v>39</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>28</v>
+      </c>
+      <c r="H155">
+        <v>11</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>24</v>
+      </c>
+      <c r="B156" s="1">
+        <v>45741</v>
+      </c>
+      <c r="C156" t="s">
+        <v>21</v>
+      </c>
+      <c r="D156">
+        <v>60</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>35</v>
+      </c>
+      <c r="H156">
+        <v>24</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>18</v>
+      </c>
+      <c r="B157" s="1">
+        <v>45741</v>
+      </c>
+      <c r="C157" t="s">
+        <v>20</v>
+      </c>
+      <c r="D157">
+        <v>44</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>43</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B158" s="1"/>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B159" s="1"/>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B160" s="1"/>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.3">

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1905" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1445C298-DB41-4AE9-88ED-1696E30C3499}"/>
+  <xr:revisionPtr revIDLastSave="1917" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29DE42D4-09A6-4F83-BB80-1A91BEEF81D4}"/>
   <bookViews>
     <workbookView xWindow="-20595" yWindow="3180" windowWidth="18570" windowHeight="11865" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -505,8 +505,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A158" sqref="A158"/>
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A159" sqref="A159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6491,7 +6491,42 @@
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B158" s="1"/>
+      <c r="A158" t="s">
+        <v>10</v>
+      </c>
+      <c r="B158" s="1">
+        <v>45741</v>
+      </c>
+      <c r="C158" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158">
+        <v>66</v>
+      </c>
+      <c r="E158">
+        <v>6.35</v>
+      </c>
+      <c r="F158">
+        <v>338</v>
+      </c>
+      <c r="G158">
+        <v>2</v>
+      </c>
+      <c r="H158">
+        <v>45</v>
+      </c>
+      <c r="I158">
+        <v>17</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>3</v>
+      </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B159" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1917" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29DE42D4-09A6-4F83-BB80-1A91BEEF81D4}"/>
+  <xr:revisionPtr revIDLastSave="1954" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F92C37C4-17C7-4BAE-BEAF-FDDA08758827}"/>
   <bookViews>
     <workbookView xWindow="-20595" yWindow="3180" windowWidth="18570" windowHeight="11865" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -506,7 +506,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A159" sqref="A159"/>
+      <selection pane="bottomLeft" activeCell="A162" sqref="A162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6529,57 +6529,162 @@
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B159" s="1"/>
+      <c r="A159" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159" s="1">
+        <v>45741</v>
+      </c>
+      <c r="C159" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159">
+        <v>9</v>
+      </c>
+      <c r="E159">
+        <v>1.04</v>
+      </c>
+      <c r="F159">
+        <v>66</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>9</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>3</v>
+      </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B160" s="1"/>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B161" s="1"/>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>13</v>
+      </c>
+      <c r="B160" s="1">
+        <v>45741</v>
+      </c>
+      <c r="C160" t="s">
+        <v>20</v>
+      </c>
+      <c r="D160">
+        <v>38</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>9</v>
+      </c>
+      <c r="H160">
+        <v>25</v>
+      </c>
+      <c r="I160">
+        <v>4</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>10</v>
+      </c>
+      <c r="B161" s="1">
+        <v>45741</v>
+      </c>
+      <c r="C161" t="s">
+        <v>20</v>
+      </c>
+      <c r="D161">
+        <v>19</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>18</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B162" s="1"/>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B163" s="1"/>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B164" s="1"/>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B165" s="1"/>
     </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B166" s="1"/>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B167" s="1"/>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B169" s="1"/>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B170" s="1"/>
     </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B171" s="1"/>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B172" s="1"/>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B173" s="1"/>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B174" s="1"/>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B175" s="1"/>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B176" s="1"/>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.3">

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1954" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F92C37C4-17C7-4BAE-BEAF-FDDA08758827}"/>
+  <xr:revisionPtr revIDLastSave="2026" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7B1B442-DBCF-4FE5-BEEB-72B38B21AFEE}"/>
   <bookViews>
     <workbookView xWindow="-20595" yWindow="3180" windowWidth="18570" windowHeight="11865" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -505,8 +505,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A162" sqref="A162"/>
+      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6643,22 +6643,232 @@
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B162" s="1"/>
+      <c r="A162" t="s">
+        <v>19</v>
+      </c>
+      <c r="B162" s="1">
+        <v>45741</v>
+      </c>
+      <c r="C162" t="s">
+        <v>15</v>
+      </c>
+      <c r="D162">
+        <v>118</v>
+      </c>
+      <c r="E162">
+        <v>11.54</v>
+      </c>
+      <c r="F162">
+        <v>696</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>63</v>
+      </c>
+      <c r="I162">
+        <v>55</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>3</v>
+      </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B163" s="1"/>
+      <c r="A163" t="s">
+        <v>16</v>
+      </c>
+      <c r="B163" s="1">
+        <v>45741</v>
+      </c>
+      <c r="C163" t="s">
+        <v>26</v>
+      </c>
+      <c r="D163">
+        <v>30</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>8</v>
+      </c>
+      <c r="H163">
+        <v>22</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>3</v>
+      </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B164" s="1"/>
+      <c r="A164" t="s">
+        <v>23</v>
+      </c>
+      <c r="B164" s="1">
+        <v>45741</v>
+      </c>
+      <c r="C164" t="s">
+        <v>15</v>
+      </c>
+      <c r="D164">
+        <v>47</v>
+      </c>
+      <c r="E164">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F164">
+        <v>61</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>3</v>
+      </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B165" s="1"/>
+      <c r="A165" t="s">
+        <v>25</v>
+      </c>
+      <c r="B165" s="1">
+        <v>45741</v>
+      </c>
+      <c r="C165" t="s">
+        <v>15</v>
+      </c>
+      <c r="D165">
+        <v>49</v>
+      </c>
+      <c r="E165">
+        <v>5.43</v>
+      </c>
+      <c r="F165">
+        <v>312</v>
+      </c>
+      <c r="G165">
+        <v>7</v>
+      </c>
+      <c r="H165">
+        <v>40</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>3</v>
+      </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B166" s="1"/>
+      <c r="A166" t="s">
+        <v>13</v>
+      </c>
+      <c r="B166" s="1">
+        <v>45742</v>
+      </c>
+      <c r="C166" t="s">
+        <v>20</v>
+      </c>
+      <c r="D166">
+        <v>47</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>36</v>
+      </c>
+      <c r="H166">
+        <v>11</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>3</v>
+      </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B167" s="1"/>
+      <c r="A167" t="s">
+        <v>18</v>
+      </c>
+      <c r="B167" s="1">
+        <v>45742</v>
+      </c>
+      <c r="C167" t="s">
+        <v>20</v>
+      </c>
+      <c r="D167">
+        <v>66</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>67</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>3</v>
+      </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2026" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7B1B442-DBCF-4FE5-BEEB-72B38B21AFEE}"/>
+  <xr:revisionPtr revIDLastSave="2038" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B169F0D3-D9B7-40E7-BEEB-B17886B433EE}"/>
   <bookViews>
     <workbookView xWindow="-20595" yWindow="3180" windowWidth="18570" windowHeight="11865" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -505,8 +505,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A168" sqref="A168"/>
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A169" sqref="A169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6871,7 +6871,42 @@
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B168" s="1"/>
+      <c r="A168" t="s">
+        <v>10</v>
+      </c>
+      <c r="B168" s="1">
+        <v>45742</v>
+      </c>
+      <c r="C168" t="s">
+        <v>21</v>
+      </c>
+      <c r="D168">
+        <v>23</v>
+      </c>
+      <c r="E168">
+        <v>6.82</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>23</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>3</v>
+      </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B169" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2038" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B169F0D3-D9B7-40E7-BEEB-B17886B433EE}"/>
+  <xr:revisionPtr revIDLastSave="2041" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A221DF98-B9E9-4D97-A912-D91B02711BAA}"/>
   <bookViews>
     <workbookView xWindow="-20595" yWindow="3180" windowWidth="18570" windowHeight="11865" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -506,7 +506,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A169" sqref="A169"/>
+      <selection pane="bottomLeft" activeCell="G164" sqref="G164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6738,13 +6738,13 @@
         <v>61</v>
       </c>
       <c r="G164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J164">
         <v>0</v>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2041" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A221DF98-B9E9-4D97-A912-D91B02711BAA}"/>
+  <xr:revisionPtr revIDLastSave="2101" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E49530C-9FB6-42CB-9157-D02DF702F2B0}"/>
   <bookViews>
     <workbookView xWindow="-20595" yWindow="3180" windowWidth="18570" windowHeight="11865" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -505,8 +505,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G164" sqref="G164"/>
+      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A174" sqref="A174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6909,19 +6909,194 @@
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B169" s="1"/>
+      <c r="A169" t="s">
+        <v>19</v>
+      </c>
+      <c r="B169" s="1">
+        <v>45742</v>
+      </c>
+      <c r="C169" t="s">
+        <v>20</v>
+      </c>
+      <c r="D169">
+        <v>70</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>56</v>
+      </c>
+      <c r="H169">
+        <v>15</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>3</v>
+      </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B170" s="1"/>
+      <c r="A170" t="s">
+        <v>10</v>
+      </c>
+      <c r="B170" s="1">
+        <v>45742</v>
+      </c>
+      <c r="C170" t="s">
+        <v>20</v>
+      </c>
+      <c r="D170">
+        <v>51</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>46</v>
+      </c>
+      <c r="H170">
+        <v>5</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>3</v>
+      </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B171" s="1"/>
+      <c r="A171" t="s">
+        <v>13</v>
+      </c>
+      <c r="B171" s="1">
+        <v>45742</v>
+      </c>
+      <c r="C171" t="s">
+        <v>21</v>
+      </c>
+      <c r="D171">
+        <v>30</v>
+      </c>
+      <c r="E171">
+        <v>11.6</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>23</v>
+      </c>
+      <c r="I171">
+        <v>7</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>3</v>
+      </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B172" s="1"/>
+      <c r="A172" t="s">
+        <v>13</v>
+      </c>
+      <c r="B172" s="1">
+        <v>45742</v>
+      </c>
+      <c r="C172" t="s">
+        <v>21</v>
+      </c>
+      <c r="D172">
+        <v>10</v>
+      </c>
+      <c r="E172">
+        <v>3.63</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>5</v>
+      </c>
+      <c r="I172">
+        <v>4</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>3</v>
+      </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B173" s="1"/>
+      <c r="A173" t="s">
+        <v>13</v>
+      </c>
+      <c r="B173" s="1">
+        <v>45742</v>
+      </c>
+      <c r="C173" t="s">
+        <v>21</v>
+      </c>
+      <c r="D173">
+        <v>15</v>
+      </c>
+      <c r="E173">
+        <v>3.63</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>4</v>
+      </c>
+      <c r="H173">
+        <v>11</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>3</v>
+      </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B174" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2101" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E49530C-9FB6-42CB-9157-D02DF702F2B0}"/>
+  <xr:revisionPtr revIDLastSave="2173" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6060049-DC0D-4F2B-8EEB-3E6CB4050016}"/>
   <bookViews>
     <workbookView xWindow="-20595" yWindow="3180" windowWidth="18570" windowHeight="11865" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -505,8 +505,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A174" sqref="A174"/>
+      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A180" sqref="A180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7099,60 +7099,270 @@
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B174" s="1"/>
+      <c r="A174" t="s">
+        <v>16</v>
+      </c>
+      <c r="B174" s="1">
+        <v>45742</v>
+      </c>
+      <c r="C174" t="s">
+        <v>15</v>
+      </c>
+      <c r="D174">
+        <v>61</v>
+      </c>
+      <c r="E174">
+        <v>6.34</v>
+      </c>
+      <c r="F174">
+        <v>167</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+      <c r="H174">
+        <v>12</v>
+      </c>
+      <c r="I174">
+        <v>48</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>3</v>
+      </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B175" s="1"/>
+      <c r="A175" t="s">
+        <v>24</v>
+      </c>
+      <c r="B175" s="1">
+        <v>45742</v>
+      </c>
+      <c r="C175" t="s">
+        <v>15</v>
+      </c>
+      <c r="D175">
+        <v>31</v>
+      </c>
+      <c r="E175">
+        <v>3.11</v>
+      </c>
+      <c r="F175">
+        <v>23</v>
+      </c>
+      <c r="G175">
+        <v>2</v>
+      </c>
+      <c r="H175">
+        <v>23</v>
+      </c>
+      <c r="I175">
+        <v>7</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>3</v>
+      </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B176" s="1"/>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B177" s="1"/>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B178" s="1"/>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B179" s="1"/>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>25</v>
+      </c>
+      <c r="B176" s="1">
+        <v>45742</v>
+      </c>
+      <c r="C176" t="s">
+        <v>21</v>
+      </c>
+      <c r="D176">
+        <v>61</v>
+      </c>
+      <c r="E176">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>33</v>
+      </c>
+      <c r="H176">
+        <v>28</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>25</v>
+      </c>
+      <c r="B177" s="1">
+        <v>45743</v>
+      </c>
+      <c r="C177" t="s">
+        <v>15</v>
+      </c>
+      <c r="D177">
+        <v>57</v>
+      </c>
+      <c r="E177">
+        <v>6.35</v>
+      </c>
+      <c r="F177">
+        <v>515</v>
+      </c>
+      <c r="G177">
+        <v>1</v>
+      </c>
+      <c r="H177">
+        <v>23</v>
+      </c>
+      <c r="I177">
+        <v>31</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>25</v>
+      </c>
+      <c r="B178" s="1">
+        <v>45743</v>
+      </c>
+      <c r="C178" t="s">
+        <v>15</v>
+      </c>
+      <c r="D178">
+        <v>2</v>
+      </c>
+      <c r="E178">
+        <v>0.06</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>2</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>10</v>
+      </c>
+      <c r="B179" s="1">
+        <v>45743</v>
+      </c>
+      <c r="C179" t="s">
+        <v>21</v>
+      </c>
+      <c r="D179">
+        <v>30</v>
+      </c>
+      <c r="E179">
+        <v>9.57</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>9</v>
+      </c>
+      <c r="H179">
+        <v>21</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B180" s="1"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B181" s="1"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B182" s="1"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B183" s="1"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B184" s="1"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B185" s="1"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B186" s="1"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B187" s="1"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B188" s="1"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B189" s="1"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B190" s="1"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B191" s="1"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B192" s="1"/>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.3">

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2173" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6060049-DC0D-4F2B-8EEB-3E6CB4050016}"/>
+  <xr:revisionPtr revIDLastSave="2197" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A160402-99F3-4E08-98F4-172124D9B498}"/>
   <bookViews>
     <workbookView xWindow="-20595" yWindow="3180" windowWidth="18570" windowHeight="11865" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -505,8 +505,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A180" sqref="A180"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7327,10 +7327,80 @@
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B180" s="1"/>
+      <c r="A180" t="s">
+        <v>13</v>
+      </c>
+      <c r="B180" s="1">
+        <v>45743</v>
+      </c>
+      <c r="C180" t="s">
+        <v>15</v>
+      </c>
+      <c r="D180">
+        <v>90</v>
+      </c>
+      <c r="E180">
+        <v>8.16</v>
+      </c>
+      <c r="F180">
+        <v>623</v>
+      </c>
+      <c r="G180">
+        <v>1</v>
+      </c>
+      <c r="H180">
+        <v>86</v>
+      </c>
+      <c r="I180">
+        <v>4</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>3</v>
+      </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B181" s="1"/>
+      <c r="A181" t="s">
+        <v>18</v>
+      </c>
+      <c r="B181" s="1">
+        <v>45743</v>
+      </c>
+      <c r="C181" t="s">
+        <v>15</v>
+      </c>
+      <c r="D181">
+        <v>75</v>
+      </c>
+      <c r="E181">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="F181">
+        <v>692</v>
+      </c>
+      <c r="G181">
+        <v>2</v>
+      </c>
+      <c r="H181">
+        <v>59</v>
+      </c>
+      <c r="I181">
+        <v>13</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>3</v>
+      </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B182" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2197" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A160402-99F3-4E08-98F4-172124D9B498}"/>
+  <xr:revisionPtr revIDLastSave="2221" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEE70523-1E77-4024-8414-567E156F4C99}"/>
   <bookViews>
     <workbookView xWindow="-20595" yWindow="3180" windowWidth="18570" windowHeight="11865" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -505,8 +505,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A182" sqref="A182"/>
+      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A184" sqref="A184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7403,10 +7403,80 @@
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B182" s="1"/>
+      <c r="A182" t="s">
+        <v>10</v>
+      </c>
+      <c r="B182" s="1">
+        <v>45743</v>
+      </c>
+      <c r="C182" t="s">
+        <v>15</v>
+      </c>
+      <c r="D182">
+        <v>54</v>
+      </c>
+      <c r="E182">
+        <v>5.36</v>
+      </c>
+      <c r="F182">
+        <v>236</v>
+      </c>
+      <c r="G182">
+        <v>5</v>
+      </c>
+      <c r="H182">
+        <v>48</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>3</v>
+      </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B183" s="1"/>
+      <c r="A183" t="s">
+        <v>24</v>
+      </c>
+      <c r="B183" s="1">
+        <v>45743</v>
+      </c>
+      <c r="C183" t="s">
+        <v>15</v>
+      </c>
+      <c r="D183">
+        <v>35</v>
+      </c>
+      <c r="E183">
+        <v>2.99</v>
+      </c>
+      <c r="F183">
+        <v>131</v>
+      </c>
+      <c r="G183">
+        <v>7</v>
+      </c>
+      <c r="H183">
+        <v>28</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>3</v>
+      </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B184" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2221" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FEE70523-1E77-4024-8414-567E156F4C99}"/>
+  <xr:revisionPtr revIDLastSave="2305" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1E38F75-5B66-4B50-8B69-33DB0A620E69}"/>
   <bookViews>
     <workbookView xWindow="-20595" yWindow="3180" windowWidth="18570" windowHeight="11865" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -505,8 +505,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A184" sqref="A184"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A191" sqref="A191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7479,25 +7479,270 @@
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B184" s="1"/>
+      <c r="A184" t="s">
+        <v>23</v>
+      </c>
+      <c r="B184" s="1">
+        <v>45743</v>
+      </c>
+      <c r="C184" t="s">
+        <v>21</v>
+      </c>
+      <c r="D184">
+        <v>32</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>18</v>
+      </c>
+      <c r="H184">
+        <v>14</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>3</v>
+      </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B185" s="1"/>
+      <c r="A185" t="s">
+        <v>23</v>
+      </c>
+      <c r="B185" s="1">
+        <v>45743</v>
+      </c>
+      <c r="C185" t="s">
+        <v>15</v>
+      </c>
+      <c r="D185">
+        <v>105</v>
+      </c>
+      <c r="E185">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="F185">
+        <v>1422</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>67</v>
+      </c>
+      <c r="I185">
+        <v>32</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>3</v>
+      </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B186" s="1"/>
+      <c r="A186" t="s">
+        <v>23</v>
+      </c>
+      <c r="B186" s="1">
+        <v>45743</v>
+      </c>
+      <c r="C186" t="s">
+        <v>14</v>
+      </c>
+      <c r="D186">
+        <v>53</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>39</v>
+      </c>
+      <c r="H186">
+        <v>15</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>3</v>
+      </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B187" s="1"/>
+      <c r="A187" t="s">
+        <v>24</v>
+      </c>
+      <c r="B187" s="1">
+        <v>45744</v>
+      </c>
+      <c r="C187" t="s">
+        <v>21</v>
+      </c>
+      <c r="D187">
+        <v>31</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>28</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>3</v>
+      </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B188" s="1"/>
+      <c r="A188" t="s">
+        <v>17</v>
+      </c>
+      <c r="B188" s="1">
+        <v>45744</v>
+      </c>
+      <c r="C188" t="s">
+        <v>15</v>
+      </c>
+      <c r="D188">
+        <v>54</v>
+      </c>
+      <c r="E188">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>4</v>
+      </c>
+      <c r="H188">
+        <v>21</v>
+      </c>
+      <c r="I188">
+        <v>29</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>3</v>
+      </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B189" s="1"/>
+      <c r="A189" t="s">
+        <v>25</v>
+      </c>
+      <c r="B189" s="1">
+        <v>45744</v>
+      </c>
+      <c r="C189" t="s">
+        <v>21</v>
+      </c>
+      <c r="D189">
+        <v>100</v>
+      </c>
+      <c r="E189">
+        <v>26.16</v>
+      </c>
+      <c r="F189">
+        <v>1490</v>
+      </c>
+      <c r="G189">
+        <v>11</v>
+      </c>
+      <c r="H189">
+        <v>86</v>
+      </c>
+      <c r="I189">
+        <v>3</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>3</v>
+      </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B190" s="1"/>
+      <c r="A190" t="s">
+        <v>16</v>
+      </c>
+      <c r="B190" s="1">
+        <v>45744</v>
+      </c>
+      <c r="C190" t="s">
+        <v>15</v>
+      </c>
+      <c r="D190">
+        <v>103</v>
+      </c>
+      <c r="E190">
+        <v>10.08</v>
+      </c>
+      <c r="F190">
+        <v>390</v>
+      </c>
+      <c r="G190">
+        <v>1</v>
+      </c>
+      <c r="H190">
+        <v>70</v>
+      </c>
+      <c r="I190">
+        <v>29</v>
+      </c>
+      <c r="J190">
+        <v>3</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>3</v>
+      </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B191" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2305" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1E38F75-5B66-4B50-8B69-33DB0A620E69}"/>
+  <xr:revisionPtr revIDLastSave="2426" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86B4FAEC-A6CA-4AE6-A2B5-B59F3C69E26E}"/>
   <bookViews>
     <workbookView xWindow="-20595" yWindow="3180" windowWidth="18570" windowHeight="11865" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -505,8 +505,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A191" sqref="A191"/>
+      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A201" sqref="A201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7745,57 +7745,407 @@
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B191" s="1"/>
+      <c r="A191" t="s">
+        <v>13</v>
+      </c>
+      <c r="B191" s="1">
+        <v>45744</v>
+      </c>
+      <c r="C191" t="s">
+        <v>20</v>
+      </c>
+      <c r="D191">
+        <v>67</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>65</v>
+      </c>
+      <c r="H191">
+        <v>3</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>3</v>
+      </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B192" s="1"/>
-    </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B193" s="1"/>
-    </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B194" s="1"/>
-    </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B195" s="1"/>
-    </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B196" s="1"/>
-    </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B197" s="1"/>
-    </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B198" s="1"/>
-    </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B199" s="1"/>
-    </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B200" s="1"/>
-    </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>23</v>
+      </c>
+      <c r="B192" s="1">
+        <v>45744</v>
+      </c>
+      <c r="C192" t="s">
+        <v>21</v>
+      </c>
+      <c r="D192">
+        <v>43</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>42</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>23</v>
+      </c>
+      <c r="B193" s="1">
+        <v>45744</v>
+      </c>
+      <c r="C193" t="s">
+        <v>26</v>
+      </c>
+      <c r="D193">
+        <v>2</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>2</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>10</v>
+      </c>
+      <c r="B194" s="1">
+        <v>45744</v>
+      </c>
+      <c r="C194" t="s">
+        <v>15</v>
+      </c>
+      <c r="D194">
+        <v>72</v>
+      </c>
+      <c r="E194">
+        <v>6.55</v>
+      </c>
+      <c r="F194">
+        <v>289</v>
+      </c>
+      <c r="G194">
+        <v>11</v>
+      </c>
+      <c r="H194">
+        <v>46</v>
+      </c>
+      <c r="I194">
+        <v>10</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>19</v>
+      </c>
+      <c r="B195" s="1">
+        <v>45744</v>
+      </c>
+      <c r="C195" t="s">
+        <v>20</v>
+      </c>
+      <c r="D195">
+        <v>83</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>45</v>
+      </c>
+      <c r="H195">
+        <v>37</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>18</v>
+      </c>
+      <c r="B196" s="1">
+        <v>45744</v>
+      </c>
+      <c r="C196" t="s">
+        <v>21</v>
+      </c>
+      <c r="D196">
+        <v>66</v>
+      </c>
+      <c r="E196">
+        <v>18</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>10</v>
+      </c>
+      <c r="H196">
+        <v>55</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>24</v>
+      </c>
+      <c r="B197" s="1">
+        <v>45745</v>
+      </c>
+      <c r="C197" t="s">
+        <v>15</v>
+      </c>
+      <c r="D197">
+        <v>194</v>
+      </c>
+      <c r="E197">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="F197">
+        <v>738</v>
+      </c>
+      <c r="G197">
+        <v>10</v>
+      </c>
+      <c r="H197">
+        <v>183</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>10</v>
+      </c>
+      <c r="B198" s="1">
+        <v>45745</v>
+      </c>
+      <c r="C198" t="s">
+        <v>15</v>
+      </c>
+      <c r="D198">
+        <v>97</v>
+      </c>
+      <c r="E198">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F198">
+        <v>466</v>
+      </c>
+      <c r="G198">
+        <v>21</v>
+      </c>
+      <c r="H198">
+        <v>73</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>18</v>
+      </c>
+      <c r="B199" s="1">
+        <v>45745</v>
+      </c>
+      <c r="C199" t="s">
+        <v>20</v>
+      </c>
+      <c r="D199">
+        <v>61</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>33</v>
+      </c>
+      <c r="H199">
+        <v>28</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>10</v>
+      </c>
+      <c r="B200" s="1">
+        <v>45745</v>
+      </c>
+      <c r="C200" t="s">
+        <v>27</v>
+      </c>
+      <c r="D200">
+        <v>28</v>
+      </c>
+      <c r="E200">
+        <v>1.31</v>
+      </c>
+      <c r="F200">
+        <v>39</v>
+      </c>
+      <c r="G200">
+        <v>28</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>0</v>
+      </c>
+      <c r="L200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B201" s="1"/>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B202" s="1"/>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B203" s="1"/>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B204" s="1"/>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B205" s="1"/>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B206" s="1"/>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B207" s="1"/>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B208" s="1"/>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.3">

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2426" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86B4FAEC-A6CA-4AE6-A2B5-B59F3C69E26E}"/>
+  <xr:revisionPtr revIDLastSave="2498" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{189871B1-CCFE-44EF-B830-0C6EA46E6E55}"/>
   <bookViews>
     <workbookView xWindow="-20595" yWindow="3180" windowWidth="18570" windowHeight="11865" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -505,8 +505,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A201" sqref="A201"/>
+      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A207" sqref="A207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8125,22 +8125,232 @@
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B201" s="1"/>
+      <c r="A201" t="s">
+        <v>16</v>
+      </c>
+      <c r="B201" s="1">
+        <v>45745</v>
+      </c>
+      <c r="C201" t="s">
+        <v>20</v>
+      </c>
+      <c r="D201">
+        <v>79</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>75</v>
+      </c>
+      <c r="H201">
+        <v>4</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+      <c r="L201">
+        <v>3</v>
+      </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B202" s="1"/>
+      <c r="A202" t="s">
+        <v>13</v>
+      </c>
+      <c r="B202" s="1">
+        <v>45745</v>
+      </c>
+      <c r="C202" t="s">
+        <v>20</v>
+      </c>
+      <c r="D202">
+        <v>81</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>55</v>
+      </c>
+      <c r="H202">
+        <v>27</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+      <c r="L202">
+        <v>3</v>
+      </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B203" s="1"/>
+      <c r="A203" t="s">
+        <v>19</v>
+      </c>
+      <c r="B203" s="1">
+        <v>45745</v>
+      </c>
+      <c r="C203" t="s">
+        <v>15</v>
+      </c>
+      <c r="D203">
+        <v>60</v>
+      </c>
+      <c r="E203">
+        <v>6.29</v>
+      </c>
+      <c r="F203">
+        <v>374</v>
+      </c>
+      <c r="G203">
+        <v>1</v>
+      </c>
+      <c r="H203">
+        <v>8</v>
+      </c>
+      <c r="I203">
+        <v>46</v>
+      </c>
+      <c r="J203">
+        <v>6</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <v>3</v>
+      </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B204" s="1"/>
+      <c r="A204" t="s">
+        <v>25</v>
+      </c>
+      <c r="B204" s="1">
+        <v>45745</v>
+      </c>
+      <c r="C204" t="s">
+        <v>15</v>
+      </c>
+      <c r="D204">
+        <v>162</v>
+      </c>
+      <c r="E204">
+        <v>16.02</v>
+      </c>
+      <c r="F204">
+        <v>873</v>
+      </c>
+      <c r="G204">
+        <v>6</v>
+      </c>
+      <c r="H204">
+        <v>86</v>
+      </c>
+      <c r="I204">
+        <v>62</v>
+      </c>
+      <c r="J204">
+        <v>1</v>
+      </c>
+      <c r="K204">
+        <v>0</v>
+      </c>
+      <c r="L204">
+        <v>3</v>
+      </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B205" s="1"/>
+      <c r="A205" t="s">
+        <v>17</v>
+      </c>
+      <c r="B205" s="1">
+        <v>45745</v>
+      </c>
+      <c r="C205" t="s">
+        <v>21</v>
+      </c>
+      <c r="D205">
+        <v>73</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>10</v>
+      </c>
+      <c r="H205">
+        <v>52</v>
+      </c>
+      <c r="I205">
+        <v>10</v>
+      </c>
+      <c r="J205">
+        <v>1</v>
+      </c>
+      <c r="K205">
+        <v>0</v>
+      </c>
+      <c r="L205">
+        <v>3</v>
+      </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B206" s="1"/>
+      <c r="A206" t="s">
+        <v>10</v>
+      </c>
+      <c r="B206" s="1">
+        <v>45745</v>
+      </c>
+      <c r="C206" t="s">
+        <v>20</v>
+      </c>
+      <c r="D206">
+        <v>15</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>15</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <v>3</v>
+      </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B207" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2498" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{189871B1-CCFE-44EF-B830-0C6EA46E6E55}"/>
+  <xr:revisionPtr revIDLastSave="2510" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5191ECC-8428-4362-B5C7-B7A2D0F6FC50}"/>
   <bookViews>
     <workbookView xWindow="-20595" yWindow="3180" windowWidth="18570" windowHeight="11865" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -505,8 +505,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A207" sqref="A207"/>
+      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A208" sqref="A208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8353,7 +8353,42 @@
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B207" s="1"/>
+      <c r="A207" t="s">
+        <v>13</v>
+      </c>
+      <c r="B207" s="1">
+        <v>45745</v>
+      </c>
+      <c r="C207" t="s">
+        <v>15</v>
+      </c>
+      <c r="D207">
+        <v>180</v>
+      </c>
+      <c r="E207">
+        <v>16.04</v>
+      </c>
+      <c r="F207">
+        <v>949</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>174</v>
+      </c>
+      <c r="I207">
+        <v>5</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+      <c r="L207">
+        <v>3</v>
+      </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B208" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2510" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5191ECC-8428-4362-B5C7-B7A2D0F6FC50}"/>
+  <xr:revisionPtr revIDLastSave="2534" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6175994B-BBD4-4599-B0AF-7147C860D704}"/>
   <bookViews>
     <workbookView xWindow="-20595" yWindow="3180" windowWidth="18570" windowHeight="11865" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -505,8 +505,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A208" sqref="A208"/>
+      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A210" sqref="A210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8391,54 +8391,124 @@
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B208" s="1"/>
-    </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B209" s="1"/>
-    </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>18</v>
+      </c>
+      <c r="B208" s="1">
+        <v>45745</v>
+      </c>
+      <c r="C208" t="s">
+        <v>21</v>
+      </c>
+      <c r="D208">
+        <v>95</v>
+      </c>
+      <c r="E208">
+        <v>20.71</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208">
+        <v>8</v>
+      </c>
+      <c r="H208">
+        <v>86</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>10</v>
+      </c>
+      <c r="B209" s="1">
+        <v>45746</v>
+      </c>
+      <c r="C209" t="s">
+        <v>15</v>
+      </c>
+      <c r="D209">
+        <v>156</v>
+      </c>
+      <c r="E209">
+        <v>13.73</v>
+      </c>
+      <c r="F209">
+        <v>702</v>
+      </c>
+      <c r="G209">
+        <v>14</v>
+      </c>
+      <c r="H209">
+        <v>92</v>
+      </c>
+      <c r="I209">
+        <v>42</v>
+      </c>
+      <c r="J209">
+        <v>2</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B210" s="1"/>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B211" s="1"/>
     </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B212" s="1"/>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B213" s="1"/>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B214" s="1"/>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B215" s="1"/>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B216" s="1"/>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B217" s="1"/>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B218" s="1"/>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B219" s="1"/>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B220" s="1"/>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B221" s="1"/>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B222" s="1"/>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B223" s="1"/>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B224" s="1"/>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.3">

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2534" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6175994B-BBD4-4599-B0AF-7147C860D704}"/>
+  <xr:revisionPtr revIDLastSave="2704" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86E079E8-D289-44E7-93CD-73BA6C82445E}"/>
   <bookViews>
     <workbookView xWindow="-20595" yWindow="3180" windowWidth="18570" windowHeight="11865" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -505,8 +505,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A210" sqref="A210"/>
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A224" sqref="A224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8467,46 +8467,536 @@
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B210" s="1"/>
+      <c r="A210" t="s">
+        <v>24</v>
+      </c>
+      <c r="B210" s="1">
+        <v>45746</v>
+      </c>
+      <c r="C210" t="s">
+        <v>21</v>
+      </c>
+      <c r="D210">
+        <v>30</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <v>24</v>
+      </c>
+      <c r="H210">
+        <v>7</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>0</v>
+      </c>
+      <c r="L210">
+        <v>3</v>
+      </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B211" s="1"/>
+      <c r="A211" t="s">
+        <v>17</v>
+      </c>
+      <c r="B211" s="1">
+        <v>45746</v>
+      </c>
+      <c r="C211" t="s">
+        <v>15</v>
+      </c>
+      <c r="D211">
+        <v>85</v>
+      </c>
+      <c r="E211">
+        <v>7.93</v>
+      </c>
+      <c r="F211">
+        <v>965</v>
+      </c>
+      <c r="G211">
+        <v>1</v>
+      </c>
+      <c r="H211">
+        <v>32</v>
+      </c>
+      <c r="I211">
+        <v>34</v>
+      </c>
+      <c r="J211">
+        <v>19</v>
+      </c>
+      <c r="K211">
+        <v>0</v>
+      </c>
+      <c r="L211">
+        <v>3</v>
+      </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B212" s="1"/>
+      <c r="A212" t="s">
+        <v>23</v>
+      </c>
+      <c r="B212" s="1">
+        <v>45746</v>
+      </c>
+      <c r="C212" t="s">
+        <v>15</v>
+      </c>
+      <c r="D212">
+        <v>10</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212">
+        <v>91</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="H212">
+        <v>7</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <v>3</v>
+      </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B213" s="1"/>
+      <c r="A213" t="s">
+        <v>24</v>
+      </c>
+      <c r="B213" s="1">
+        <v>45746</v>
+      </c>
+      <c r="C213" t="s">
+        <v>27</v>
+      </c>
+      <c r="D213">
+        <v>20</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213">
+        <v>154</v>
+      </c>
+      <c r="G213">
+        <v>20</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>0</v>
+      </c>
+      <c r="L213">
+        <v>3</v>
+      </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B214" s="1"/>
+      <c r="A214" t="s">
+        <v>23</v>
+      </c>
+      <c r="B214" s="1">
+        <v>45746</v>
+      </c>
+      <c r="C214" t="s">
+        <v>15</v>
+      </c>
+      <c r="D214">
+        <v>74</v>
+      </c>
+      <c r="E214">
+        <v>7.72</v>
+      </c>
+      <c r="F214">
+        <v>450</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214">
+        <v>36</v>
+      </c>
+      <c r="I214">
+        <v>32</v>
+      </c>
+      <c r="J214">
+        <v>1</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>3</v>
+      </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B215" s="1"/>
+      <c r="A215" t="s">
+        <v>25</v>
+      </c>
+      <c r="B215" s="1">
+        <v>45746</v>
+      </c>
+      <c r="C215" t="s">
+        <v>21</v>
+      </c>
+      <c r="D215">
+        <v>80</v>
+      </c>
+      <c r="E215">
+        <v>26.19</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>22</v>
+      </c>
+      <c r="H215">
+        <v>59</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <v>3</v>
+      </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B216" s="1"/>
+      <c r="A216" t="s">
+        <v>13</v>
+      </c>
+      <c r="B216" s="1">
+        <v>45746</v>
+      </c>
+      <c r="C216" t="s">
+        <v>20</v>
+      </c>
+      <c r="D216">
+        <v>76</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>74</v>
+      </c>
+      <c r="H216">
+        <v>2</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+      <c r="L216">
+        <v>3</v>
+      </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B217" s="1"/>
+      <c r="A217" t="s">
+        <v>16</v>
+      </c>
+      <c r="B217" s="1">
+        <v>45746</v>
+      </c>
+      <c r="C217" t="s">
+        <v>15</v>
+      </c>
+      <c r="D217">
+        <v>184</v>
+      </c>
+      <c r="E217">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="F217">
+        <v>436</v>
+      </c>
+      <c r="G217">
+        <v>2</v>
+      </c>
+      <c r="H217">
+        <v>159</v>
+      </c>
+      <c r="I217">
+        <v>22</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>0</v>
+      </c>
+      <c r="L217">
+        <v>3</v>
+      </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B218" s="1"/>
+      <c r="A218" t="s">
+        <v>25</v>
+      </c>
+      <c r="B218" s="1">
+        <v>45746</v>
+      </c>
+      <c r="C218" t="s">
+        <v>27</v>
+      </c>
+      <c r="D218">
+        <v>28</v>
+      </c>
+      <c r="E218">
+        <v>1.59</v>
+      </c>
+      <c r="F218">
+        <v>154</v>
+      </c>
+      <c r="G218">
+        <v>24</v>
+      </c>
+      <c r="H218">
+        <v>3</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>3</v>
+      </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B219" s="1"/>
+      <c r="A219" t="s">
+        <v>13</v>
+      </c>
+      <c r="B219" s="1">
+        <v>45746</v>
+      </c>
+      <c r="C219" t="s">
+        <v>21</v>
+      </c>
+      <c r="D219">
+        <v>60</v>
+      </c>
+      <c r="E219">
+        <v>21.3</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>4</v>
+      </c>
+      <c r="H219">
+        <v>52</v>
+      </c>
+      <c r="I219">
+        <v>4</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219">
+        <v>0</v>
+      </c>
+      <c r="L219">
+        <v>3</v>
+      </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B220" s="1"/>
+      <c r="A220" t="s">
+        <v>13</v>
+      </c>
+      <c r="B220" s="1">
+        <v>45746</v>
+      </c>
+      <c r="C220" t="s">
+        <v>21</v>
+      </c>
+      <c r="D220">
+        <v>20</v>
+      </c>
+      <c r="E220">
+        <v>5.57</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>3</v>
+      </c>
+      <c r="H220">
+        <v>16</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>0</v>
+      </c>
+      <c r="L220">
+        <v>3</v>
+      </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B221" s="1"/>
+      <c r="A221" t="s">
+        <v>18</v>
+      </c>
+      <c r="B221" s="1">
+        <v>45746</v>
+      </c>
+      <c r="C221" t="s">
+        <v>20</v>
+      </c>
+      <c r="D221">
+        <v>60</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <v>51</v>
+      </c>
+      <c r="H221">
+        <v>10</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <v>3</v>
+      </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B222" s="1"/>
+      <c r="A222" t="s">
+        <v>13</v>
+      </c>
+      <c r="B222" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C222" t="s">
+        <v>20</v>
+      </c>
+      <c r="D222">
+        <v>58</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>48</v>
+      </c>
+      <c r="H222">
+        <v>9</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>4</v>
+      </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B223" s="1"/>
+      <c r="A223" t="s">
+        <v>25</v>
+      </c>
+      <c r="B223" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C223" t="s">
+        <v>15</v>
+      </c>
+      <c r="D223">
+        <v>52</v>
+      </c>
+      <c r="E223">
+        <v>4.82</v>
+      </c>
+      <c r="F223">
+        <v>269</v>
+      </c>
+      <c r="G223">
+        <v>9</v>
+      </c>
+      <c r="H223">
+        <v>34</v>
+      </c>
+      <c r="I223">
+        <v>5</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>4</v>
+      </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B224" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2704" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86E079E8-D289-44E7-93CD-73BA6C82445E}"/>
+  <xr:revisionPtr revIDLastSave="2740" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA91505B-7E5C-4ED9-ADA3-F19C6C0C0C2E}"/>
   <bookViews>
     <workbookView xWindow="-20595" yWindow="3180" windowWidth="18570" windowHeight="11865" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -505,8 +505,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A224" sqref="A224"/>
+      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A227" sqref="A227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8999,54 +8999,159 @@
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B224" s="1"/>
-    </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B225" s="1"/>
-    </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B226" s="1"/>
-    </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>17</v>
+      </c>
+      <c r="B224" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C224" t="s">
+        <v>20</v>
+      </c>
+      <c r="D224">
+        <v>52</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>46</v>
+      </c>
+      <c r="H224">
+        <v>5</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>18</v>
+      </c>
+      <c r="B225" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C225" t="s">
+        <v>15</v>
+      </c>
+      <c r="D225">
+        <v>150</v>
+      </c>
+      <c r="E225">
+        <v>17.59</v>
+      </c>
+      <c r="F225">
+        <v>361</v>
+      </c>
+      <c r="G225">
+        <v>2</v>
+      </c>
+      <c r="H225">
+        <v>129</v>
+      </c>
+      <c r="I225">
+        <v>19</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>10</v>
+      </c>
+      <c r="B226" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C226" t="s">
+        <v>21</v>
+      </c>
+      <c r="D226">
+        <v>31</v>
+      </c>
+      <c r="E226">
+        <v>10</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>21</v>
+      </c>
+      <c r="H226">
+        <v>10</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B227" s="1"/>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B228" s="1"/>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B229" s="1"/>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B230" s="1"/>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B231" s="1"/>
     </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B232" s="1"/>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B233" s="1"/>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B234" s="1"/>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B235" s="1"/>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B236" s="1"/>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B237" s="1"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B238" s="1"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B239" s="1"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B240" s="1"/>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.3">

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2740" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA91505B-7E5C-4ED9-ADA3-F19C6C0C0C2E}"/>
+  <xr:revisionPtr revIDLastSave="2765" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{120E49C8-D2F8-4E9F-A891-EE66A1AE0635}"/>
   <bookViews>
     <workbookView xWindow="-20595" yWindow="3180" windowWidth="18570" windowHeight="11865" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -505,8 +505,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A227" sqref="A227"/>
+      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D229" sqref="D229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9113,10 +9113,80 @@
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B227" s="1"/>
+      <c r="A227" t="s">
+        <v>19</v>
+      </c>
+      <c r="B227" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C227" t="s">
+        <v>20</v>
+      </c>
+      <c r="D227">
+        <v>81</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>54</v>
+      </c>
+      <c r="H227">
+        <v>27</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>4</v>
+      </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B228" s="1"/>
+      <c r="A228" t="s">
+        <v>10</v>
+      </c>
+      <c r="B228" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C228" t="s">
+        <v>20</v>
+      </c>
+      <c r="D228">
+        <v>30</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>29</v>
+      </c>
+      <c r="H228">
+        <v>1</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>4</v>
+      </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B229" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2765" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{120E49C8-D2F8-4E9F-A891-EE66A1AE0635}"/>
+  <xr:revisionPtr revIDLastSave="2897" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5C77858-ABE9-4C9B-BABA-37EC79712796}"/>
   <bookViews>
     <workbookView xWindow="-20595" yWindow="3180" windowWidth="18570" windowHeight="11865" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -505,8 +505,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D229" sqref="D229"/>
+      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A240" sqref="A240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9189,37 +9189,422 @@
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B229" s="1"/>
+      <c r="A229" t="s">
+        <v>10</v>
+      </c>
+      <c r="B229" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C229" t="s">
+        <v>27</v>
+      </c>
+      <c r="D229">
+        <v>27</v>
+      </c>
+      <c r="E229">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F229">
+        <v>30</v>
+      </c>
+      <c r="G229">
+        <v>27</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>4</v>
+      </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B230" s="1"/>
+      <c r="A230" t="s">
+        <v>23</v>
+      </c>
+      <c r="B230" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C230" t="s">
+        <v>21</v>
+      </c>
+      <c r="D230">
+        <v>43</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>20</v>
+      </c>
+      <c r="H230">
+        <v>23</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>4</v>
+      </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B231" s="1"/>
+      <c r="A231" t="s">
+        <v>23</v>
+      </c>
+      <c r="B231" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C231" t="s">
+        <v>21</v>
+      </c>
+      <c r="D231">
+        <v>46</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>4</v>
+      </c>
+      <c r="H231">
+        <v>41</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>4</v>
+      </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B232" s="1"/>
+      <c r="A232" t="s">
+        <v>25</v>
+      </c>
+      <c r="B232" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C232" t="s">
+        <v>20</v>
+      </c>
+      <c r="D232">
+        <v>45</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>34</v>
+      </c>
+      <c r="H232">
+        <v>11</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>4</v>
+      </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B233" s="1"/>
+      <c r="A233" t="s">
+        <v>23</v>
+      </c>
+      <c r="B233" s="1">
+        <v>45747</v>
+      </c>
+      <c r="C233" t="s">
+        <v>21</v>
+      </c>
+      <c r="D233">
+        <v>32</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>3</v>
+      </c>
+      <c r="H233">
+        <v>30</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>4</v>
+      </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B234" s="1"/>
+      <c r="A234" t="s">
+        <v>24</v>
+      </c>
+      <c r="B234" s="1">
+        <v>45748</v>
+      </c>
+      <c r="C234" t="s">
+        <v>15</v>
+      </c>
+      <c r="D234">
+        <v>114</v>
+      </c>
+      <c r="E234">
+        <v>10.01</v>
+      </c>
+      <c r="F234">
+        <v>276</v>
+      </c>
+      <c r="G234">
+        <v>6</v>
+      </c>
+      <c r="H234">
+        <v>108</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>4</v>
+      </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B235" s="1"/>
+      <c r="A235" t="s">
+        <v>17</v>
+      </c>
+      <c r="B235" s="1">
+        <v>45748</v>
+      </c>
+      <c r="C235" t="s">
+        <v>15</v>
+      </c>
+      <c r="D235">
+        <v>69</v>
+      </c>
+      <c r="E235">
+        <v>3.11</v>
+      </c>
+      <c r="F235">
+        <v>544</v>
+      </c>
+      <c r="G235">
+        <v>27</v>
+      </c>
+      <c r="H235">
+        <v>38</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235">
+        <v>3</v>
+      </c>
+      <c r="K235">
+        <v>0</v>
+      </c>
+      <c r="L235">
+        <v>4</v>
+      </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B236" s="1"/>
+      <c r="A236" t="s">
+        <v>25</v>
+      </c>
+      <c r="B236" s="1">
+        <v>45748</v>
+      </c>
+      <c r="C236" t="s">
+        <v>15</v>
+      </c>
+      <c r="D236">
+        <v>68</v>
+      </c>
+      <c r="E236">
+        <v>7.28</v>
+      </c>
+      <c r="F236">
+        <v>390</v>
+      </c>
+      <c r="G236">
+        <v>2</v>
+      </c>
+      <c r="H236">
+        <v>42</v>
+      </c>
+      <c r="I236">
+        <v>16</v>
+      </c>
+      <c r="J236">
+        <v>4</v>
+      </c>
+      <c r="K236">
+        <v>0</v>
+      </c>
+      <c r="L236">
+        <v>4</v>
+      </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B237" s="1"/>
+      <c r="A237" t="s">
+        <v>17</v>
+      </c>
+      <c r="B237" s="1">
+        <v>45748</v>
+      </c>
+      <c r="C237" t="s">
+        <v>15</v>
+      </c>
+      <c r="D237">
+        <v>84</v>
+      </c>
+      <c r="E237">
+        <v>7.41</v>
+      </c>
+      <c r="F237">
+        <v>864</v>
+      </c>
+      <c r="G237">
+        <v>11</v>
+      </c>
+      <c r="H237">
+        <v>27</v>
+      </c>
+      <c r="I237">
+        <v>42</v>
+      </c>
+      <c r="J237">
+        <v>4</v>
+      </c>
+      <c r="K237">
+        <v>0</v>
+      </c>
+      <c r="L237">
+        <v>4</v>
+      </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B238" s="1"/>
+      <c r="A238" t="s">
+        <v>13</v>
+      </c>
+      <c r="B238" s="1">
+        <v>45748</v>
+      </c>
+      <c r="C238" t="s">
+        <v>21</v>
+      </c>
+      <c r="D238">
+        <v>20</v>
+      </c>
+      <c r="E238">
+        <v>7.26</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+      <c r="H238">
+        <v>17</v>
+      </c>
+      <c r="I238">
+        <v>3</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>0</v>
+      </c>
+      <c r="L238">
+        <v>4</v>
+      </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B239" s="1"/>
+      <c r="A239" t="s">
+        <v>13</v>
+      </c>
+      <c r="B239" s="1">
+        <v>45748</v>
+      </c>
+      <c r="C239" t="s">
+        <v>27</v>
+      </c>
+      <c r="D239">
+        <v>41</v>
+      </c>
+      <c r="E239">
+        <v>1.93</v>
+      </c>
+      <c r="F239">
+        <v>308</v>
+      </c>
+      <c r="G239">
+        <v>16</v>
+      </c>
+      <c r="H239">
+        <v>25</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239">
+        <v>0</v>
+      </c>
+      <c r="L239">
+        <v>4</v>
+      </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B240" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2897" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5C77858-ABE9-4C9B-BABA-37EC79712796}"/>
+  <xr:revisionPtr revIDLastSave="2981" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD550617-1D28-4BBA-8FCC-A9C3F6EECD65}"/>
   <bookViews>
     <workbookView xWindow="-20595" yWindow="3180" windowWidth="18570" windowHeight="11865" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -505,8 +505,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A240" sqref="A240"/>
+      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A247" sqref="A247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9607,54 +9607,299 @@
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B240" s="1"/>
-    </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B241" s="1"/>
-    </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B242" s="1"/>
-    </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B243" s="1"/>
-    </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B244" s="1"/>
-    </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B245" s="1"/>
-    </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B246" s="1"/>
-    </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>13</v>
+      </c>
+      <c r="B240" s="1">
+        <v>45748</v>
+      </c>
+      <c r="C240" t="s">
+        <v>15</v>
+      </c>
+      <c r="D240">
+        <v>27</v>
+      </c>
+      <c r="E240">
+        <v>2.83</v>
+      </c>
+      <c r="F240">
+        <v>184</v>
+      </c>
+      <c r="G240">
+        <v>1</v>
+      </c>
+      <c r="H240">
+        <v>16</v>
+      </c>
+      <c r="I240">
+        <v>9</v>
+      </c>
+      <c r="J240">
+        <v>1</v>
+      </c>
+      <c r="K240">
+        <v>0</v>
+      </c>
+      <c r="L240">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>13</v>
+      </c>
+      <c r="B241" s="1">
+        <v>45748</v>
+      </c>
+      <c r="C241" t="s">
+        <v>21</v>
+      </c>
+      <c r="D241">
+        <v>30</v>
+      </c>
+      <c r="E241">
+        <v>9.15</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>8</v>
+      </c>
+      <c r="H241">
+        <v>22</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>0</v>
+      </c>
+      <c r="L241">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>18</v>
+      </c>
+      <c r="B242" s="1">
+        <v>45748</v>
+      </c>
+      <c r="C242" t="s">
+        <v>20</v>
+      </c>
+      <c r="D242">
+        <v>63</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <v>54</v>
+      </c>
+      <c r="H242">
+        <v>10</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242">
+        <v>0</v>
+      </c>
+      <c r="L242">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>10</v>
+      </c>
+      <c r="B243" s="1">
+        <v>45748</v>
+      </c>
+      <c r="C243" t="s">
+        <v>15</v>
+      </c>
+      <c r="D243">
+        <v>90</v>
+      </c>
+      <c r="E243">
+        <v>8.4</v>
+      </c>
+      <c r="F243">
+        <v>377</v>
+      </c>
+      <c r="G243">
+        <v>10</v>
+      </c>
+      <c r="H243">
+        <v>74</v>
+      </c>
+      <c r="I243">
+        <v>2</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243">
+        <v>0</v>
+      </c>
+      <c r="L243">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>19</v>
+      </c>
+      <c r="B244" s="1">
+        <v>45748</v>
+      </c>
+      <c r="C244" t="s">
+        <v>15</v>
+      </c>
+      <c r="D244">
+        <v>66</v>
+      </c>
+      <c r="E244">
+        <v>6.72</v>
+      </c>
+      <c r="F244">
+        <v>748</v>
+      </c>
+      <c r="G244">
+        <v>1</v>
+      </c>
+      <c r="H244">
+        <v>24</v>
+      </c>
+      <c r="I244">
+        <v>38</v>
+      </c>
+      <c r="J244">
+        <v>3</v>
+      </c>
+      <c r="K244">
+        <v>0</v>
+      </c>
+      <c r="L244">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>10</v>
+      </c>
+      <c r="B245" s="1">
+        <v>45748</v>
+      </c>
+      <c r="C245" t="s">
+        <v>20</v>
+      </c>
+      <c r="D245">
+        <v>16</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+      <c r="G245">
+        <v>11</v>
+      </c>
+      <c r="H245">
+        <v>4</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245">
+        <v>0</v>
+      </c>
+      <c r="L245">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>16</v>
+      </c>
+      <c r="B246" s="1">
+        <v>45748</v>
+      </c>
+      <c r="C246" t="s">
+        <v>15</v>
+      </c>
+      <c r="D246">
+        <v>83</v>
+      </c>
+      <c r="E246">
+        <v>8.07</v>
+      </c>
+      <c r="F246">
+        <v>312</v>
+      </c>
+      <c r="G246">
+        <v>1</v>
+      </c>
+      <c r="H246">
+        <v>59</v>
+      </c>
+      <c r="I246">
+        <v>24</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>0</v>
+      </c>
+      <c r="L246">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B247" s="1"/>
     </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B248" s="1"/>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B249" s="1"/>
     </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B250" s="1"/>
     </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B251" s="1"/>
     </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B252" s="1"/>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B253" s="1"/>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B254" s="1"/>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B255" s="1"/>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B256" s="1"/>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.3">

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2981" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD550617-1D28-4BBA-8FCC-A9C3F6EECD65}"/>
+  <xr:revisionPtr revIDLastSave="3053" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{936CCAA2-7900-4211-BF32-DD6D8C3512FD}"/>
   <bookViews>
-    <workbookView xWindow="-20595" yWindow="3180" windowWidth="18570" windowHeight="11865" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
+    <workbookView xWindow="-25185" yWindow="3180" windowWidth="23160" windowHeight="11865" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -505,8 +505,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A247" sqref="A247"/>
+      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A253" sqref="A253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9873,22 +9873,232 @@
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B247" s="1"/>
+      <c r="A247" t="s">
+        <v>23</v>
+      </c>
+      <c r="B247" s="1">
+        <v>45748</v>
+      </c>
+      <c r="C247" t="s">
+        <v>15</v>
+      </c>
+      <c r="D247">
+        <v>46</v>
+      </c>
+      <c r="E247">
+        <v>5.34</v>
+      </c>
+      <c r="F247">
+        <v>82</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+      <c r="H247">
+        <v>18</v>
+      </c>
+      <c r="I247">
+        <v>23</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>0</v>
+      </c>
+      <c r="L247">
+        <v>4</v>
+      </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B248" s="1"/>
+      <c r="A248" t="s">
+        <v>18</v>
+      </c>
+      <c r="B248" s="1">
+        <v>45748</v>
+      </c>
+      <c r="C248" t="s">
+        <v>21</v>
+      </c>
+      <c r="D248">
+        <v>31</v>
+      </c>
+      <c r="E248">
+        <v>6.99</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248">
+        <v>3</v>
+      </c>
+      <c r="H248">
+        <v>28</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248">
+        <v>0</v>
+      </c>
+      <c r="L248">
+        <v>4</v>
+      </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B249" s="1"/>
+      <c r="A249" t="s">
+        <v>24</v>
+      </c>
+      <c r="B249" s="1">
+        <v>45749</v>
+      </c>
+      <c r="C249" t="s">
+        <v>15</v>
+      </c>
+      <c r="D249">
+        <v>50</v>
+      </c>
+      <c r="E249">
+        <v>3.91</v>
+      </c>
+      <c r="F249">
+        <v>164</v>
+      </c>
+      <c r="G249">
+        <v>22</v>
+      </c>
+      <c r="H249">
+        <v>28</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>0</v>
+      </c>
+      <c r="L249">
+        <v>4</v>
+      </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B250" s="1"/>
+      <c r="A250" t="s">
+        <v>18</v>
+      </c>
+      <c r="B250" s="1">
+        <v>45749</v>
+      </c>
+      <c r="C250" t="s">
+        <v>20</v>
+      </c>
+      <c r="D250">
+        <v>43</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="G250">
+        <v>43</v>
+      </c>
+      <c r="H250">
+        <v>0</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250">
+        <v>0</v>
+      </c>
+      <c r="L250">
+        <v>4</v>
+      </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B251" s="1"/>
+      <c r="A251" t="s">
+        <v>24</v>
+      </c>
+      <c r="B251" s="1">
+        <v>45749</v>
+      </c>
+      <c r="C251" t="s">
+        <v>21</v>
+      </c>
+      <c r="D251">
+        <v>60</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+      <c r="G251">
+        <v>52</v>
+      </c>
+      <c r="H251">
+        <v>8</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>0</v>
+      </c>
+      <c r="L251">
+        <v>4</v>
+      </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B252" s="1"/>
+      <c r="A252" t="s">
+        <v>13</v>
+      </c>
+      <c r="B252" s="1">
+        <v>45749</v>
+      </c>
+      <c r="C252" t="s">
+        <v>20</v>
+      </c>
+      <c r="D252">
+        <v>76</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+      <c r="G252">
+        <v>69</v>
+      </c>
+      <c r="H252">
+        <v>6</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252">
+        <v>0</v>
+      </c>
+      <c r="L252">
+        <v>4</v>
+      </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B253" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3053" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{936CCAA2-7900-4211-BF32-DD6D8C3512FD}"/>
+  <xr:revisionPtr revIDLastSave="3140" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E73F932D-E0A2-4B25-B2C0-3026D135B385}"/>
   <bookViews>
     <workbookView xWindow="-25185" yWindow="3180" windowWidth="23160" windowHeight="11865" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -505,8 +505,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A234" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A253" sqref="A253"/>
+      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A260" sqref="A260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10101,63 +10101,308 @@
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B253" s="1"/>
+      <c r="A253" t="s">
+        <v>10</v>
+      </c>
+      <c r="B253" s="1">
+        <v>45749</v>
+      </c>
+      <c r="C253" t="s">
+        <v>21</v>
+      </c>
+      <c r="D253">
+        <v>20</v>
+      </c>
+      <c r="E253">
+        <v>5.92</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253">
+        <v>20</v>
+      </c>
+      <c r="H253">
+        <v>0</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>0</v>
+      </c>
+      <c r="L253">
+        <v>4</v>
+      </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B254" s="1"/>
+      <c r="A254" t="s">
+        <v>10</v>
+      </c>
+      <c r="B254" s="1">
+        <v>45749</v>
+      </c>
+      <c r="C254" t="s">
+        <v>20</v>
+      </c>
+      <c r="D254">
+        <v>24</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254">
+        <v>24</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254">
+        <v>0</v>
+      </c>
+      <c r="L254">
+        <v>4</v>
+      </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B255" s="1"/>
+      <c r="A255" t="s">
+        <v>19</v>
+      </c>
+      <c r="B255" s="1">
+        <v>45749</v>
+      </c>
+      <c r="C255" t="s">
+        <v>20</v>
+      </c>
+      <c r="D255">
+        <v>74</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255">
+        <v>41</v>
+      </c>
+      <c r="H255">
+        <v>33</v>
+      </c>
+      <c r="I255">
+        <v>1</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>0</v>
+      </c>
+      <c r="L255">
+        <v>4</v>
+      </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B256" s="1"/>
-    </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B257" s="1"/>
-    </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B258" s="1"/>
-    </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B259" s="1"/>
-    </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>23</v>
+      </c>
+      <c r="B256" s="1">
+        <v>45749</v>
+      </c>
+      <c r="C256" t="s">
+        <v>21</v>
+      </c>
+      <c r="D256">
+        <v>36</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+      <c r="G256">
+        <v>10</v>
+      </c>
+      <c r="H256">
+        <v>26</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="K256">
+        <v>0</v>
+      </c>
+      <c r="L256">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>23</v>
+      </c>
+      <c r="B257" s="1">
+        <v>45749</v>
+      </c>
+      <c r="C257" t="s">
+        <v>21</v>
+      </c>
+      <c r="D257">
+        <v>24</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+      <c r="G257">
+        <v>10</v>
+      </c>
+      <c r="H257">
+        <v>14</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257">
+        <v>0</v>
+      </c>
+      <c r="L257">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>25</v>
+      </c>
+      <c r="B258" s="1">
+        <v>45749</v>
+      </c>
+      <c r="C258" t="s">
+        <v>21</v>
+      </c>
+      <c r="D258">
+        <v>77</v>
+      </c>
+      <c r="E258">
+        <v>20.87</v>
+      </c>
+      <c r="F258">
+        <v>1401</v>
+      </c>
+      <c r="G258">
+        <v>4</v>
+      </c>
+      <c r="H258">
+        <v>73</v>
+      </c>
+      <c r="I258">
+        <v>1</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="K258">
+        <v>0</v>
+      </c>
+      <c r="L258">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>17</v>
+      </c>
+      <c r="B259" s="1">
+        <v>45750</v>
+      </c>
+      <c r="C259" t="s">
+        <v>20</v>
+      </c>
+      <c r="D259">
+        <v>33</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+      <c r="G259">
+        <v>26</v>
+      </c>
+      <c r="H259">
+        <v>7</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259">
+        <v>0</v>
+      </c>
+      <c r="L259">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B260" s="1"/>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B261" s="1"/>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B262" s="1"/>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B263" s="1"/>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B264" s="1"/>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B265" s="1"/>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B266" s="1"/>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B267" s="1"/>
     </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B268" s="1"/>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B269" s="1"/>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B270" s="1"/>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B271" s="1"/>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B272" s="1"/>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.3">

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3140" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E73F932D-E0A2-4B25-B2C0-3026D135B385}"/>
+  <xr:revisionPtr revIDLastSave="3333" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FAD963D-A2DB-48D2-BF29-624D1516F8C1}"/>
   <bookViews>
     <workbookView xWindow="-25185" yWindow="3180" windowWidth="23160" windowHeight="11865" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -505,8 +505,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A260" sqref="A260"/>
+      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A276" sqref="A276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10367,90 +10367,650 @@
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B260" s="1"/>
+      <c r="A260" t="s">
+        <v>10</v>
+      </c>
+      <c r="B260" s="1">
+        <v>45750</v>
+      </c>
+      <c r="C260" t="s">
+        <v>21</v>
+      </c>
+      <c r="D260">
+        <v>33</v>
+      </c>
+      <c r="E260">
+        <v>10.49</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+      <c r="G260">
+        <v>8</v>
+      </c>
+      <c r="H260">
+        <v>25</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>0</v>
+      </c>
+      <c r="L260">
+        <v>4</v>
+      </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B261" s="1"/>
+      <c r="A261" t="s">
+        <v>18</v>
+      </c>
+      <c r="B261" s="1">
+        <v>45750</v>
+      </c>
+      <c r="C261" t="s">
+        <v>15</v>
+      </c>
+      <c r="D261">
+        <v>60</v>
+      </c>
+      <c r="E261">
+        <v>7.06</v>
+      </c>
+      <c r="F261">
+        <v>568</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+      <c r="H261">
+        <v>16</v>
+      </c>
+      <c r="I261">
+        <v>40</v>
+      </c>
+      <c r="J261">
+        <v>3</v>
+      </c>
+      <c r="K261">
+        <v>0</v>
+      </c>
+      <c r="L261">
+        <v>4</v>
+      </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B262" s="1"/>
+      <c r="A262" t="s">
+        <v>25</v>
+      </c>
+      <c r="B262" s="1">
+        <v>45750</v>
+      </c>
+      <c r="C262" t="s">
+        <v>15</v>
+      </c>
+      <c r="D262">
+        <v>72</v>
+      </c>
+      <c r="E262">
+        <v>7.1</v>
+      </c>
+      <c r="F262">
+        <v>702</v>
+      </c>
+      <c r="G262">
+        <v>2</v>
+      </c>
+      <c r="H262">
+        <v>27</v>
+      </c>
+      <c r="I262">
+        <v>36</v>
+      </c>
+      <c r="J262">
+        <v>1</v>
+      </c>
+      <c r="K262">
+        <v>0</v>
+      </c>
+      <c r="L262">
+        <v>4</v>
+      </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B263" s="1"/>
+      <c r="A263" t="s">
+        <v>23</v>
+      </c>
+      <c r="B263" s="1">
+        <v>45750</v>
+      </c>
+      <c r="C263" t="s">
+        <v>15</v>
+      </c>
+      <c r="D263">
+        <v>57</v>
+      </c>
+      <c r="E263">
+        <v>5.43</v>
+      </c>
+      <c r="F263">
+        <v>324</v>
+      </c>
+      <c r="G263">
+        <v>10</v>
+      </c>
+      <c r="H263">
+        <v>40</v>
+      </c>
+      <c r="I263">
+        <v>3</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>0</v>
+      </c>
+      <c r="L263">
+        <v>4</v>
+      </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B264" s="1"/>
+      <c r="A264" t="s">
+        <v>23</v>
+      </c>
+      <c r="B264" s="1">
+        <v>45750</v>
+      </c>
+      <c r="C264" t="s">
+        <v>14</v>
+      </c>
+      <c r="D264">
+        <v>68</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+      <c r="G264">
+        <v>52</v>
+      </c>
+      <c r="H264">
+        <v>16</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264">
+        <v>0</v>
+      </c>
+      <c r="L264">
+        <v>4</v>
+      </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B265" s="1"/>
+      <c r="A265" t="s">
+        <v>17</v>
+      </c>
+      <c r="B265" s="1">
+        <v>45750</v>
+      </c>
+      <c r="C265" t="s">
+        <v>15</v>
+      </c>
+      <c r="D265">
+        <v>53</v>
+      </c>
+      <c r="E265">
+        <v>4.37</v>
+      </c>
+      <c r="F265">
+        <v>709</v>
+      </c>
+      <c r="G265">
+        <v>1</v>
+      </c>
+      <c r="H265">
+        <v>8</v>
+      </c>
+      <c r="I265">
+        <v>26</v>
+      </c>
+      <c r="J265">
+        <v>18</v>
+      </c>
+      <c r="K265">
+        <v>0</v>
+      </c>
+      <c r="L265">
+        <v>4</v>
+      </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B266" s="1"/>
+      <c r="A266" t="s">
+        <v>23</v>
+      </c>
+      <c r="B266" s="1">
+        <v>45750</v>
+      </c>
+      <c r="C266" t="s">
+        <v>15</v>
+      </c>
+      <c r="D266">
+        <v>23</v>
+      </c>
+      <c r="E266">
+        <v>2.56</v>
+      </c>
+      <c r="F266">
+        <v>172</v>
+      </c>
+      <c r="G266">
+        <v>1</v>
+      </c>
+      <c r="H266">
+        <v>6</v>
+      </c>
+      <c r="I266">
+        <v>14</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266">
+        <v>0</v>
+      </c>
+      <c r="L266">
+        <v>4</v>
+      </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B267" s="1"/>
+      <c r="A267" t="s">
+        <v>23</v>
+      </c>
+      <c r="B267" s="1">
+        <v>45750</v>
+      </c>
+      <c r="C267" t="s">
+        <v>21</v>
+      </c>
+      <c r="D267">
+        <v>31</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="G267">
+        <v>3</v>
+      </c>
+      <c r="H267">
+        <v>28</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <v>0</v>
+      </c>
+      <c r="L267">
+        <v>4</v>
+      </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B268" s="1"/>
+      <c r="A268" t="s">
+        <v>18</v>
+      </c>
+      <c r="B268" s="1">
+        <v>45750</v>
+      </c>
+      <c r="C268" t="s">
+        <v>21</v>
+      </c>
+      <c r="D268">
+        <v>32</v>
+      </c>
+      <c r="E268">
+        <v>6.99</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <v>2</v>
+      </c>
+      <c r="H268">
+        <v>30</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <v>0</v>
+      </c>
+      <c r="L268">
+        <v>4</v>
+      </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B269" s="1"/>
+      <c r="A269" t="s">
+        <v>13</v>
+      </c>
+      <c r="B269" s="1">
+        <v>45750</v>
+      </c>
+      <c r="C269" t="s">
+        <v>21</v>
+      </c>
+      <c r="D269">
+        <v>30</v>
+      </c>
+      <c r="E269">
+        <v>10.34</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+      <c r="G269">
+        <v>9</v>
+      </c>
+      <c r="H269">
+        <v>21</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269">
+        <v>0</v>
+      </c>
+      <c r="L269">
+        <v>4</v>
+      </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B270" s="1"/>
+      <c r="A270" t="s">
+        <v>13</v>
+      </c>
+      <c r="B270" s="1">
+        <v>45750</v>
+      </c>
+      <c r="C270" t="s">
+        <v>21</v>
+      </c>
+      <c r="D270">
+        <v>30</v>
+      </c>
+      <c r="E270">
+        <v>10.96</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+      <c r="G270">
+        <v>2</v>
+      </c>
+      <c r="H270">
+        <v>25</v>
+      </c>
+      <c r="I270">
+        <v>2</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270">
+        <v>0</v>
+      </c>
+      <c r="L270">
+        <v>4</v>
+      </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B271" s="1"/>
+      <c r="A271" t="s">
+        <v>24</v>
+      </c>
+      <c r="B271" s="1">
+        <v>45751</v>
+      </c>
+      <c r="C271" t="s">
+        <v>15</v>
+      </c>
+      <c r="D271">
+        <v>45</v>
+      </c>
+      <c r="E271">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="F271">
+        <v>197</v>
+      </c>
+      <c r="G271">
+        <v>5</v>
+      </c>
+      <c r="H271">
+        <v>39</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>0</v>
+      </c>
+      <c r="L271">
+        <v>4</v>
+      </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B272" s="1"/>
-    </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B273" s="1"/>
-    </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B274" s="1"/>
-    </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B275" s="1"/>
-    </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>13</v>
+      </c>
+      <c r="B272" s="1">
+        <v>45751</v>
+      </c>
+      <c r="C272" t="s">
+        <v>21</v>
+      </c>
+      <c r="D272">
+        <v>30</v>
+      </c>
+      <c r="E272">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+      <c r="G272">
+        <v>2</v>
+      </c>
+      <c r="H272">
+        <v>26</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <v>1</v>
+      </c>
+      <c r="L272">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>10</v>
+      </c>
+      <c r="B273" s="1">
+        <v>45751</v>
+      </c>
+      <c r="C273" t="s">
+        <v>15</v>
+      </c>
+      <c r="D273">
+        <v>64</v>
+      </c>
+      <c r="E273">
+        <v>6.02</v>
+      </c>
+      <c r="F273">
+        <v>246</v>
+      </c>
+      <c r="G273">
+        <v>6</v>
+      </c>
+      <c r="H273">
+        <v>37</v>
+      </c>
+      <c r="I273">
+        <v>22</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+      <c r="K273">
+        <v>0</v>
+      </c>
+      <c r="L273">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>24</v>
+      </c>
+      <c r="B274" s="1">
+        <v>45751</v>
+      </c>
+      <c r="C274" t="s">
+        <v>21</v>
+      </c>
+      <c r="D274">
+        <v>20</v>
+      </c>
+      <c r="E274">
+        <v>0</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+      <c r="G274">
+        <v>20</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
+      <c r="L274">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>23</v>
+      </c>
+      <c r="B275" s="1">
+        <v>45751</v>
+      </c>
+      <c r="C275" t="s">
+        <v>14</v>
+      </c>
+      <c r="D275">
+        <v>59</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+      <c r="G275">
+        <v>15</v>
+      </c>
+      <c r="H275">
+        <v>44</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>0</v>
+      </c>
+      <c r="L275">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B276" s="1"/>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B277" s="1"/>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B278" s="1"/>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B279" s="1"/>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B280" s="1"/>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B281" s="1"/>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B282" s="1"/>
     </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B283" s="1"/>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B284" s="1"/>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B285" s="1"/>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B286" s="1"/>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B287" s="1"/>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B288" s="1"/>
     </row>
     <row r="289" spans="2:2" x14ac:dyDescent="0.3">

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3333" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FAD963D-A2DB-48D2-BF29-624D1516F8C1}"/>
+  <xr:revisionPtr revIDLastSave="3357" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05071D7F-019E-4758-9A1C-E10A101723B0}"/>
   <bookViews>
     <workbookView xWindow="-25185" yWindow="3180" windowWidth="23160" windowHeight="11865" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -505,8 +505,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A276" sqref="A276"/>
+      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A278" sqref="A278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10975,10 +10975,80 @@
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B276" s="1"/>
+      <c r="A276" t="s">
+        <v>25</v>
+      </c>
+      <c r="B276" s="1">
+        <v>45751</v>
+      </c>
+      <c r="C276" t="s">
+        <v>15</v>
+      </c>
+      <c r="D276">
+        <v>49</v>
+      </c>
+      <c r="E276">
+        <v>4.66</v>
+      </c>
+      <c r="F276">
+        <v>200</v>
+      </c>
+      <c r="G276">
+        <v>4</v>
+      </c>
+      <c r="H276">
+        <v>32</v>
+      </c>
+      <c r="I276">
+        <v>8</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276">
+        <v>0</v>
+      </c>
+      <c r="L276">
+        <v>4</v>
+      </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B277" s="1"/>
+      <c r="A277" t="s">
+        <v>10</v>
+      </c>
+      <c r="B277" s="1">
+        <v>45751</v>
+      </c>
+      <c r="C277" t="s">
+        <v>21</v>
+      </c>
+      <c r="D277">
+        <v>22</v>
+      </c>
+      <c r="E277">
+        <v>6.95</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+      <c r="G277">
+        <v>11</v>
+      </c>
+      <c r="H277">
+        <v>11</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="K277">
+        <v>0</v>
+      </c>
+      <c r="L277">
+        <v>4</v>
+      </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B278" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3357" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05071D7F-019E-4758-9A1C-E10A101723B0}"/>
+  <xr:revisionPtr revIDLastSave="3406" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DABE9C48-1942-4EAF-A7B7-2EE796E18B2C}"/>
   <bookViews>
     <workbookView xWindow="-25185" yWindow="3180" windowWidth="23160" windowHeight="11865" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -505,8 +505,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A278" sqref="A278"/>
+      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A282" sqref="A282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11051,16 +11051,156 @@
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B278" s="1"/>
+      <c r="A278" t="s">
+        <v>16</v>
+      </c>
+      <c r="B278" s="1">
+        <v>45751</v>
+      </c>
+      <c r="C278" t="s">
+        <v>15</v>
+      </c>
+      <c r="D278">
+        <v>123</v>
+      </c>
+      <c r="E278">
+        <v>11.2</v>
+      </c>
+      <c r="F278">
+        <v>371</v>
+      </c>
+      <c r="G278">
+        <v>4</v>
+      </c>
+      <c r="H278">
+        <v>118</v>
+      </c>
+      <c r="I278">
+        <v>2</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278">
+        <v>0</v>
+      </c>
+      <c r="L278">
+        <v>4</v>
+      </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B279" s="1"/>
+      <c r="A279" t="s">
+        <v>25</v>
+      </c>
+      <c r="B279" s="1">
+        <v>45751</v>
+      </c>
+      <c r="C279" t="s">
+        <v>20</v>
+      </c>
+      <c r="D279">
+        <v>33</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>20</v>
+      </c>
+      <c r="H279">
+        <v>12</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279">
+        <v>0</v>
+      </c>
+      <c r="L279">
+        <v>4</v>
+      </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B280" s="1"/>
+      <c r="A280" t="s">
+        <v>19</v>
+      </c>
+      <c r="B280" s="1">
+        <v>45751</v>
+      </c>
+      <c r="C280" t="s">
+        <v>15</v>
+      </c>
+      <c r="D280">
+        <v>141</v>
+      </c>
+      <c r="E280">
+        <v>14.02</v>
+      </c>
+      <c r="F280">
+        <v>509</v>
+      </c>
+      <c r="G280">
+        <v>1</v>
+      </c>
+      <c r="H280">
+        <v>93</v>
+      </c>
+      <c r="I280">
+        <v>48</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280">
+        <v>0</v>
+      </c>
+      <c r="L280">
+        <v>4</v>
+      </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B281" s="1"/>
+      <c r="A281" t="s">
+        <v>10</v>
+      </c>
+      <c r="B281" s="1">
+        <v>45751</v>
+      </c>
+      <c r="C281" t="s">
+        <v>21</v>
+      </c>
+      <c r="D281">
+        <v>45</v>
+      </c>
+      <c r="E281">
+        <v>10.97</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="G281">
+        <v>45</v>
+      </c>
+      <c r="H281">
+        <v>0</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>0</v>
+      </c>
+      <c r="L281">
+        <v>4</v>
+      </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B282" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3406" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DABE9C48-1942-4EAF-A7B7-2EE796E18B2C}"/>
+  <xr:revisionPtr revIDLastSave="3562" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE1B0C25-9A80-40A2-AAD5-4C40CAE1E850}"/>
   <bookViews>
-    <workbookView xWindow="-25185" yWindow="3180" windowWidth="23160" windowHeight="11865" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
+    <workbookView xWindow="-24" yWindow="1200" windowWidth="23160" windowHeight="11868" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -505,8 +505,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A282" sqref="A282"/>
+      <pane ySplit="1" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A295" sqref="A295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11203,72 +11203,527 @@
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B282" s="1"/>
+      <c r="A282" t="s">
+        <v>17</v>
+      </c>
+      <c r="B282" s="1">
+        <v>45751</v>
+      </c>
+      <c r="C282" t="s">
+        <v>15</v>
+      </c>
+      <c r="D282">
+        <v>57</v>
+      </c>
+      <c r="E282">
+        <v>5.21</v>
+      </c>
+      <c r="F282">
+        <v>311</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="H282">
+        <v>34</v>
+      </c>
+      <c r="I282">
+        <v>23</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <v>0</v>
+      </c>
+      <c r="L282">
+        <v>4</v>
+      </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B283" s="1"/>
+      <c r="A283" t="s">
+        <v>24</v>
+      </c>
+      <c r="B283" s="1">
+        <v>45751</v>
+      </c>
+      <c r="C283" t="s">
+        <v>15</v>
+      </c>
+      <c r="D283">
+        <v>36</v>
+      </c>
+      <c r="E283">
+        <v>3.11</v>
+      </c>
+      <c r="F283">
+        <v>75</v>
+      </c>
+      <c r="G283">
+        <v>1</v>
+      </c>
+      <c r="H283">
+        <v>35</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283">
+        <v>0</v>
+      </c>
+      <c r="L283">
+        <v>4</v>
+      </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B284" s="1"/>
+      <c r="A284" t="s">
+        <v>16</v>
+      </c>
+      <c r="B284" s="1">
+        <v>45751</v>
+      </c>
+      <c r="C284" t="s">
+        <v>20</v>
+      </c>
+      <c r="D284">
+        <v>72</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+      <c r="G284">
+        <v>70</v>
+      </c>
+      <c r="H284">
+        <v>3</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284">
+        <v>0</v>
+      </c>
+      <c r="L284">
+        <v>4</v>
+      </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B285" s="1"/>
+      <c r="A285" t="s">
+        <v>18</v>
+      </c>
+      <c r="B285" s="1">
+        <v>45751</v>
+      </c>
+      <c r="C285" t="s">
+        <v>20</v>
+      </c>
+      <c r="D285">
+        <v>48</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>42</v>
+      </c>
+      <c r="H285">
+        <v>5</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>0</v>
+      </c>
+      <c r="L285">
+        <v>4</v>
+      </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B286" s="1"/>
+      <c r="A286" t="s">
+        <v>10</v>
+      </c>
+      <c r="B286" s="1">
+        <v>45752</v>
+      </c>
+      <c r="C286" t="s">
+        <v>15</v>
+      </c>
+      <c r="D286">
+        <v>133</v>
+      </c>
+      <c r="E286">
+        <v>12.26</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>35</v>
+      </c>
+      <c r="H286">
+        <v>94</v>
+      </c>
+      <c r="I286">
+        <v>4</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286">
+        <v>0</v>
+      </c>
+      <c r="L286">
+        <v>4</v>
+      </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B287" s="1"/>
+      <c r="A287" t="s">
+        <v>17</v>
+      </c>
+      <c r="B287" s="1">
+        <v>45752</v>
+      </c>
+      <c r="C287" t="s">
+        <v>15</v>
+      </c>
+      <c r="D287">
+        <v>35</v>
+      </c>
+      <c r="E287">
+        <v>3.55</v>
+      </c>
+      <c r="F287">
+        <v>186</v>
+      </c>
+      <c r="G287">
+        <v>2</v>
+      </c>
+      <c r="H287">
+        <v>26</v>
+      </c>
+      <c r="I287">
+        <v>8</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="K287">
+        <v>0</v>
+      </c>
+      <c r="L287">
+        <v>4</v>
+      </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B288" s="1"/>
-    </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B289" s="1"/>
-    </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B290" s="1"/>
-    </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B291" s="1"/>
-    </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B292" s="1"/>
-    </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B293" s="1"/>
-    </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B294" s="1"/>
-    </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>24</v>
+      </c>
+      <c r="B288" s="1">
+        <v>45752</v>
+      </c>
+      <c r="C288" t="s">
+        <v>15</v>
+      </c>
+      <c r="D288">
+        <v>124</v>
+      </c>
+      <c r="E288">
+        <v>10.49</v>
+      </c>
+      <c r="F288">
+        <v>289</v>
+      </c>
+      <c r="G288">
+        <v>9</v>
+      </c>
+      <c r="H288">
+        <v>104</v>
+      </c>
+      <c r="I288">
+        <v>10</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+      <c r="K288">
+        <v>0</v>
+      </c>
+      <c r="L288">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>13</v>
+      </c>
+      <c r="B289" s="1">
+        <v>45752</v>
+      </c>
+      <c r="C289" t="s">
+        <v>21</v>
+      </c>
+      <c r="D289">
+        <v>30</v>
+      </c>
+      <c r="E289">
+        <v>10.93</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>3</v>
+      </c>
+      <c r="H289">
+        <v>25</v>
+      </c>
+      <c r="I289">
+        <v>1</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="K289">
+        <v>1</v>
+      </c>
+      <c r="L289">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>13</v>
+      </c>
+      <c r="B290" s="1">
+        <v>45752</v>
+      </c>
+      <c r="C290" t="s">
+        <v>15</v>
+      </c>
+      <c r="D290">
+        <v>18</v>
+      </c>
+      <c r="E290">
+        <v>0.8</v>
+      </c>
+      <c r="F290">
+        <v>144</v>
+      </c>
+      <c r="G290">
+        <v>4</v>
+      </c>
+      <c r="H290">
+        <v>9</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="K290">
+        <v>0</v>
+      </c>
+      <c r="L290">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>25</v>
+      </c>
+      <c r="B291" s="1">
+        <v>45752</v>
+      </c>
+      <c r="C291" t="s">
+        <v>15</v>
+      </c>
+      <c r="D291">
+        <v>169</v>
+      </c>
+      <c r="E291">
+        <v>18</v>
+      </c>
+      <c r="F291">
+        <v>876</v>
+      </c>
+      <c r="G291">
+        <v>4</v>
+      </c>
+      <c r="H291">
+        <v>38</v>
+      </c>
+      <c r="I291">
+        <v>123</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>0</v>
+      </c>
+      <c r="L291">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>10</v>
+      </c>
+      <c r="B292" s="1">
+        <v>45752</v>
+      </c>
+      <c r="C292" t="s">
+        <v>15</v>
+      </c>
+      <c r="D292">
+        <v>21</v>
+      </c>
+      <c r="E292">
+        <v>1.42</v>
+      </c>
+      <c r="F292">
+        <v>26</v>
+      </c>
+      <c r="G292">
+        <v>15</v>
+      </c>
+      <c r="H292">
+        <v>7</v>
+      </c>
+      <c r="I292">
+        <v>0</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="K292">
+        <v>0</v>
+      </c>
+      <c r="L292">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>18</v>
+      </c>
+      <c r="B293" s="1">
+        <v>45752</v>
+      </c>
+      <c r="C293" t="s">
+        <v>15</v>
+      </c>
+      <c r="D293">
+        <v>166</v>
+      </c>
+      <c r="E293">
+        <v>20.07</v>
+      </c>
+      <c r="F293">
+        <v>568</v>
+      </c>
+      <c r="G293">
+        <v>4</v>
+      </c>
+      <c r="H293">
+        <v>153</v>
+      </c>
+      <c r="I293">
+        <v>10</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>0</v>
+      </c>
+      <c r="L293">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>13</v>
+      </c>
+      <c r="B294" s="1">
+        <v>45752</v>
+      </c>
+      <c r="C294" t="s">
+        <v>20</v>
+      </c>
+      <c r="D294">
+        <v>37</v>
+      </c>
+      <c r="E294">
+        <v>0</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+      <c r="G294">
+        <v>36</v>
+      </c>
+      <c r="H294">
+        <v>2</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294">
+        <v>0</v>
+      </c>
+      <c r="L294">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B295" s="1"/>
     </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B296" s="1"/>
     </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B297" s="1"/>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B298" s="1"/>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B299" s="1"/>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B300" s="1"/>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B301" s="1"/>
     </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B302" s="1"/>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B303" s="1"/>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B304" s="1"/>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.3">

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3562" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE1B0C25-9A80-40A2-AAD5-4C40CAE1E850}"/>
+  <xr:revisionPtr revIDLastSave="3610" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F03A54F0-F931-4400-B675-BF3D89959E64}"/>
   <bookViews>
     <workbookView xWindow="-24" yWindow="1200" windowWidth="23160" windowHeight="11868" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -505,8 +505,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A295" sqref="A295"/>
+      <pane ySplit="1" topLeftCell="A282" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A299" sqref="A299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11697,16 +11697,156 @@
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B295" s="1"/>
+      <c r="A295" t="s">
+        <v>23</v>
+      </c>
+      <c r="B295" s="1">
+        <v>45752</v>
+      </c>
+      <c r="C295" t="s">
+        <v>15</v>
+      </c>
+      <c r="D295">
+        <v>40</v>
+      </c>
+      <c r="E295">
+        <v>3.02</v>
+      </c>
+      <c r="F295">
+        <v>472</v>
+      </c>
+      <c r="G295">
+        <v>6</v>
+      </c>
+      <c r="H295">
+        <v>27</v>
+      </c>
+      <c r="I295">
+        <v>2</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295">
+        <v>0</v>
+      </c>
+      <c r="L295">
+        <v>4</v>
+      </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B296" s="1"/>
+      <c r="A296" t="s">
+        <v>23</v>
+      </c>
+      <c r="B296" s="1">
+        <v>45752</v>
+      </c>
+      <c r="C296" t="s">
+        <v>15</v>
+      </c>
+      <c r="D296">
+        <v>43</v>
+      </c>
+      <c r="E296">
+        <v>4.49</v>
+      </c>
+      <c r="F296">
+        <v>244</v>
+      </c>
+      <c r="G296">
+        <v>3</v>
+      </c>
+      <c r="H296">
+        <v>38</v>
+      </c>
+      <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="K296">
+        <v>0</v>
+      </c>
+      <c r="L296">
+        <v>4</v>
+      </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B297" s="1"/>
+      <c r="A297" t="s">
+        <v>19</v>
+      </c>
+      <c r="B297" s="1">
+        <v>45752</v>
+      </c>
+      <c r="C297" t="s">
+        <v>20</v>
+      </c>
+      <c r="D297">
+        <v>92</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+      <c r="G297">
+        <v>60</v>
+      </c>
+      <c r="H297">
+        <v>32</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <v>0</v>
+      </c>
+      <c r="K297">
+        <v>0</v>
+      </c>
+      <c r="L297">
+        <v>4</v>
+      </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B298" s="1"/>
+      <c r="A298" t="s">
+        <v>16</v>
+      </c>
+      <c r="B298" s="1">
+        <v>45752</v>
+      </c>
+      <c r="C298" t="s">
+        <v>15</v>
+      </c>
+      <c r="D298">
+        <v>213</v>
+      </c>
+      <c r="E298">
+        <v>20</v>
+      </c>
+      <c r="F298">
+        <v>436</v>
+      </c>
+      <c r="G298">
+        <v>1</v>
+      </c>
+      <c r="H298">
+        <v>182</v>
+      </c>
+      <c r="I298">
+        <v>27</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="K298">
+        <v>0</v>
+      </c>
+      <c r="L298">
+        <v>4</v>
+      </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B299" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3610" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F03A54F0-F931-4400-B675-BF3D89959E64}"/>
+  <xr:revisionPtr revIDLastSave="3732" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD8FCE90-2031-4ECD-895C-19C6119B86BF}"/>
   <bookViews>
     <workbookView xWindow="-24" yWindow="1200" windowWidth="23160" windowHeight="11868" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -505,8 +505,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A282" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A299" sqref="A299"/>
+      <pane ySplit="1" topLeftCell="A288" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A309" sqref="A309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11849,69 +11849,419 @@
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B299" s="1"/>
+      <c r="A299" t="s">
+        <v>17</v>
+      </c>
+      <c r="B299" s="1">
+        <v>45752</v>
+      </c>
+      <c r="C299" t="s">
+        <v>20</v>
+      </c>
+      <c r="D299">
+        <v>50</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+      <c r="G299">
+        <v>38</v>
+      </c>
+      <c r="H299">
+        <v>9</v>
+      </c>
+      <c r="I299">
+        <v>3</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="K299">
+        <v>0</v>
+      </c>
+      <c r="L299">
+        <v>4</v>
+      </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B300" s="1"/>
+      <c r="A300" t="s">
+        <v>24</v>
+      </c>
+      <c r="B300" s="1">
+        <v>45752</v>
+      </c>
+      <c r="C300" t="s">
+        <v>15</v>
+      </c>
+      <c r="D300">
+        <v>25</v>
+      </c>
+      <c r="E300">
+        <v>2</v>
+      </c>
+      <c r="F300">
+        <v>36</v>
+      </c>
+      <c r="G300">
+        <v>8</v>
+      </c>
+      <c r="H300">
+        <v>17</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="K300">
+        <v>0</v>
+      </c>
+      <c r="L300">
+        <v>4</v>
+      </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B301" s="1"/>
+      <c r="A301" t="s">
+        <v>10</v>
+      </c>
+      <c r="B301" s="1">
+        <v>45753</v>
+      </c>
+      <c r="C301" t="s">
+        <v>15</v>
+      </c>
+      <c r="D301">
+        <v>99</v>
+      </c>
+      <c r="E301">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="F301">
+        <v>0</v>
+      </c>
+      <c r="G301">
+        <v>58</v>
+      </c>
+      <c r="H301">
+        <v>42</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301">
+        <v>0</v>
+      </c>
+      <c r="L301">
+        <v>4</v>
+      </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B302" s="1"/>
+      <c r="A302" t="s">
+        <v>10</v>
+      </c>
+      <c r="B302" s="1">
+        <v>45753</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302">
+        <v>10</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+      <c r="F302">
+        <v>0</v>
+      </c>
+      <c r="G302">
+        <v>9</v>
+      </c>
+      <c r="H302">
+        <v>1</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="K302">
+        <v>0</v>
+      </c>
+      <c r="L302">
+        <v>4</v>
+      </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B303" s="1"/>
+      <c r="A303" t="s">
+        <v>13</v>
+      </c>
+      <c r="B303" s="1">
+        <v>45753</v>
+      </c>
+      <c r="C303" t="s">
+        <v>15</v>
+      </c>
+      <c r="D303">
+        <v>179</v>
+      </c>
+      <c r="E303">
+        <v>18.059999999999999</v>
+      </c>
+      <c r="F303">
+        <v>1014</v>
+      </c>
+      <c r="G303">
+        <v>0</v>
+      </c>
+      <c r="H303">
+        <v>100</v>
+      </c>
+      <c r="I303">
+        <v>78</v>
+      </c>
+      <c r="J303">
+        <v>1</v>
+      </c>
+      <c r="K303">
+        <v>0</v>
+      </c>
+      <c r="L303">
+        <v>4</v>
+      </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B304" s="1"/>
-    </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B305" s="1"/>
-    </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B306" s="1"/>
-    </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B307" s="1"/>
-    </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B308" s="1"/>
-    </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>13</v>
+      </c>
+      <c r="B304" s="1">
+        <v>45753</v>
+      </c>
+      <c r="C304" t="s">
+        <v>21</v>
+      </c>
+      <c r="D304">
+        <v>15</v>
+      </c>
+      <c r="E304">
+        <v>4.05</v>
+      </c>
+      <c r="F304">
+        <v>0</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
+      <c r="H304">
+        <v>15</v>
+      </c>
+      <c r="I304">
+        <v>0</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="K304">
+        <v>0</v>
+      </c>
+      <c r="L304">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>24</v>
+      </c>
+      <c r="B305" s="1">
+        <v>45753</v>
+      </c>
+      <c r="C305" t="s">
+        <v>21</v>
+      </c>
+      <c r="D305">
+        <v>90</v>
+      </c>
+      <c r="E305">
+        <v>0</v>
+      </c>
+      <c r="F305">
+        <v>0</v>
+      </c>
+      <c r="G305">
+        <v>29</v>
+      </c>
+      <c r="H305">
+        <v>62</v>
+      </c>
+      <c r="I305">
+        <v>0</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="K305">
+        <v>0</v>
+      </c>
+      <c r="L305">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>25</v>
+      </c>
+      <c r="B306" s="1">
+        <v>45753</v>
+      </c>
+      <c r="C306" t="s">
+        <v>21</v>
+      </c>
+      <c r="D306">
+        <v>112</v>
+      </c>
+      <c r="E306">
+        <v>20.28</v>
+      </c>
+      <c r="F306">
+        <v>814</v>
+      </c>
+      <c r="G306">
+        <v>68</v>
+      </c>
+      <c r="H306">
+        <v>49</v>
+      </c>
+      <c r="I306">
+        <v>0</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+      <c r="K306">
+        <v>0</v>
+      </c>
+      <c r="L306">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>19</v>
+      </c>
+      <c r="B307" s="1">
+        <v>45753</v>
+      </c>
+      <c r="C307" t="s">
+        <v>15</v>
+      </c>
+      <c r="D307">
+        <v>71</v>
+      </c>
+      <c r="E307">
+        <v>7.92</v>
+      </c>
+      <c r="F307">
+        <v>249</v>
+      </c>
+      <c r="G307">
+        <v>1</v>
+      </c>
+      <c r="H307">
+        <v>18</v>
+      </c>
+      <c r="I307">
+        <v>52</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="K307">
+        <v>0</v>
+      </c>
+      <c r="L307">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>19</v>
+      </c>
+      <c r="B308" s="1">
+        <v>45753</v>
+      </c>
+      <c r="C308" t="s">
+        <v>15</v>
+      </c>
+      <c r="D308">
+        <v>16</v>
+      </c>
+      <c r="E308">
+        <v>1.75</v>
+      </c>
+      <c r="F308">
+        <v>49</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+      <c r="H308">
+        <v>7</v>
+      </c>
+      <c r="I308">
+        <v>10</v>
+      </c>
+      <c r="J308">
+        <v>0</v>
+      </c>
+      <c r="K308">
+        <v>0</v>
+      </c>
+      <c r="L308">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B309" s="1"/>
     </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B310" s="1"/>
     </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B311" s="1"/>
     </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B312" s="1"/>
     </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B313" s="1"/>
     </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B314" s="1"/>
     </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B315" s="1"/>
     </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B316" s="1"/>
     </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B317" s="1"/>
     </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B318" s="1"/>
     </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B319" s="1"/>
     </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B320" s="1"/>
     </row>
     <row r="321" spans="2:2" x14ac:dyDescent="0.3">

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3732" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD8FCE90-2031-4ECD-895C-19C6119B86BF}"/>
+  <xr:revisionPtr revIDLastSave="3816" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C92CF18-4687-452A-BC0A-379001BAB9ED}"/>
   <bookViews>
-    <workbookView xWindow="-24" yWindow="1200" windowWidth="23160" windowHeight="11868" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
+    <workbookView xWindow="-25185" yWindow="3180" windowWidth="23160" windowHeight="11865" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -505,8 +505,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A288" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A309" sqref="A309"/>
+      <pane ySplit="1" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A316" sqref="A316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12229,25 +12229,270 @@
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B309" s="1"/>
+      <c r="A309" t="s">
+        <v>18</v>
+      </c>
+      <c r="B309" s="1">
+        <v>45753</v>
+      </c>
+      <c r="C309" t="s">
+        <v>20</v>
+      </c>
+      <c r="D309">
+        <v>86</v>
+      </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+      <c r="F309">
+        <v>0</v>
+      </c>
+      <c r="G309">
+        <v>72</v>
+      </c>
+      <c r="H309">
+        <v>15</v>
+      </c>
+      <c r="I309">
+        <v>0</v>
+      </c>
+      <c r="J309">
+        <v>0</v>
+      </c>
+      <c r="K309">
+        <v>0</v>
+      </c>
+      <c r="L309">
+        <v>4</v>
+      </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B310" s="1"/>
+      <c r="A310" t="s">
+        <v>17</v>
+      </c>
+      <c r="B310" s="1">
+        <v>45753</v>
+      </c>
+      <c r="C310" t="s">
+        <v>15</v>
+      </c>
+      <c r="D310">
+        <v>87</v>
+      </c>
+      <c r="E310">
+        <v>8</v>
+      </c>
+      <c r="F310">
+        <v>0</v>
+      </c>
+      <c r="G310">
+        <v>29</v>
+      </c>
+      <c r="H310">
+        <v>59</v>
+      </c>
+      <c r="I310">
+        <v>0</v>
+      </c>
+      <c r="J310">
+        <v>0</v>
+      </c>
+      <c r="K310">
+        <v>0</v>
+      </c>
+      <c r="L310">
+        <v>4</v>
+      </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B311" s="1"/>
+      <c r="A311" t="s">
+        <v>18</v>
+      </c>
+      <c r="B311" s="1">
+        <v>45754</v>
+      </c>
+      <c r="C311" t="s">
+        <v>21</v>
+      </c>
+      <c r="D311">
+        <v>60</v>
+      </c>
+      <c r="E311">
+        <v>12.5</v>
+      </c>
+      <c r="F311">
+        <v>0</v>
+      </c>
+      <c r="G311">
+        <v>8</v>
+      </c>
+      <c r="H311">
+        <v>53</v>
+      </c>
+      <c r="I311">
+        <v>0</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+      <c r="K311">
+        <v>0</v>
+      </c>
+      <c r="L311">
+        <v>5</v>
+      </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B312" s="1"/>
+      <c r="A312" t="s">
+        <v>17</v>
+      </c>
+      <c r="B312" s="1">
+        <v>45754</v>
+      </c>
+      <c r="C312" t="s">
+        <v>21</v>
+      </c>
+      <c r="D312">
+        <v>40</v>
+      </c>
+      <c r="E312">
+        <v>0</v>
+      </c>
+      <c r="F312">
+        <v>0</v>
+      </c>
+      <c r="G312">
+        <v>31</v>
+      </c>
+      <c r="H312">
+        <v>9</v>
+      </c>
+      <c r="I312">
+        <v>0</v>
+      </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
+      <c r="K312">
+        <v>0</v>
+      </c>
+      <c r="L312">
+        <v>5</v>
+      </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B313" s="1"/>
+      <c r="A313" t="s">
+        <v>13</v>
+      </c>
+      <c r="B313" s="1">
+        <v>45754</v>
+      </c>
+      <c r="C313" t="s">
+        <v>20</v>
+      </c>
+      <c r="D313">
+        <v>69</v>
+      </c>
+      <c r="E313">
+        <v>0</v>
+      </c>
+      <c r="F313">
+        <v>0</v>
+      </c>
+      <c r="G313">
+        <v>57</v>
+      </c>
+      <c r="H313">
+        <v>12</v>
+      </c>
+      <c r="I313">
+        <v>0</v>
+      </c>
+      <c r="J313">
+        <v>0</v>
+      </c>
+      <c r="K313">
+        <v>0</v>
+      </c>
+      <c r="L313">
+        <v>5</v>
+      </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B314" s="1"/>
+      <c r="A314" t="s">
+        <v>23</v>
+      </c>
+      <c r="B314" s="1">
+        <v>45754</v>
+      </c>
+      <c r="C314" t="s">
+        <v>21</v>
+      </c>
+      <c r="D314">
+        <v>30</v>
+      </c>
+      <c r="E314">
+        <v>0</v>
+      </c>
+      <c r="F314">
+        <v>0</v>
+      </c>
+      <c r="G314">
+        <v>30</v>
+      </c>
+      <c r="H314">
+        <v>0</v>
+      </c>
+      <c r="I314">
+        <v>0</v>
+      </c>
+      <c r="J314">
+        <v>0</v>
+      </c>
+      <c r="K314">
+        <v>0</v>
+      </c>
+      <c r="L314">
+        <v>5</v>
+      </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B315" s="1"/>
+      <c r="A315" t="s">
+        <v>25</v>
+      </c>
+      <c r="B315" s="1">
+        <v>45754</v>
+      </c>
+      <c r="C315" t="s">
+        <v>15</v>
+      </c>
+      <c r="D315">
+        <v>43</v>
+      </c>
+      <c r="E315">
+        <v>4.68</v>
+      </c>
+      <c r="F315">
+        <v>190</v>
+      </c>
+      <c r="G315">
+        <v>3</v>
+      </c>
+      <c r="H315">
+        <v>32</v>
+      </c>
+      <c r="I315">
+        <v>8</v>
+      </c>
+      <c r="J315">
+        <v>0</v>
+      </c>
+      <c r="K315">
+        <v>0</v>
+      </c>
+      <c r="L315">
+        <v>5</v>
+      </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B316" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3816" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C92CF18-4687-452A-BC0A-379001BAB9ED}"/>
+  <xr:revisionPtr revIDLastSave="3852" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4804D62C-C644-485F-809E-A00446D84419}"/>
   <bookViews>
     <workbookView xWindow="-25185" yWindow="3180" windowWidth="23160" windowHeight="11865" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -505,8 +505,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A316" sqref="A316"/>
+      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A319" sqref="A319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12495,13 +12495,118 @@
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B316" s="1"/>
+      <c r="A316" t="s">
+        <v>25</v>
+      </c>
+      <c r="B316" s="1">
+        <v>45754</v>
+      </c>
+      <c r="C316" t="s">
+        <v>20</v>
+      </c>
+      <c r="D316">
+        <v>34</v>
+      </c>
+      <c r="E316">
+        <v>0</v>
+      </c>
+      <c r="F316">
+        <v>0</v>
+      </c>
+      <c r="G316">
+        <v>26</v>
+      </c>
+      <c r="H316">
+        <v>8</v>
+      </c>
+      <c r="I316">
+        <v>0</v>
+      </c>
+      <c r="J316">
+        <v>0</v>
+      </c>
+      <c r="K316">
+        <v>0</v>
+      </c>
+      <c r="L316">
+        <v>5</v>
+      </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B317" s="1"/>
+      <c r="A317" t="s">
+        <v>10</v>
+      </c>
+      <c r="B317" s="1">
+        <v>45754</v>
+      </c>
+      <c r="C317" t="s">
+        <v>21</v>
+      </c>
+      <c r="D317">
+        <v>43</v>
+      </c>
+      <c r="E317">
+        <v>11.83</v>
+      </c>
+      <c r="F317">
+        <v>0</v>
+      </c>
+      <c r="G317">
+        <v>43</v>
+      </c>
+      <c r="H317">
+        <v>0</v>
+      </c>
+      <c r="I317">
+        <v>0</v>
+      </c>
+      <c r="J317">
+        <v>0</v>
+      </c>
+      <c r="K317">
+        <v>0</v>
+      </c>
+      <c r="L317">
+        <v>5</v>
+      </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B318" s="1"/>
+      <c r="A318" t="s">
+        <v>24</v>
+      </c>
+      <c r="B318" s="1">
+        <v>45754</v>
+      </c>
+      <c r="C318" t="s">
+        <v>21</v>
+      </c>
+      <c r="D318">
+        <v>48</v>
+      </c>
+      <c r="E318">
+        <v>0</v>
+      </c>
+      <c r="F318">
+        <v>0</v>
+      </c>
+      <c r="G318">
+        <v>27</v>
+      </c>
+      <c r="H318">
+        <v>21</v>
+      </c>
+      <c r="I318">
+        <v>0</v>
+      </c>
+      <c r="J318">
+        <v>0</v>
+      </c>
+      <c r="K318">
+        <v>0</v>
+      </c>
+      <c r="L318">
+        <v>5</v>
+      </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B319" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3852" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4804D62C-C644-485F-809E-A00446D84419}"/>
+  <xr:revisionPtr revIDLastSave="3984" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8861E3FA-5BA8-4B7F-BBBC-E9FCE95280AD}"/>
   <bookViews>
     <workbookView xWindow="-25185" yWindow="3180" windowWidth="23160" windowHeight="11865" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -505,8 +505,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A319" sqref="A319"/>
+      <pane ySplit="1" topLeftCell="A309" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A330" sqref="A330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12609,57 +12609,442 @@
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B319" s="1"/>
+      <c r="A319" t="s">
+        <v>24</v>
+      </c>
+      <c r="B319" s="1">
+        <v>45754</v>
+      </c>
+      <c r="C319" t="s">
+        <v>20</v>
+      </c>
+      <c r="D319">
+        <v>11</v>
+      </c>
+      <c r="E319">
+        <v>0</v>
+      </c>
+      <c r="F319">
+        <v>0</v>
+      </c>
+      <c r="G319">
+        <v>11</v>
+      </c>
+      <c r="H319">
+        <v>0</v>
+      </c>
+      <c r="I319">
+        <v>0</v>
+      </c>
+      <c r="J319">
+        <v>0</v>
+      </c>
+      <c r="K319">
+        <v>0</v>
+      </c>
+      <c r="L319">
+        <v>5</v>
+      </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B320" s="1"/>
-    </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B321" s="1"/>
-    </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B322" s="1"/>
-    </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B323" s="1"/>
-    </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B324" s="1"/>
-    </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B325" s="1"/>
-    </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B326" s="1"/>
-    </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B327" s="1"/>
-    </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B328" s="1"/>
-    </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B329" s="1"/>
-    </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>16</v>
+      </c>
+      <c r="B320" s="1">
+        <v>45754</v>
+      </c>
+      <c r="C320" t="s">
+        <v>15</v>
+      </c>
+      <c r="D320">
+        <v>101</v>
+      </c>
+      <c r="E320">
+        <v>10.56</v>
+      </c>
+      <c r="F320">
+        <v>384</v>
+      </c>
+      <c r="G320">
+        <v>1</v>
+      </c>
+      <c r="H320">
+        <v>52</v>
+      </c>
+      <c r="I320">
+        <v>46</v>
+      </c>
+      <c r="J320">
+        <v>2</v>
+      </c>
+      <c r="K320">
+        <v>0</v>
+      </c>
+      <c r="L320">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>10</v>
+      </c>
+      <c r="B321" s="1">
+        <v>45754</v>
+      </c>
+      <c r="C321" t="s">
+        <v>20</v>
+      </c>
+      <c r="D321">
+        <v>30</v>
+      </c>
+      <c r="E321">
+        <v>0</v>
+      </c>
+      <c r="F321">
+        <v>0</v>
+      </c>
+      <c r="G321">
+        <v>30</v>
+      </c>
+      <c r="H321">
+        <v>0</v>
+      </c>
+      <c r="I321">
+        <v>0</v>
+      </c>
+      <c r="J321">
+        <v>0</v>
+      </c>
+      <c r="K321">
+        <v>0</v>
+      </c>
+      <c r="L321">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>23</v>
+      </c>
+      <c r="B322" s="1">
+        <v>45754</v>
+      </c>
+      <c r="C322" t="s">
+        <v>15</v>
+      </c>
+      <c r="D322">
+        <v>40</v>
+      </c>
+      <c r="E322">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F322">
+        <v>272</v>
+      </c>
+      <c r="G322">
+        <v>4</v>
+      </c>
+      <c r="H322">
+        <v>31</v>
+      </c>
+      <c r="I322">
+        <v>4</v>
+      </c>
+      <c r="J322">
+        <v>0</v>
+      </c>
+      <c r="K322">
+        <v>0</v>
+      </c>
+      <c r="L322">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>19</v>
+      </c>
+      <c r="B323" s="1">
+        <v>45754</v>
+      </c>
+      <c r="C323" t="s">
+        <v>20</v>
+      </c>
+      <c r="D323">
+        <v>88</v>
+      </c>
+      <c r="E323">
+        <v>0</v>
+      </c>
+      <c r="F323">
+        <v>0</v>
+      </c>
+      <c r="G323">
+        <v>74</v>
+      </c>
+      <c r="H323">
+        <v>14</v>
+      </c>
+      <c r="I323">
+        <v>0</v>
+      </c>
+      <c r="J323">
+        <v>0</v>
+      </c>
+      <c r="K323">
+        <v>0</v>
+      </c>
+      <c r="L323">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>24</v>
+      </c>
+      <c r="B324" s="1">
+        <v>45755</v>
+      </c>
+      <c r="C324" t="s">
+        <v>15</v>
+      </c>
+      <c r="D324">
+        <v>93</v>
+      </c>
+      <c r="E324">
+        <v>8.01</v>
+      </c>
+      <c r="F324">
+        <v>397</v>
+      </c>
+      <c r="G324">
+        <v>8</v>
+      </c>
+      <c r="H324">
+        <v>86</v>
+      </c>
+      <c r="I324">
+        <v>0</v>
+      </c>
+      <c r="J324">
+        <v>0</v>
+      </c>
+      <c r="K324">
+        <v>0</v>
+      </c>
+      <c r="L324">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>10</v>
+      </c>
+      <c r="B325" s="1">
+        <v>45755</v>
+      </c>
+      <c r="C325" t="s">
+        <v>15</v>
+      </c>
+      <c r="D325">
+        <v>46</v>
+      </c>
+      <c r="E325">
+        <v>4.82</v>
+      </c>
+      <c r="F325">
+        <v>203</v>
+      </c>
+      <c r="G325">
+        <v>1</v>
+      </c>
+      <c r="H325">
+        <v>30</v>
+      </c>
+      <c r="I325">
+        <v>14</v>
+      </c>
+      <c r="J325">
+        <v>0</v>
+      </c>
+      <c r="K325">
+        <v>0</v>
+      </c>
+      <c r="L325">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>18</v>
+      </c>
+      <c r="B326" s="1">
+        <v>45755</v>
+      </c>
+      <c r="C326" t="s">
+        <v>15</v>
+      </c>
+      <c r="D326">
+        <v>38</v>
+      </c>
+      <c r="E326">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="F326">
+        <v>102</v>
+      </c>
+      <c r="G326">
+        <v>4</v>
+      </c>
+      <c r="H326">
+        <v>21</v>
+      </c>
+      <c r="I326">
+        <v>13</v>
+      </c>
+      <c r="J326">
+        <v>0</v>
+      </c>
+      <c r="K326">
+        <v>0</v>
+      </c>
+      <c r="L326">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>25</v>
+      </c>
+      <c r="B327" s="1">
+        <v>45755</v>
+      </c>
+      <c r="C327" t="s">
+        <v>15</v>
+      </c>
+      <c r="D327">
+        <v>16</v>
+      </c>
+      <c r="E327">
+        <v>1.7</v>
+      </c>
+      <c r="F327">
+        <v>154</v>
+      </c>
+      <c r="G327">
+        <v>1</v>
+      </c>
+      <c r="H327">
+        <v>15</v>
+      </c>
+      <c r="I327">
+        <v>0</v>
+      </c>
+      <c r="J327">
+        <v>0</v>
+      </c>
+      <c r="K327">
+        <v>0</v>
+      </c>
+      <c r="L327">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>10</v>
+      </c>
+      <c r="B328" s="1">
+        <v>45755</v>
+      </c>
+      <c r="C328" t="s">
+        <v>15</v>
+      </c>
+      <c r="D328">
+        <v>26</v>
+      </c>
+      <c r="E328">
+        <v>2.67</v>
+      </c>
+      <c r="F328">
+        <v>121</v>
+      </c>
+      <c r="G328">
+        <v>3</v>
+      </c>
+      <c r="H328">
+        <v>22</v>
+      </c>
+      <c r="I328">
+        <v>0</v>
+      </c>
+      <c r="J328">
+        <v>0</v>
+      </c>
+      <c r="K328">
+        <v>0</v>
+      </c>
+      <c r="L328">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>25</v>
+      </c>
+      <c r="B329" s="1">
+        <v>45755</v>
+      </c>
+      <c r="C329" t="s">
+        <v>15</v>
+      </c>
+      <c r="D329">
+        <v>51</v>
+      </c>
+      <c r="E329">
+        <v>4.92</v>
+      </c>
+      <c r="F329">
+        <v>190</v>
+      </c>
+      <c r="G329">
+        <v>14</v>
+      </c>
+      <c r="H329">
+        <v>23</v>
+      </c>
+      <c r="I329">
+        <v>12</v>
+      </c>
+      <c r="J329">
+        <v>2</v>
+      </c>
+      <c r="K329">
+        <v>0</v>
+      </c>
+      <c r="L329">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B330" s="1"/>
     </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B331" s="1"/>
     </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B332" s="1"/>
     </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B333" s="1"/>
     </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B334" s="1"/>
     </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B335" s="1"/>
     </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B336" s="1"/>
     </row>
     <row r="337" spans="2:2" x14ac:dyDescent="0.3">

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3984" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8861E3FA-5BA8-4B7F-BBBC-E9FCE95280AD}"/>
+  <xr:revisionPtr revIDLastSave="4008" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35241F07-C8DB-4BA1-8307-AF5A4D87D9D8}"/>
   <bookViews>
     <workbookView xWindow="-25185" yWindow="3180" windowWidth="23160" windowHeight="11865" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -505,8 +505,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A309" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A330" sqref="A330"/>
+      <pane ySplit="1" topLeftCell="A311" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A332" sqref="A332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13027,10 +13027,80 @@
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B330" s="1"/>
+      <c r="A330" t="s">
+        <v>13</v>
+      </c>
+      <c r="B330" s="1">
+        <v>45755</v>
+      </c>
+      <c r="C330" t="s">
+        <v>15</v>
+      </c>
+      <c r="D330">
+        <v>61</v>
+      </c>
+      <c r="E330">
+        <v>7</v>
+      </c>
+      <c r="F330">
+        <v>449</v>
+      </c>
+      <c r="G330">
+        <v>0</v>
+      </c>
+      <c r="H330">
+        <v>53</v>
+      </c>
+      <c r="I330">
+        <v>8</v>
+      </c>
+      <c r="J330">
+        <v>0</v>
+      </c>
+      <c r="K330">
+        <v>0</v>
+      </c>
+      <c r="L330">
+        <v>5</v>
+      </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B331" s="1"/>
+      <c r="A331" t="s">
+        <v>10</v>
+      </c>
+      <c r="B331" s="1">
+        <v>45755</v>
+      </c>
+      <c r="C331" t="s">
+        <v>20</v>
+      </c>
+      <c r="D331">
+        <v>40</v>
+      </c>
+      <c r="E331">
+        <v>0</v>
+      </c>
+      <c r="F331">
+        <v>0</v>
+      </c>
+      <c r="G331">
+        <v>40</v>
+      </c>
+      <c r="H331">
+        <v>0</v>
+      </c>
+      <c r="I331">
+        <v>0</v>
+      </c>
+      <c r="J331">
+        <v>0</v>
+      </c>
+      <c r="K331">
+        <v>0</v>
+      </c>
+      <c r="L331">
+        <v>5</v>
+      </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B332" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4008" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35241F07-C8DB-4BA1-8307-AF5A4D87D9D8}"/>
+  <xr:revisionPtr revIDLastSave="4130" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FA724F3-A03D-479D-A514-425C4BD877B1}"/>
   <bookViews>
     <workbookView xWindow="-25185" yWindow="3180" windowWidth="23160" windowHeight="11865" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -505,8 +505,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A311" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A332" sqref="A332"/>
+      <pane ySplit="1" topLeftCell="A321" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A342" sqref="A342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13103,66 +13103,416 @@
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B332" s="1"/>
+      <c r="A332" t="s">
+        <v>13</v>
+      </c>
+      <c r="B332" s="1">
+        <v>45755</v>
+      </c>
+      <c r="C332" t="s">
+        <v>20</v>
+      </c>
+      <c r="D332">
+        <v>28</v>
+      </c>
+      <c r="E332">
+        <v>0</v>
+      </c>
+      <c r="F332">
+        <v>0</v>
+      </c>
+      <c r="G332">
+        <v>28</v>
+      </c>
+      <c r="H332">
+        <v>0</v>
+      </c>
+      <c r="I332">
+        <v>0</v>
+      </c>
+      <c r="J332">
+        <v>0</v>
+      </c>
+      <c r="K332">
+        <v>0</v>
+      </c>
+      <c r="L332">
+        <v>5</v>
+      </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B333" s="1"/>
+      <c r="A333" t="s">
+        <v>18</v>
+      </c>
+      <c r="B333" s="1">
+        <v>45755</v>
+      </c>
+      <c r="C333" t="s">
+        <v>14</v>
+      </c>
+      <c r="D333">
+        <v>28</v>
+      </c>
+      <c r="E333">
+        <v>1.63</v>
+      </c>
+      <c r="F333">
+        <v>0</v>
+      </c>
+      <c r="G333">
+        <v>1</v>
+      </c>
+      <c r="H333">
+        <v>16</v>
+      </c>
+      <c r="I333">
+        <v>10</v>
+      </c>
+      <c r="J333">
+        <v>0</v>
+      </c>
+      <c r="K333">
+        <v>0</v>
+      </c>
+      <c r="L333">
+        <v>5</v>
+      </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B334" s="1"/>
+      <c r="A334" t="s">
+        <v>16</v>
+      </c>
+      <c r="B334" s="1">
+        <v>45755</v>
+      </c>
+      <c r="C334" t="s">
+        <v>20</v>
+      </c>
+      <c r="D334">
+        <v>130</v>
+      </c>
+      <c r="E334">
+        <v>0</v>
+      </c>
+      <c r="F334">
+        <v>0</v>
+      </c>
+      <c r="G334">
+        <v>127</v>
+      </c>
+      <c r="H334">
+        <v>3</v>
+      </c>
+      <c r="I334">
+        <v>0</v>
+      </c>
+      <c r="J334">
+        <v>0</v>
+      </c>
+      <c r="K334">
+        <v>0</v>
+      </c>
+      <c r="L334">
+        <v>5</v>
+      </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B335" s="1"/>
+      <c r="A335" t="s">
+        <v>23</v>
+      </c>
+      <c r="B335" s="1">
+        <v>45755</v>
+      </c>
+      <c r="C335" t="s">
+        <v>15</v>
+      </c>
+      <c r="D335">
+        <v>48</v>
+      </c>
+      <c r="E335">
+        <v>5.55</v>
+      </c>
+      <c r="F335">
+        <v>86</v>
+      </c>
+      <c r="G335">
+        <v>0</v>
+      </c>
+      <c r="H335">
+        <v>33</v>
+      </c>
+      <c r="I335">
+        <v>11</v>
+      </c>
+      <c r="J335">
+        <v>0</v>
+      </c>
+      <c r="K335">
+        <v>0</v>
+      </c>
+      <c r="L335">
+        <v>5</v>
+      </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B336" s="1"/>
-    </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B337" s="1"/>
-    </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B338" s="1"/>
-    </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B339" s="1"/>
-    </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B340" s="1"/>
-    </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B341" s="1"/>
-    </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>18</v>
+      </c>
+      <c r="B336" s="1">
+        <v>45756</v>
+      </c>
+      <c r="C336" t="s">
+        <v>20</v>
+      </c>
+      <c r="D336">
+        <v>38</v>
+      </c>
+      <c r="E336">
+        <v>0</v>
+      </c>
+      <c r="F336">
+        <v>0</v>
+      </c>
+      <c r="G336">
+        <v>38</v>
+      </c>
+      <c r="H336">
+        <v>0</v>
+      </c>
+      <c r="I336">
+        <v>0</v>
+      </c>
+      <c r="J336">
+        <v>0</v>
+      </c>
+      <c r="K336">
+        <v>0</v>
+      </c>
+      <c r="L336">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>17</v>
+      </c>
+      <c r="B337" s="1">
+        <v>45756</v>
+      </c>
+      <c r="C337" t="s">
+        <v>15</v>
+      </c>
+      <c r="D337">
+        <v>22</v>
+      </c>
+      <c r="E337">
+        <v>1.74</v>
+      </c>
+      <c r="F337">
+        <v>0</v>
+      </c>
+      <c r="G337">
+        <v>12</v>
+      </c>
+      <c r="H337">
+        <v>17</v>
+      </c>
+      <c r="I337">
+        <v>0</v>
+      </c>
+      <c r="J337">
+        <v>0</v>
+      </c>
+      <c r="K337">
+        <v>0</v>
+      </c>
+      <c r="L337">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>19</v>
+      </c>
+      <c r="B338" s="1">
+        <v>45756</v>
+      </c>
+      <c r="C338" t="s">
+        <v>20</v>
+      </c>
+      <c r="D338">
+        <v>64</v>
+      </c>
+      <c r="E338">
+        <v>0</v>
+      </c>
+      <c r="F338">
+        <v>0</v>
+      </c>
+      <c r="G338">
+        <v>55</v>
+      </c>
+      <c r="H338">
+        <v>10</v>
+      </c>
+      <c r="I338">
+        <v>0</v>
+      </c>
+      <c r="J338">
+        <v>0</v>
+      </c>
+      <c r="K338">
+        <v>0</v>
+      </c>
+      <c r="L338">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>13</v>
+      </c>
+      <c r="B339" s="1">
+        <v>45756</v>
+      </c>
+      <c r="C339" t="s">
+        <v>15</v>
+      </c>
+      <c r="D339">
+        <v>27</v>
+      </c>
+      <c r="E339">
+        <v>3.1</v>
+      </c>
+      <c r="F339">
+        <v>98</v>
+      </c>
+      <c r="G339">
+        <v>1</v>
+      </c>
+      <c r="H339">
+        <v>25</v>
+      </c>
+      <c r="I339">
+        <v>1</v>
+      </c>
+      <c r="J339">
+        <v>0</v>
+      </c>
+      <c r="K339">
+        <v>0</v>
+      </c>
+      <c r="L339">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>13</v>
+      </c>
+      <c r="B340" s="1">
+        <v>45756</v>
+      </c>
+      <c r="C340" t="s">
+        <v>14</v>
+      </c>
+      <c r="D340">
+        <v>42</v>
+      </c>
+      <c r="E340">
+        <v>0</v>
+      </c>
+      <c r="F340">
+        <v>0</v>
+      </c>
+      <c r="G340">
+        <v>9</v>
+      </c>
+      <c r="H340">
+        <v>33</v>
+      </c>
+      <c r="I340">
+        <v>0</v>
+      </c>
+      <c r="J340">
+        <v>0</v>
+      </c>
+      <c r="K340">
+        <v>0</v>
+      </c>
+      <c r="L340">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>13</v>
+      </c>
+      <c r="B341" s="1">
+        <v>45756</v>
+      </c>
+      <c r="C341" t="s">
+        <v>15</v>
+      </c>
+      <c r="D341">
+        <v>9</v>
+      </c>
+      <c r="E341">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F341">
+        <v>30</v>
+      </c>
+      <c r="G341">
+        <v>0</v>
+      </c>
+      <c r="H341">
+        <v>5</v>
+      </c>
+      <c r="I341">
+        <v>4</v>
+      </c>
+      <c r="J341">
+        <v>0</v>
+      </c>
+      <c r="K341">
+        <v>0</v>
+      </c>
+      <c r="L341">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B342" s="1"/>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B343" s="1"/>
     </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B344" s="1"/>
     </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B345" s="1"/>
     </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B346" s="1"/>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B347" s="1"/>
     </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B348" s="1"/>
     </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B349" s="1"/>
     </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B350" s="1"/>
     </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B351" s="1"/>
     </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B352" s="1"/>
     </row>
     <row r="353" spans="2:2" x14ac:dyDescent="0.3">

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4130" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FA724F3-A03D-479D-A514-425C4BD877B1}"/>
+  <xr:revisionPtr revIDLastSave="4154" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EAC0EB2-1F7A-4AFB-8BB9-83348DF0DBC3}"/>
   <bookViews>
     <workbookView xWindow="-25185" yWindow="3180" windowWidth="23160" windowHeight="11865" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -505,8 +505,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A321" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A342" sqref="A342"/>
+      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A344" sqref="A344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13483,10 +13483,80 @@
       </c>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B342" s="1"/>
+      <c r="A342" t="s">
+        <v>16</v>
+      </c>
+      <c r="B342" s="1">
+        <v>45756</v>
+      </c>
+      <c r="C342" t="s">
+        <v>15</v>
+      </c>
+      <c r="D342">
+        <v>102</v>
+      </c>
+      <c r="E342">
+        <v>10.1</v>
+      </c>
+      <c r="F342">
+        <v>335</v>
+      </c>
+      <c r="G342">
+        <v>4</v>
+      </c>
+      <c r="H342">
+        <v>98</v>
+      </c>
+      <c r="I342">
+        <v>1</v>
+      </c>
+      <c r="J342">
+        <v>0</v>
+      </c>
+      <c r="K342">
+        <v>0</v>
+      </c>
+      <c r="L342">
+        <v>5</v>
+      </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B343" s="1"/>
+      <c r="A343" t="s">
+        <v>10</v>
+      </c>
+      <c r="B343" s="1">
+        <v>45756</v>
+      </c>
+      <c r="C343" t="s">
+        <v>15</v>
+      </c>
+      <c r="D343">
+        <v>87</v>
+      </c>
+      <c r="E343">
+        <v>8.4</v>
+      </c>
+      <c r="F343">
+        <v>400</v>
+      </c>
+      <c r="G343">
+        <v>8</v>
+      </c>
+      <c r="H343">
+        <v>66</v>
+      </c>
+      <c r="I343">
+        <v>8</v>
+      </c>
+      <c r="J343">
+        <v>0</v>
+      </c>
+      <c r="K343">
+        <v>0</v>
+      </c>
+      <c r="L343">
+        <v>5</v>
+      </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B344" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4154" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EAC0EB2-1F7A-4AFB-8BB9-83348DF0DBC3}"/>
+  <xr:revisionPtr revIDLastSave="4264" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A10A8DB4-5C07-4DE0-BB3B-019137289770}"/>
   <bookViews>
-    <workbookView xWindow="-25185" yWindow="3180" windowWidth="23160" windowHeight="11865" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
+    <workbookView xWindow="-19815" yWindow="3435" windowWidth="17280" windowHeight="9855" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$346</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -505,8 +506,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A323" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A344" sqref="A344"/>
+      <pane ySplit="1" topLeftCell="A339" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A353" sqref="A353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13559,31 +13560,346 @@
       </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B344" s="1"/>
+      <c r="A344" t="s">
+        <v>24</v>
+      </c>
+      <c r="B344" s="1">
+        <v>45756</v>
+      </c>
+      <c r="C344" t="s">
+        <v>21</v>
+      </c>
+      <c r="D344">
+        <v>90</v>
+      </c>
+      <c r="E344">
+        <v>0</v>
+      </c>
+      <c r="F344">
+        <v>0</v>
+      </c>
+      <c r="G344">
+        <v>63</v>
+      </c>
+      <c r="H344">
+        <v>27</v>
+      </c>
+      <c r="I344">
+        <v>0</v>
+      </c>
+      <c r="J344">
+        <v>0</v>
+      </c>
+      <c r="K344">
+        <v>0</v>
+      </c>
+      <c r="L344">
+        <v>5</v>
+      </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B345" s="1"/>
+      <c r="A345" t="s">
+        <v>23</v>
+      </c>
+      <c r="B345" s="1">
+        <v>45756</v>
+      </c>
+      <c r="C345" t="s">
+        <v>15</v>
+      </c>
+      <c r="D345">
+        <v>88</v>
+      </c>
+      <c r="E345">
+        <v>7.5</v>
+      </c>
+      <c r="F345">
+        <v>1116</v>
+      </c>
+      <c r="G345">
+        <v>9</v>
+      </c>
+      <c r="H345">
+        <v>73</v>
+      </c>
+      <c r="I345">
+        <v>0</v>
+      </c>
+      <c r="J345">
+        <v>0</v>
+      </c>
+      <c r="K345">
+        <v>0</v>
+      </c>
+      <c r="L345">
+        <v>5</v>
+      </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B346" s="1"/>
+      <c r="A346" t="s">
+        <v>23</v>
+      </c>
+      <c r="B346" s="1">
+        <v>45756</v>
+      </c>
+      <c r="C346" t="s">
+        <v>14</v>
+      </c>
+      <c r="D346">
+        <v>48</v>
+      </c>
+      <c r="E346">
+        <v>0</v>
+      </c>
+      <c r="F346">
+        <v>0</v>
+      </c>
+      <c r="G346">
+        <v>47</v>
+      </c>
+      <c r="H346">
+        <v>1</v>
+      </c>
+      <c r="I346">
+        <v>0</v>
+      </c>
+      <c r="J346">
+        <v>0</v>
+      </c>
+      <c r="K346">
+        <v>0</v>
+      </c>
+      <c r="L346">
+        <v>5</v>
+      </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B347" s="1"/>
+      <c r="A347" t="s">
+        <v>25</v>
+      </c>
+      <c r="B347" s="1">
+        <v>45756</v>
+      </c>
+      <c r="C347" t="s">
+        <v>21</v>
+      </c>
+      <c r="D347">
+        <v>61</v>
+      </c>
+      <c r="E347">
+        <v>20.21</v>
+      </c>
+      <c r="F347">
+        <v>0</v>
+      </c>
+      <c r="G347">
+        <v>18</v>
+      </c>
+      <c r="H347">
+        <v>43</v>
+      </c>
+      <c r="I347">
+        <v>0</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="K347">
+        <v>0</v>
+      </c>
+      <c r="L347">
+        <v>5</v>
+      </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B348" s="1"/>
+      <c r="A348" t="s">
+        <v>18</v>
+      </c>
+      <c r="B348" s="1">
+        <v>45757</v>
+      </c>
+      <c r="C348" t="s">
+        <v>20</v>
+      </c>
+      <c r="D348">
+        <v>34</v>
+      </c>
+      <c r="E348">
+        <v>0</v>
+      </c>
+      <c r="F348">
+        <v>0</v>
+      </c>
+      <c r="G348">
+        <v>27</v>
+      </c>
+      <c r="H348">
+        <v>7</v>
+      </c>
+      <c r="I348">
+        <v>0</v>
+      </c>
+      <c r="J348">
+        <v>0</v>
+      </c>
+      <c r="K348">
+        <v>0</v>
+      </c>
+      <c r="L348">
+        <v>5</v>
+      </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B349" s="1"/>
+      <c r="A349" t="s">
+        <v>17</v>
+      </c>
+      <c r="B349" s="1">
+        <v>45757</v>
+      </c>
+      <c r="C349" t="s">
+        <v>15</v>
+      </c>
+      <c r="D349">
+        <v>43</v>
+      </c>
+      <c r="E349">
+        <v>3.88</v>
+      </c>
+      <c r="F349">
+        <v>426</v>
+      </c>
+      <c r="G349">
+        <v>1</v>
+      </c>
+      <c r="H349">
+        <v>34</v>
+      </c>
+      <c r="I349">
+        <v>8</v>
+      </c>
+      <c r="J349">
+        <v>0</v>
+      </c>
+      <c r="K349">
+        <v>0</v>
+      </c>
+      <c r="L349">
+        <v>5</v>
+      </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B350" s="1"/>
+      <c r="A350" t="s">
+        <v>10</v>
+      </c>
+      <c r="B350" s="1">
+        <v>45757</v>
+      </c>
+      <c r="C350" t="s">
+        <v>20</v>
+      </c>
+      <c r="D350">
+        <v>22</v>
+      </c>
+      <c r="E350">
+        <v>0</v>
+      </c>
+      <c r="F350">
+        <v>0</v>
+      </c>
+      <c r="G350">
+        <v>22</v>
+      </c>
+      <c r="H350">
+        <v>0</v>
+      </c>
+      <c r="I350">
+        <v>0</v>
+      </c>
+      <c r="J350">
+        <v>0</v>
+      </c>
+      <c r="K350">
+        <v>0</v>
+      </c>
+      <c r="L350">
+        <v>5</v>
+      </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B351" s="1"/>
+      <c r="A351" t="s">
+        <v>10</v>
+      </c>
+      <c r="B351" s="1">
+        <v>45757</v>
+      </c>
+      <c r="C351" t="s">
+        <v>21</v>
+      </c>
+      <c r="D351">
+        <v>23</v>
+      </c>
+      <c r="E351">
+        <v>6.96</v>
+      </c>
+      <c r="F351">
+        <v>0</v>
+      </c>
+      <c r="G351">
+        <v>23</v>
+      </c>
+      <c r="H351">
+        <v>0</v>
+      </c>
+      <c r="I351">
+        <v>0</v>
+      </c>
+      <c r="J351">
+        <v>0</v>
+      </c>
+      <c r="K351">
+        <v>0</v>
+      </c>
+      <c r="L351">
+        <v>5</v>
+      </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B352" s="1"/>
+      <c r="A352" t="s">
+        <v>25</v>
+      </c>
+      <c r="B352" s="1">
+        <v>45757</v>
+      </c>
+      <c r="C352" t="s">
+        <v>15</v>
+      </c>
+      <c r="D352">
+        <v>33</v>
+      </c>
+      <c r="E352">
+        <v>4.01</v>
+      </c>
+      <c r="F352">
+        <v>233</v>
+      </c>
+      <c r="G352">
+        <v>3</v>
+      </c>
+      <c r="H352">
+        <v>18</v>
+      </c>
+      <c r="I352">
+        <v>11</v>
+      </c>
+      <c r="J352">
+        <v>0</v>
+      </c>
+      <c r="K352">
+        <v>0</v>
+      </c>
+      <c r="L352">
+        <v>5</v>
+      </c>
     </row>
     <row r="353" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B353" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4264" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A10A8DB4-5C07-4DE0-BB3B-019137289770}"/>
+  <xr:revisionPtr revIDLastSave="4300" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DDA07B9-290E-4F74-AF22-539AB59C83E8}"/>
   <bookViews>
-    <workbookView xWindow="-19815" yWindow="3435" windowWidth="17280" windowHeight="9855" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
+    <workbookView xWindow="-19815" yWindow="3435" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -507,7 +507,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A339" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A353" sqref="A353"/>
+      <selection pane="bottomLeft" activeCell="A356" sqref="A356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13901,52 +13901,157 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B353" s="1"/>
-    </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B354" s="1"/>
-    </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B355" s="1"/>
-    </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>13</v>
+      </c>
+      <c r="B353" s="1">
+        <v>45757</v>
+      </c>
+      <c r="C353" t="s">
+        <v>21</v>
+      </c>
+      <c r="D353">
+        <v>60</v>
+      </c>
+      <c r="E353">
+        <v>20.53</v>
+      </c>
+      <c r="F353">
+        <v>0</v>
+      </c>
+      <c r="G353">
+        <v>15</v>
+      </c>
+      <c r="H353">
+        <v>42</v>
+      </c>
+      <c r="I353">
+        <v>1</v>
+      </c>
+      <c r="J353">
+        <v>0</v>
+      </c>
+      <c r="K353">
+        <v>1</v>
+      </c>
+      <c r="L353">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>16</v>
+      </c>
+      <c r="B354" s="1">
+        <v>45757</v>
+      </c>
+      <c r="C354" t="s">
+        <v>20</v>
+      </c>
+      <c r="D354">
+        <v>76</v>
+      </c>
+      <c r="E354">
+        <v>0</v>
+      </c>
+      <c r="F354">
+        <v>0</v>
+      </c>
+      <c r="G354">
+        <v>68</v>
+      </c>
+      <c r="H354">
+        <v>8</v>
+      </c>
+      <c r="I354">
+        <v>0</v>
+      </c>
+      <c r="J354">
+        <v>0</v>
+      </c>
+      <c r="K354">
+        <v>0</v>
+      </c>
+      <c r="L354">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>19</v>
+      </c>
+      <c r="B355" s="1">
+        <v>45757</v>
+      </c>
+      <c r="C355" t="s">
+        <v>15</v>
+      </c>
+      <c r="D355">
+        <v>41</v>
+      </c>
+      <c r="E355">
+        <v>4.49</v>
+      </c>
+      <c r="F355">
+        <v>272</v>
+      </c>
+      <c r="G355">
+        <v>2</v>
+      </c>
+      <c r="H355">
+        <v>20</v>
+      </c>
+      <c r="I355">
+        <v>18</v>
+      </c>
+      <c r="J355">
+        <v>0</v>
+      </c>
+      <c r="K355">
+        <v>0</v>
+      </c>
+      <c r="L355">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B356" s="1"/>
     </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B357" s="1"/>
     </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B358" s="1"/>
     </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B359" s="1"/>
     </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B360" s="1"/>
     </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B361" s="1"/>
     </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B362" s="1"/>
     </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B363" s="1"/>
     </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B364" s="1"/>
     </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B365" s="1"/>
     </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B366" s="1"/>
     </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B367" s="1"/>
     </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B368" s="1"/>
     </row>
     <row r="369" spans="2:2" x14ac:dyDescent="0.3">

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4300" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DDA07B9-290E-4F74-AF22-539AB59C83E8}"/>
+  <xr:revisionPtr revIDLastSave="4436" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5851166-4298-48F5-AB54-F5589D203952}"/>
   <bookViews>
     <workbookView xWindow="-19815" yWindow="3435" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -506,8 +506,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A339" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A356" sqref="A356"/>
+      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A367" sqref="A367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14016,37 +14016,422 @@
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B356" s="1"/>
+      <c r="A356" t="s">
+        <v>18</v>
+      </c>
+      <c r="B356" s="1">
+        <v>45757</v>
+      </c>
+      <c r="C356" t="s">
+        <v>15</v>
+      </c>
+      <c r="D356">
+        <v>11</v>
+      </c>
+      <c r="E356">
+        <v>1.42</v>
+      </c>
+      <c r="F356">
+        <v>49</v>
+      </c>
+      <c r="G356">
+        <v>1</v>
+      </c>
+      <c r="H356">
+        <v>9</v>
+      </c>
+      <c r="I356">
+        <v>1</v>
+      </c>
+      <c r="J356">
+        <v>0</v>
+      </c>
+      <c r="K356">
+        <v>0</v>
+      </c>
+      <c r="L356">
+        <v>5</v>
+      </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B357" s="1"/>
+      <c r="A357" t="s">
+        <v>18</v>
+      </c>
+      <c r="B357" s="1">
+        <v>45757</v>
+      </c>
+      <c r="C357" t="s">
+        <v>21</v>
+      </c>
+      <c r="D357">
+        <v>33</v>
+      </c>
+      <c r="E357">
+        <v>7.77</v>
+      </c>
+      <c r="F357">
+        <v>0</v>
+      </c>
+      <c r="G357">
+        <v>3</v>
+      </c>
+      <c r="H357">
+        <v>30</v>
+      </c>
+      <c r="I357">
+        <v>0</v>
+      </c>
+      <c r="J357">
+        <v>0</v>
+      </c>
+      <c r="K357">
+        <v>0</v>
+      </c>
+      <c r="L357">
+        <v>5</v>
+      </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B358" s="1"/>
+      <c r="A358" t="s">
+        <v>24</v>
+      </c>
+      <c r="B358" s="1">
+        <v>45758</v>
+      </c>
+      <c r="C358" t="s">
+        <v>15</v>
+      </c>
+      <c r="D358">
+        <v>123</v>
+      </c>
+      <c r="E358">
+        <v>10.43</v>
+      </c>
+      <c r="F358">
+        <v>200</v>
+      </c>
+      <c r="G358">
+        <v>14</v>
+      </c>
+      <c r="H358">
+        <v>108</v>
+      </c>
+      <c r="I358">
+        <v>0</v>
+      </c>
+      <c r="J358">
+        <v>0</v>
+      </c>
+      <c r="K358">
+        <v>0</v>
+      </c>
+      <c r="L358">
+        <v>5</v>
+      </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B359" s="1"/>
+      <c r="A359" t="s">
+        <v>18</v>
+      </c>
+      <c r="B359" s="1">
+        <v>45758</v>
+      </c>
+      <c r="C359" t="s">
+        <v>20</v>
+      </c>
+      <c r="D359">
+        <v>30</v>
+      </c>
+      <c r="E359">
+        <v>0</v>
+      </c>
+      <c r="F359">
+        <v>0</v>
+      </c>
+      <c r="G359">
+        <v>24</v>
+      </c>
+      <c r="H359">
+        <v>6</v>
+      </c>
+      <c r="I359">
+        <v>0</v>
+      </c>
+      <c r="J359">
+        <v>0</v>
+      </c>
+      <c r="K359">
+        <v>0</v>
+      </c>
+      <c r="L359">
+        <v>5</v>
+      </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B360" s="1"/>
+      <c r="A360" t="s">
+        <v>25</v>
+      </c>
+      <c r="B360" s="1">
+        <v>45758</v>
+      </c>
+      <c r="C360" t="s">
+        <v>21</v>
+      </c>
+      <c r="D360">
+        <v>60</v>
+      </c>
+      <c r="E360">
+        <v>19.46</v>
+      </c>
+      <c r="F360">
+        <v>0</v>
+      </c>
+      <c r="G360">
+        <v>3</v>
+      </c>
+      <c r="H360">
+        <v>57</v>
+      </c>
+      <c r="I360">
+        <v>0</v>
+      </c>
+      <c r="J360">
+        <v>0</v>
+      </c>
+      <c r="K360">
+        <v>0</v>
+      </c>
+      <c r="L360">
+        <v>5</v>
+      </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B361" s="1"/>
+      <c r="A361" t="s">
+        <v>19</v>
+      </c>
+      <c r="B361" s="1">
+        <v>45758</v>
+      </c>
+      <c r="C361" t="s">
+        <v>20</v>
+      </c>
+      <c r="D361">
+        <v>52</v>
+      </c>
+      <c r="E361">
+        <v>0</v>
+      </c>
+      <c r="F361">
+        <v>0</v>
+      </c>
+      <c r="G361">
+        <v>32</v>
+      </c>
+      <c r="H361">
+        <v>20</v>
+      </c>
+      <c r="I361">
+        <v>0</v>
+      </c>
+      <c r="J361">
+        <v>0</v>
+      </c>
+      <c r="K361">
+        <v>0</v>
+      </c>
+      <c r="L361">
+        <v>5</v>
+      </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B362" s="1"/>
+      <c r="A362" t="s">
+        <v>24</v>
+      </c>
+      <c r="B362" s="1">
+        <v>45758</v>
+      </c>
+      <c r="C362" t="s">
+        <v>21</v>
+      </c>
+      <c r="D362">
+        <v>11</v>
+      </c>
+      <c r="E362">
+        <v>3.14</v>
+      </c>
+      <c r="F362">
+        <v>0</v>
+      </c>
+      <c r="G362">
+        <v>10</v>
+      </c>
+      <c r="H362">
+        <v>1</v>
+      </c>
+      <c r="I362">
+        <v>0</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="K362">
+        <v>0</v>
+      </c>
+      <c r="L362">
+        <v>5</v>
+      </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B363" s="1"/>
+      <c r="A363" t="s">
+        <v>17</v>
+      </c>
+      <c r="B363" s="1">
+        <v>45758</v>
+      </c>
+      <c r="C363" t="s">
+        <v>15</v>
+      </c>
+      <c r="D363">
+        <v>71</v>
+      </c>
+      <c r="E363">
+        <v>7.52</v>
+      </c>
+      <c r="F363">
+        <v>370</v>
+      </c>
+      <c r="G363">
+        <v>2</v>
+      </c>
+      <c r="H363">
+        <v>16</v>
+      </c>
+      <c r="I363">
+        <v>35</v>
+      </c>
+      <c r="J363">
+        <v>18</v>
+      </c>
+      <c r="K363">
+        <v>0</v>
+      </c>
+      <c r="L363">
+        <v>5</v>
+      </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B364" s="1"/>
+      <c r="A364" t="s">
+        <v>13</v>
+      </c>
+      <c r="B364" s="1">
+        <v>45758</v>
+      </c>
+      <c r="C364" t="s">
+        <v>20</v>
+      </c>
+      <c r="D364">
+        <v>74</v>
+      </c>
+      <c r="E364">
+        <v>0</v>
+      </c>
+      <c r="F364">
+        <v>0</v>
+      </c>
+      <c r="G364">
+        <v>58</v>
+      </c>
+      <c r="H364">
+        <v>17</v>
+      </c>
+      <c r="I364">
+        <v>0</v>
+      </c>
+      <c r="J364">
+        <v>0</v>
+      </c>
+      <c r="K364">
+        <v>0</v>
+      </c>
+      <c r="L364">
+        <v>5</v>
+      </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B365" s="1"/>
+      <c r="A365" t="s">
+        <v>16</v>
+      </c>
+      <c r="B365" s="1">
+        <v>45758</v>
+      </c>
+      <c r="C365" t="s">
+        <v>26</v>
+      </c>
+      <c r="D365">
+        <v>46</v>
+      </c>
+      <c r="E365">
+        <v>0</v>
+      </c>
+      <c r="F365">
+        <v>0</v>
+      </c>
+      <c r="G365">
+        <v>8</v>
+      </c>
+      <c r="H365">
+        <v>38</v>
+      </c>
+      <c r="I365">
+        <v>0</v>
+      </c>
+      <c r="J365">
+        <v>0</v>
+      </c>
+      <c r="K365">
+        <v>0</v>
+      </c>
+      <c r="L365">
+        <v>5</v>
+      </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B366" s="1"/>
+      <c r="A366" t="s">
+        <v>19</v>
+      </c>
+      <c r="B366" s="1">
+        <v>45758</v>
+      </c>
+      <c r="C366" t="s">
+        <v>15</v>
+      </c>
+      <c r="D366">
+        <v>158</v>
+      </c>
+      <c r="E366">
+        <v>15.12</v>
+      </c>
+      <c r="F366">
+        <v>981</v>
+      </c>
+      <c r="G366">
+        <v>1</v>
+      </c>
+      <c r="H366">
+        <v>150</v>
+      </c>
+      <c r="I366">
+        <v>7</v>
+      </c>
+      <c r="J366">
+        <v>0</v>
+      </c>
+      <c r="K366">
+        <v>0</v>
+      </c>
+      <c r="L366">
+        <v>5</v>
+      </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B367" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4436" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5851166-4298-48F5-AB54-F5589D203952}"/>
+  <xr:revisionPtr revIDLastSave="4484" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2647CF64-88B6-4924-8C6C-77D50124617E}"/>
   <bookViews>
     <workbookView xWindow="-19815" yWindow="3435" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -507,7 +507,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A367" sqref="A367"/>
+      <selection pane="bottomLeft" activeCell="A371" sqref="A371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14434,57 +14434,197 @@
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B367" s="1"/>
+      <c r="A367" t="s">
+        <v>24</v>
+      </c>
+      <c r="B367" s="1">
+        <v>45759</v>
+      </c>
+      <c r="C367" t="s">
+        <v>21</v>
+      </c>
+      <c r="D367">
+        <v>20</v>
+      </c>
+      <c r="E367">
+        <v>0</v>
+      </c>
+      <c r="F367">
+        <v>0</v>
+      </c>
+      <c r="G367">
+        <v>20</v>
+      </c>
+      <c r="H367">
+        <v>1</v>
+      </c>
+      <c r="I367">
+        <v>0</v>
+      </c>
+      <c r="J367">
+        <v>0</v>
+      </c>
+      <c r="K367">
+        <v>0</v>
+      </c>
+      <c r="L367">
+        <v>5</v>
+      </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B368" s="1"/>
-    </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B369" s="1"/>
-    </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B370" s="1"/>
-    </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>18</v>
+      </c>
+      <c r="B368" s="1">
+        <v>45759</v>
+      </c>
+      <c r="C368" t="s">
+        <v>15</v>
+      </c>
+      <c r="D368">
+        <v>44</v>
+      </c>
+      <c r="E368">
+        <v>4.88</v>
+      </c>
+      <c r="F368">
+        <v>210</v>
+      </c>
+      <c r="G368">
+        <v>11</v>
+      </c>
+      <c r="H368">
+        <v>33</v>
+      </c>
+      <c r="I368">
+        <v>0</v>
+      </c>
+      <c r="J368">
+        <v>0</v>
+      </c>
+      <c r="K368">
+        <v>0</v>
+      </c>
+      <c r="L368">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>18</v>
+      </c>
+      <c r="B369" s="1">
+        <v>45759</v>
+      </c>
+      <c r="C369" t="s">
+        <v>21</v>
+      </c>
+      <c r="D369">
+        <v>62</v>
+      </c>
+      <c r="E369">
+        <v>13</v>
+      </c>
+      <c r="F369">
+        <v>0</v>
+      </c>
+      <c r="G369">
+        <v>8</v>
+      </c>
+      <c r="H369">
+        <v>53</v>
+      </c>
+      <c r="I369">
+        <v>1</v>
+      </c>
+      <c r="J369">
+        <v>0</v>
+      </c>
+      <c r="K369">
+        <v>0</v>
+      </c>
+      <c r="L369">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>10</v>
+      </c>
+      <c r="B370" s="1">
+        <v>45759</v>
+      </c>
+      <c r="C370" t="s">
+        <v>15</v>
+      </c>
+      <c r="D370">
+        <v>206</v>
+      </c>
+      <c r="E370">
+        <v>18.79</v>
+      </c>
+      <c r="F370">
+        <v>830</v>
+      </c>
+      <c r="G370">
+        <v>11</v>
+      </c>
+      <c r="H370">
+        <v>151</v>
+      </c>
+      <c r="I370">
+        <v>33</v>
+      </c>
+      <c r="J370">
+        <v>2</v>
+      </c>
+      <c r="K370">
+        <v>0</v>
+      </c>
+      <c r="L370">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B371" s="1"/>
     </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B372" s="1"/>
     </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B373" s="1"/>
     </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B374" s="1"/>
     </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B375" s="1"/>
     </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B376" s="1"/>
     </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B377" s="1"/>
     </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B378" s="1"/>
     </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B379" s="1"/>
     </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B380" s="1"/>
     </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B381" s="1"/>
     </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B382" s="1"/>
     </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B383" s="1"/>
     </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B384" s="1"/>
     </row>
     <row r="385" spans="2:2" x14ac:dyDescent="0.3">

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4484" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2647CF64-88B6-4924-8C6C-77D50124617E}"/>
+  <xr:revisionPtr revIDLastSave="4533" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F68E67CE-066A-4AF0-BDBE-337FA83F39CD}"/>
   <bookViews>
     <workbookView xWindow="-19815" yWindow="3435" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -506,8 +506,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A371" sqref="A371"/>
+      <pane ySplit="1" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A375" sqref="A375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14586,16 +14586,156 @@
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B371" s="1"/>
+      <c r="A371" t="s">
+        <v>25</v>
+      </c>
+      <c r="B371" s="1">
+        <v>45759</v>
+      </c>
+      <c r="C371" t="s">
+        <v>21</v>
+      </c>
+      <c r="D371">
+        <v>30</v>
+      </c>
+      <c r="E371">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="F371">
+        <v>0</v>
+      </c>
+      <c r="G371">
+        <v>9</v>
+      </c>
+      <c r="H371">
+        <v>21</v>
+      </c>
+      <c r="I371">
+        <v>0</v>
+      </c>
+      <c r="J371">
+        <v>0</v>
+      </c>
+      <c r="K371">
+        <v>0</v>
+      </c>
+      <c r="L371">
+        <v>5</v>
+      </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B372" s="1"/>
+      <c r="A372" t="s">
+        <v>25</v>
+      </c>
+      <c r="B372" s="1">
+        <v>45759</v>
+      </c>
+      <c r="C372" t="s">
+        <v>20</v>
+      </c>
+      <c r="D372">
+        <v>34</v>
+      </c>
+      <c r="E372">
+        <v>0</v>
+      </c>
+      <c r="F372">
+        <v>0</v>
+      </c>
+      <c r="G372">
+        <v>34</v>
+      </c>
+      <c r="H372">
+        <v>0</v>
+      </c>
+      <c r="I372">
+        <v>0</v>
+      </c>
+      <c r="J372">
+        <v>0</v>
+      </c>
+      <c r="K372">
+        <v>0</v>
+      </c>
+      <c r="L372">
+        <v>5</v>
+      </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B373" s="1"/>
+      <c r="A373" t="s">
+        <v>13</v>
+      </c>
+      <c r="B373" s="1">
+        <v>45759</v>
+      </c>
+      <c r="C373" t="s">
+        <v>21</v>
+      </c>
+      <c r="D373">
+        <v>224</v>
+      </c>
+      <c r="E373">
+        <v>71.75</v>
+      </c>
+      <c r="F373">
+        <v>3258</v>
+      </c>
+      <c r="G373">
+        <v>2</v>
+      </c>
+      <c r="H373">
+        <v>168</v>
+      </c>
+      <c r="I373">
+        <v>53</v>
+      </c>
+      <c r="J373">
+        <v>0</v>
+      </c>
+      <c r="K373">
+        <v>0</v>
+      </c>
+      <c r="L373">
+        <v>5</v>
+      </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B374" s="1"/>
+      <c r="A374" t="s">
+        <v>17</v>
+      </c>
+      <c r="B374" s="1">
+        <v>45759</v>
+      </c>
+      <c r="C374" t="s">
+        <v>15</v>
+      </c>
+      <c r="D374">
+        <v>220</v>
+      </c>
+      <c r="E374">
+        <v>18.02</v>
+      </c>
+      <c r="F374">
+        <v>3059</v>
+      </c>
+      <c r="G374">
+        <v>2</v>
+      </c>
+      <c r="H374">
+        <v>51</v>
+      </c>
+      <c r="I374">
+        <v>109</v>
+      </c>
+      <c r="J374">
+        <v>58</v>
+      </c>
+      <c r="K374">
+        <v>0</v>
+      </c>
+      <c r="L374">
+        <v>5</v>
+      </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B375" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4533" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F68E67CE-066A-4AF0-BDBE-337FA83F39CD}"/>
+  <xr:revisionPtr revIDLastSave="4594" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{901A76EA-A610-40DF-A0C4-B14B18B44DEB}"/>
   <bookViews>
     <workbookView xWindow="-19815" yWindow="3435" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -506,8 +506,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A375" sqref="A375"/>
+      <pane ySplit="1" topLeftCell="A358" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A380" sqref="A380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14738,19 +14738,194 @@
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B375" s="1"/>
+      <c r="A375" t="s">
+        <v>19</v>
+      </c>
+      <c r="B375" s="1">
+        <v>45760</v>
+      </c>
+      <c r="C375" t="s">
+        <v>20</v>
+      </c>
+      <c r="D375">
+        <v>69</v>
+      </c>
+      <c r="E375">
+        <v>0</v>
+      </c>
+      <c r="F375">
+        <v>0</v>
+      </c>
+      <c r="G375">
+        <v>47</v>
+      </c>
+      <c r="H375">
+        <v>23</v>
+      </c>
+      <c r="I375">
+        <v>0</v>
+      </c>
+      <c r="J375">
+        <v>0</v>
+      </c>
+      <c r="K375">
+        <v>0</v>
+      </c>
+      <c r="L375">
+        <v>5</v>
+      </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B376" s="1"/>
+      <c r="A376" t="s">
+        <v>18</v>
+      </c>
+      <c r="B376" s="1">
+        <v>45760</v>
+      </c>
+      <c r="C376" t="s">
+        <v>21</v>
+      </c>
+      <c r="D376">
+        <v>61</v>
+      </c>
+      <c r="E376">
+        <v>13.42</v>
+      </c>
+      <c r="F376">
+        <v>0</v>
+      </c>
+      <c r="G376">
+        <v>14</v>
+      </c>
+      <c r="H376">
+        <v>47</v>
+      </c>
+      <c r="I376">
+        <v>0</v>
+      </c>
+      <c r="J376">
+        <v>0</v>
+      </c>
+      <c r="K376">
+        <v>0</v>
+      </c>
+      <c r="L376">
+        <v>5</v>
+      </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B377" s="1"/>
+      <c r="A377" t="s">
+        <v>10</v>
+      </c>
+      <c r="B377" s="1">
+        <v>45760</v>
+      </c>
+      <c r="C377" t="s">
+        <v>20</v>
+      </c>
+      <c r="D377">
+        <v>29</v>
+      </c>
+      <c r="E377">
+        <v>0</v>
+      </c>
+      <c r="F377">
+        <v>0</v>
+      </c>
+      <c r="G377">
+        <v>28</v>
+      </c>
+      <c r="H377">
+        <v>1</v>
+      </c>
+      <c r="I377">
+        <v>0</v>
+      </c>
+      <c r="J377">
+        <v>0</v>
+      </c>
+      <c r="K377">
+        <v>0</v>
+      </c>
+      <c r="L377">
+        <v>5</v>
+      </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B378" s="1"/>
+      <c r="A378" t="s">
+        <v>24</v>
+      </c>
+      <c r="B378" s="1">
+        <v>45760</v>
+      </c>
+      <c r="C378" t="s">
+        <v>15</v>
+      </c>
+      <c r="D378">
+        <v>146</v>
+      </c>
+      <c r="E378">
+        <v>13.18</v>
+      </c>
+      <c r="F378">
+        <v>256</v>
+      </c>
+      <c r="G378">
+        <v>3</v>
+      </c>
+      <c r="H378">
+        <v>132</v>
+      </c>
+      <c r="I378">
+        <v>1</v>
+      </c>
+      <c r="J378">
+        <v>0</v>
+      </c>
+      <c r="K378">
+        <v>0</v>
+      </c>
+      <c r="L378">
+        <v>5</v>
+      </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B379" s="1"/>
+      <c r="A379" t="s">
+        <v>25</v>
+      </c>
+      <c r="B379" s="1">
+        <v>45760</v>
+      </c>
+      <c r="C379" t="s">
+        <v>15</v>
+      </c>
+      <c r="D379">
+        <v>118</v>
+      </c>
+      <c r="E379">
+        <v>12.66</v>
+      </c>
+      <c r="F379">
+        <v>1358</v>
+      </c>
+      <c r="G379">
+        <v>3</v>
+      </c>
+      <c r="H379">
+        <v>115</v>
+      </c>
+      <c r="I379">
+        <v>0</v>
+      </c>
+      <c r="J379">
+        <v>0</v>
+      </c>
+      <c r="K379">
+        <v>0</v>
+      </c>
+      <c r="L379">
+        <v>5</v>
+      </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B380" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4594" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{901A76EA-A610-40DF-A0C4-B14B18B44DEB}"/>
+  <xr:revisionPtr revIDLastSave="4618" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8581E105-11ED-4188-8F10-AD1B5164568F}"/>
   <bookViews>
     <workbookView xWindow="-19815" yWindow="3435" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -506,8 +506,8 @@
   <dimension ref="A1:L393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A358" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A380" sqref="A380"/>
+      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A382" sqref="A382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14928,10 +14928,80 @@
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B380" s="1"/>
+      <c r="A380" t="s">
+        <v>13</v>
+      </c>
+      <c r="B380" s="1">
+        <v>45760</v>
+      </c>
+      <c r="C380" t="s">
+        <v>15</v>
+      </c>
+      <c r="D380">
+        <v>58</v>
+      </c>
+      <c r="E380">
+        <v>5.41</v>
+      </c>
+      <c r="F380">
+        <v>423</v>
+      </c>
+      <c r="G380">
+        <v>4</v>
+      </c>
+      <c r="H380">
+        <v>52</v>
+      </c>
+      <c r="I380">
+        <v>3</v>
+      </c>
+      <c r="J380">
+        <v>0</v>
+      </c>
+      <c r="K380">
+        <v>0</v>
+      </c>
+      <c r="L380">
+        <v>5</v>
+      </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B381" s="1"/>
+      <c r="A381" t="s">
+        <v>18</v>
+      </c>
+      <c r="B381" s="1">
+        <v>45761</v>
+      </c>
+      <c r="C381" t="s">
+        <v>20</v>
+      </c>
+      <c r="D381">
+        <v>37</v>
+      </c>
+      <c r="E381">
+        <v>0</v>
+      </c>
+      <c r="F381">
+        <v>0</v>
+      </c>
+      <c r="G381">
+        <v>33</v>
+      </c>
+      <c r="H381">
+        <v>4</v>
+      </c>
+      <c r="I381">
+        <v>0</v>
+      </c>
+      <c r="J381">
+        <v>0</v>
+      </c>
+      <c r="K381">
+        <v>0</v>
+      </c>
+      <c r="L381">
+        <v>5</v>
+      </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B382" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4618" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8581E105-11ED-4188-8F10-AD1B5164568F}"/>
+  <xr:revisionPtr revIDLastSave="4630" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A279C0A2-7567-4CC6-AC85-E140875034E9}"/>
   <bookViews>
     <workbookView xWindow="-19815" yWindow="3435" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="29">
   <si>
     <t>Participant</t>
   </si>
@@ -507,7 +507,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A382" sqref="A382"/>
+      <selection pane="bottomLeft" activeCell="A383" sqref="A383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15004,7 +15004,42 @@
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B382" s="1"/>
+      <c r="A382" t="s">
+        <v>10</v>
+      </c>
+      <c r="B382" s="1">
+        <v>45761</v>
+      </c>
+      <c r="C382" t="s">
+        <v>21</v>
+      </c>
+      <c r="D382">
+        <v>23</v>
+      </c>
+      <c r="E382">
+        <v>6.53</v>
+      </c>
+      <c r="F382">
+        <v>0</v>
+      </c>
+      <c r="G382">
+        <v>23</v>
+      </c>
+      <c r="H382">
+        <v>0</v>
+      </c>
+      <c r="I382">
+        <v>0</v>
+      </c>
+      <c r="J382">
+        <v>0</v>
+      </c>
+      <c r="K382">
+        <v>0</v>
+      </c>
+      <c r="L382">
+        <v>5</v>
+      </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B383" s="1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4630" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A279C0A2-7567-4CC6-AC85-E140875034E9}"/>
+  <xr:revisionPtr revIDLastSave="4632" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2299B98B-1BF8-4F13-8B6A-D1B023267BF2}"/>
   <bookViews>
     <workbookView xWindow="-19815" yWindow="3435" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -507,7 +507,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A383" sqref="A383"/>
+      <selection pane="bottomLeft" activeCell="L382" sqref="L382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15000,7 +15000,7 @@
         <v>0</v>
       </c>
       <c r="L381">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.3">
@@ -15038,7 +15038,7 @@
         <v>0</v>
       </c>
       <c r="L382">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.3">

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4632" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2299B98B-1BF8-4F13-8B6A-D1B023267BF2}"/>
+  <xr:revisionPtr revIDLastSave="4800" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{311285A8-CEFD-4377-BBC6-1E1DEA2E1ECB}"/>
   <bookViews>
     <workbookView xWindow="-19815" yWindow="3435" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="30">
   <si>
     <t>Participant</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Row</t>
+  </si>
+  <si>
+    <t>Swim</t>
   </si>
 </sst>
 </file>
@@ -503,11 +506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:L393"/>
+  <dimension ref="A1:L396"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L382" sqref="L382"/>
+      <pane ySplit="1" topLeftCell="A384" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A397" sqref="A397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15042,37 +15045,536 @@
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B383" s="1"/>
+      <c r="A383" t="s">
+        <v>24</v>
+      </c>
+      <c r="B383" s="1">
+        <v>45761</v>
+      </c>
+      <c r="C383" t="s">
+        <v>15</v>
+      </c>
+      <c r="D383">
+        <v>61</v>
+      </c>
+      <c r="E383">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="F383">
+        <v>220</v>
+      </c>
+      <c r="G383">
+        <v>15</v>
+      </c>
+      <c r="H383">
+        <v>41</v>
+      </c>
+      <c r="I383">
+        <v>0</v>
+      </c>
+      <c r="J383">
+        <v>0</v>
+      </c>
+      <c r="K383">
+        <v>0</v>
+      </c>
+      <c r="L383">
+        <v>6</v>
+      </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B384" s="1"/>
-    </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B385" s="1"/>
-    </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B386" s="1"/>
-    </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B387" s="1"/>
-    </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B388" s="1"/>
-    </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B389" s="1"/>
-    </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B390" s="1"/>
-    </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B391" s="1"/>
-    </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B392" s="1"/>
-    </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B393" s="1"/>
+      <c r="A384" t="s">
+        <v>25</v>
+      </c>
+      <c r="B384" s="1">
+        <v>45761</v>
+      </c>
+      <c r="C384" t="s">
+        <v>21</v>
+      </c>
+      <c r="D384">
+        <v>51</v>
+      </c>
+      <c r="E384">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="F384">
+        <v>0</v>
+      </c>
+      <c r="G384">
+        <v>21</v>
+      </c>
+      <c r="H384">
+        <v>30</v>
+      </c>
+      <c r="I384">
+        <v>0</v>
+      </c>
+      <c r="J384">
+        <v>0</v>
+      </c>
+      <c r="K384">
+        <v>0</v>
+      </c>
+      <c r="L384">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>19</v>
+      </c>
+      <c r="B385" s="1">
+        <v>45761</v>
+      </c>
+      <c r="C385" t="s">
+        <v>20</v>
+      </c>
+      <c r="D385">
+        <v>37</v>
+      </c>
+      <c r="E385">
+        <v>0</v>
+      </c>
+      <c r="F385">
+        <v>0</v>
+      </c>
+      <c r="G385">
+        <v>29</v>
+      </c>
+      <c r="H385">
+        <v>9</v>
+      </c>
+      <c r="I385">
+        <v>0</v>
+      </c>
+      <c r="J385">
+        <v>0</v>
+      </c>
+      <c r="K385">
+        <v>0</v>
+      </c>
+      <c r="L385">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>18</v>
+      </c>
+      <c r="B386" s="1">
+        <v>45761</v>
+      </c>
+      <c r="C386" t="s">
+        <v>15</v>
+      </c>
+      <c r="D386">
+        <v>30</v>
+      </c>
+      <c r="E386">
+        <v>3.05</v>
+      </c>
+      <c r="F386">
+        <v>0</v>
+      </c>
+      <c r="G386">
+        <v>7</v>
+      </c>
+      <c r="H386">
+        <v>23</v>
+      </c>
+      <c r="I386">
+        <v>0</v>
+      </c>
+      <c r="J386">
+        <v>0</v>
+      </c>
+      <c r="K386">
+        <v>0</v>
+      </c>
+      <c r="L386">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>18</v>
+      </c>
+      <c r="B387" s="1">
+        <v>45761</v>
+      </c>
+      <c r="C387" t="s">
+        <v>28</v>
+      </c>
+      <c r="D387">
+        <v>16</v>
+      </c>
+      <c r="E387">
+        <v>0</v>
+      </c>
+      <c r="F387">
+        <v>0</v>
+      </c>
+      <c r="G387">
+        <v>1</v>
+      </c>
+      <c r="H387">
+        <v>16</v>
+      </c>
+      <c r="I387">
+        <v>0</v>
+      </c>
+      <c r="J387">
+        <v>0</v>
+      </c>
+      <c r="K387">
+        <v>0</v>
+      </c>
+      <c r="L387">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>18</v>
+      </c>
+      <c r="B388" s="1">
+        <v>45761</v>
+      </c>
+      <c r="C388" t="s">
+        <v>29</v>
+      </c>
+      <c r="D388">
+        <v>31</v>
+      </c>
+      <c r="E388">
+        <v>0.99</v>
+      </c>
+      <c r="F388">
+        <v>0</v>
+      </c>
+      <c r="G388">
+        <v>5</v>
+      </c>
+      <c r="H388">
+        <v>28</v>
+      </c>
+      <c r="I388">
+        <v>0</v>
+      </c>
+      <c r="J388">
+        <v>0</v>
+      </c>
+      <c r="K388">
+        <v>0</v>
+      </c>
+      <c r="L388">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>10</v>
+      </c>
+      <c r="B389" s="1">
+        <v>45761</v>
+      </c>
+      <c r="C389" t="s">
+        <v>20</v>
+      </c>
+      <c r="D389">
+        <v>26</v>
+      </c>
+      <c r="E389">
+        <v>0</v>
+      </c>
+      <c r="F389">
+        <v>0</v>
+      </c>
+      <c r="G389">
+        <v>26</v>
+      </c>
+      <c r="H389">
+        <v>0</v>
+      </c>
+      <c r="I389">
+        <v>0</v>
+      </c>
+      <c r="J389">
+        <v>0</v>
+      </c>
+      <c r="K389">
+        <v>0</v>
+      </c>
+      <c r="L389">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>24</v>
+      </c>
+      <c r="B390" s="1">
+        <v>45761</v>
+      </c>
+      <c r="C390" t="s">
+        <v>20</v>
+      </c>
+      <c r="D390">
+        <v>32</v>
+      </c>
+      <c r="E390">
+        <v>0</v>
+      </c>
+      <c r="F390">
+        <v>0</v>
+      </c>
+      <c r="G390">
+        <v>32</v>
+      </c>
+      <c r="H390">
+        <v>0</v>
+      </c>
+      <c r="I390">
+        <v>0</v>
+      </c>
+      <c r="J390">
+        <v>0</v>
+      </c>
+      <c r="K390">
+        <v>0</v>
+      </c>
+      <c r="L390">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>13</v>
+      </c>
+      <c r="B391" s="1">
+        <v>45761</v>
+      </c>
+      <c r="C391" t="s">
+        <v>15</v>
+      </c>
+      <c r="D391">
+        <v>112</v>
+      </c>
+      <c r="E391">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="F391">
+        <v>548</v>
+      </c>
+      <c r="G391">
+        <v>6</v>
+      </c>
+      <c r="H391">
+        <v>99</v>
+      </c>
+      <c r="I391">
+        <v>2</v>
+      </c>
+      <c r="J391">
+        <v>0</v>
+      </c>
+      <c r="K391">
+        <v>0</v>
+      </c>
+      <c r="L391">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>23</v>
+      </c>
+      <c r="B392" s="1">
+        <v>45761</v>
+      </c>
+      <c r="C392" t="s">
+        <v>15</v>
+      </c>
+      <c r="D392">
+        <v>45</v>
+      </c>
+      <c r="E392">
+        <v>5.01</v>
+      </c>
+      <c r="F392">
+        <v>278</v>
+      </c>
+      <c r="G392">
+        <v>1</v>
+      </c>
+      <c r="H392">
+        <v>14</v>
+      </c>
+      <c r="I392">
+        <v>25</v>
+      </c>
+      <c r="J392">
+        <v>3</v>
+      </c>
+      <c r="K392">
+        <v>0</v>
+      </c>
+      <c r="L392">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>16</v>
+      </c>
+      <c r="B393" s="1">
+        <v>45761</v>
+      </c>
+      <c r="C393" t="s">
+        <v>26</v>
+      </c>
+      <c r="D393">
+        <v>64</v>
+      </c>
+      <c r="E393">
+        <v>0</v>
+      </c>
+      <c r="F393">
+        <v>0</v>
+      </c>
+      <c r="G393">
+        <v>6</v>
+      </c>
+      <c r="H393">
+        <v>58</v>
+      </c>
+      <c r="I393">
+        <v>0</v>
+      </c>
+      <c r="J393">
+        <v>0</v>
+      </c>
+      <c r="K393">
+        <v>0</v>
+      </c>
+      <c r="L393">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>17</v>
+      </c>
+      <c r="B394" s="1">
+        <v>45761</v>
+      </c>
+      <c r="C394" t="s">
+        <v>15</v>
+      </c>
+      <c r="D394">
+        <v>125</v>
+      </c>
+      <c r="E394">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="F394">
+        <v>1786</v>
+      </c>
+      <c r="G394">
+        <v>1</v>
+      </c>
+      <c r="H394">
+        <v>60</v>
+      </c>
+      <c r="I394">
+        <v>60</v>
+      </c>
+      <c r="J394">
+        <v>3</v>
+      </c>
+      <c r="K394">
+        <v>0</v>
+      </c>
+      <c r="L394">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>25</v>
+      </c>
+      <c r="B395" s="1">
+        <v>45761</v>
+      </c>
+      <c r="C395" t="s">
+        <v>20</v>
+      </c>
+      <c r="D395">
+        <v>39</v>
+      </c>
+      <c r="E395">
+        <v>0</v>
+      </c>
+      <c r="F395">
+        <v>0</v>
+      </c>
+      <c r="G395">
+        <v>39</v>
+      </c>
+      <c r="H395">
+        <v>0</v>
+      </c>
+      <c r="I395">
+        <v>0</v>
+      </c>
+      <c r="J395">
+        <v>0</v>
+      </c>
+      <c r="K395">
+        <v>0</v>
+      </c>
+      <c r="L395">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>10</v>
+      </c>
+      <c r="B396" s="1">
+        <v>45762</v>
+      </c>
+      <c r="C396" t="s">
+        <v>15</v>
+      </c>
+      <c r="D396">
+        <v>76</v>
+      </c>
+      <c r="E396">
+        <v>7.41</v>
+      </c>
+      <c r="F396">
+        <v>328</v>
+      </c>
+      <c r="G396">
+        <v>6</v>
+      </c>
+      <c r="H396">
+        <v>63</v>
+      </c>
+      <c r="I396">
+        <v>6</v>
+      </c>
+      <c r="J396">
+        <v>0</v>
+      </c>
+      <c r="K396">
+        <v>0</v>
+      </c>
+      <c r="L396">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:L346" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4800" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{311285A8-CEFD-4377-BBC6-1E1DEA2E1ECB}"/>
+  <xr:revisionPtr revIDLastSave="4932" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D21ED87-F4AC-41B3-BA77-5C2912BA15B6}"/>
   <bookViews>
     <workbookView xWindow="-19815" yWindow="3435" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="30">
   <si>
     <t>Participant</t>
   </si>
@@ -506,11 +506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:L396"/>
+  <dimension ref="A1:L407"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A384" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A397" sqref="A397"/>
+      <pane ySplit="1" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A408" sqref="A408"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15576,6 +15576,424 @@
         <v>6</v>
       </c>
     </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>24</v>
+      </c>
+      <c r="B397" s="1">
+        <v>45762</v>
+      </c>
+      <c r="C397" t="s">
+        <v>15</v>
+      </c>
+      <c r="D397">
+        <v>91</v>
+      </c>
+      <c r="E397">
+        <v>7.49</v>
+      </c>
+      <c r="F397">
+        <v>115</v>
+      </c>
+      <c r="G397">
+        <v>14</v>
+      </c>
+      <c r="H397">
+        <v>74</v>
+      </c>
+      <c r="I397">
+        <v>0</v>
+      </c>
+      <c r="J397">
+        <v>0</v>
+      </c>
+      <c r="K397">
+        <v>0</v>
+      </c>
+      <c r="L397">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>25</v>
+      </c>
+      <c r="B398" s="1">
+        <v>45397</v>
+      </c>
+      <c r="C398" t="s">
+        <v>15</v>
+      </c>
+      <c r="D398">
+        <v>74</v>
+      </c>
+      <c r="E398">
+        <v>7.48</v>
+      </c>
+      <c r="F398">
+        <v>801</v>
+      </c>
+      <c r="G398">
+        <v>4</v>
+      </c>
+      <c r="H398">
+        <v>51</v>
+      </c>
+      <c r="I398">
+        <v>16</v>
+      </c>
+      <c r="J398">
+        <v>0</v>
+      </c>
+      <c r="K398">
+        <v>0</v>
+      </c>
+      <c r="L398">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>13</v>
+      </c>
+      <c r="B399" s="1">
+        <v>45762</v>
+      </c>
+      <c r="C399" t="s">
+        <v>20</v>
+      </c>
+      <c r="D399">
+        <v>66</v>
+      </c>
+      <c r="E399">
+        <v>0</v>
+      </c>
+      <c r="F399">
+        <v>0</v>
+      </c>
+      <c r="G399">
+        <v>66</v>
+      </c>
+      <c r="H399">
+        <v>1</v>
+      </c>
+      <c r="I399">
+        <v>0</v>
+      </c>
+      <c r="J399">
+        <v>0</v>
+      </c>
+      <c r="K399">
+        <v>0</v>
+      </c>
+      <c r="L399">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>19</v>
+      </c>
+      <c r="B400" s="1">
+        <v>45762</v>
+      </c>
+      <c r="C400" t="s">
+        <v>15</v>
+      </c>
+      <c r="D400">
+        <v>13</v>
+      </c>
+      <c r="E400">
+        <v>1.19</v>
+      </c>
+      <c r="F400">
+        <v>0</v>
+      </c>
+      <c r="G400">
+        <v>0</v>
+      </c>
+      <c r="H400">
+        <v>1</v>
+      </c>
+      <c r="I400">
+        <v>4</v>
+      </c>
+      <c r="J400">
+        <v>8</v>
+      </c>
+      <c r="K400">
+        <v>0</v>
+      </c>
+      <c r="L400">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>16</v>
+      </c>
+      <c r="B401" s="1">
+        <v>45762</v>
+      </c>
+      <c r="C401" t="s">
+        <v>20</v>
+      </c>
+      <c r="D401">
+        <v>41</v>
+      </c>
+      <c r="E401">
+        <v>0</v>
+      </c>
+      <c r="F401">
+        <v>0</v>
+      </c>
+      <c r="G401">
+        <v>33</v>
+      </c>
+      <c r="H401">
+        <v>7</v>
+      </c>
+      <c r="I401">
+        <v>0</v>
+      </c>
+      <c r="J401">
+        <v>0</v>
+      </c>
+      <c r="K401">
+        <v>0</v>
+      </c>
+      <c r="L401">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>17</v>
+      </c>
+      <c r="B402" s="1">
+        <v>45762</v>
+      </c>
+      <c r="C402" t="s">
+        <v>15</v>
+      </c>
+      <c r="D402">
+        <v>112</v>
+      </c>
+      <c r="E402">
+        <v>8.07</v>
+      </c>
+      <c r="F402">
+        <v>1695</v>
+      </c>
+      <c r="G402">
+        <v>2</v>
+      </c>
+      <c r="H402">
+        <v>61</v>
+      </c>
+      <c r="I402">
+        <v>44</v>
+      </c>
+      <c r="J402">
+        <v>0</v>
+      </c>
+      <c r="K402">
+        <v>0</v>
+      </c>
+      <c r="L402">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>19</v>
+      </c>
+      <c r="B403" s="1">
+        <v>45762</v>
+      </c>
+      <c r="C403" t="s">
+        <v>20</v>
+      </c>
+      <c r="D403">
+        <v>65</v>
+      </c>
+      <c r="E403">
+        <v>0</v>
+      </c>
+      <c r="F403">
+        <v>0</v>
+      </c>
+      <c r="G403">
+        <v>54</v>
+      </c>
+      <c r="H403">
+        <v>11</v>
+      </c>
+      <c r="I403">
+        <v>0</v>
+      </c>
+      <c r="J403">
+        <v>0</v>
+      </c>
+      <c r="K403">
+        <v>0</v>
+      </c>
+      <c r="L403">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>23</v>
+      </c>
+      <c r="B404" s="1">
+        <v>45762</v>
+      </c>
+      <c r="C404" t="s">
+        <v>15</v>
+      </c>
+      <c r="D404">
+        <v>42</v>
+      </c>
+      <c r="E404">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="F404">
+        <v>141</v>
+      </c>
+      <c r="G404">
+        <v>0</v>
+      </c>
+      <c r="H404">
+        <v>17</v>
+      </c>
+      <c r="I404">
+        <v>23</v>
+      </c>
+      <c r="J404">
+        <v>0</v>
+      </c>
+      <c r="K404">
+        <v>0</v>
+      </c>
+      <c r="L404">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>18</v>
+      </c>
+      <c r="B405" s="1">
+        <v>45762</v>
+      </c>
+      <c r="C405" t="s">
+        <v>20</v>
+      </c>
+      <c r="D405">
+        <v>30</v>
+      </c>
+      <c r="E405">
+        <v>0</v>
+      </c>
+      <c r="F405">
+        <v>0</v>
+      </c>
+      <c r="G405">
+        <v>26</v>
+      </c>
+      <c r="H405">
+        <v>4</v>
+      </c>
+      <c r="I405">
+        <v>0</v>
+      </c>
+      <c r="J405">
+        <v>0</v>
+      </c>
+      <c r="K405">
+        <v>0</v>
+      </c>
+      <c r="L405">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>18</v>
+      </c>
+      <c r="B406" s="1">
+        <v>45762</v>
+      </c>
+      <c r="C406" t="s">
+        <v>21</v>
+      </c>
+      <c r="D406">
+        <v>32</v>
+      </c>
+      <c r="E406">
+        <v>6.36</v>
+      </c>
+      <c r="F406">
+        <v>0</v>
+      </c>
+      <c r="G406">
+        <v>1</v>
+      </c>
+      <c r="H406">
+        <v>31</v>
+      </c>
+      <c r="I406">
+        <v>0</v>
+      </c>
+      <c r="J406">
+        <v>0</v>
+      </c>
+      <c r="K406">
+        <v>0</v>
+      </c>
+      <c r="L406">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>25</v>
+      </c>
+      <c r="B407" s="1">
+        <v>45763</v>
+      </c>
+      <c r="C407" t="s">
+        <v>15</v>
+      </c>
+      <c r="D407">
+        <v>35</v>
+      </c>
+      <c r="E407">
+        <v>4.08</v>
+      </c>
+      <c r="F407">
+        <v>266</v>
+      </c>
+      <c r="G407">
+        <v>10</v>
+      </c>
+      <c r="H407">
+        <v>16</v>
+      </c>
+      <c r="I407">
+        <v>7</v>
+      </c>
+      <c r="J407">
+        <v>0</v>
+      </c>
+      <c r="K407">
+        <v>0</v>
+      </c>
+      <c r="L407">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L346" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4932" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D21ED87-F4AC-41B3-BA77-5C2912BA15B6}"/>
+  <xr:revisionPtr revIDLastSave="5076" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52763FE5-D4E9-4B84-8EFB-041AB3D18C54}"/>
   <bookViews>
     <workbookView xWindow="-19815" yWindow="3435" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="30">
   <si>
     <t>Participant</t>
   </si>
@@ -506,11 +506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:L407"/>
+  <dimension ref="A1:L419"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A408" sqref="A408"/>
+      <pane ySplit="1" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A420" sqref="A420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15994,6 +15994,462 @@
         <v>6</v>
       </c>
     </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>25</v>
+      </c>
+      <c r="B408" s="1">
+        <v>45763</v>
+      </c>
+      <c r="C408" t="s">
+        <v>15</v>
+      </c>
+      <c r="D408">
+        <v>15</v>
+      </c>
+      <c r="E408">
+        <v>1.96</v>
+      </c>
+      <c r="F408">
+        <v>75</v>
+      </c>
+      <c r="G408">
+        <v>1</v>
+      </c>
+      <c r="H408">
+        <v>6</v>
+      </c>
+      <c r="I408">
+        <v>8</v>
+      </c>
+      <c r="J408">
+        <v>0</v>
+      </c>
+      <c r="K408">
+        <v>0</v>
+      </c>
+      <c r="L408">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>10</v>
+      </c>
+      <c r="B409" s="1">
+        <v>45763</v>
+      </c>
+      <c r="C409" t="s">
+        <v>21</v>
+      </c>
+      <c r="D409">
+        <v>30</v>
+      </c>
+      <c r="E409">
+        <v>9.14</v>
+      </c>
+      <c r="F409">
+        <v>0</v>
+      </c>
+      <c r="G409">
+        <v>8</v>
+      </c>
+      <c r="H409">
+        <v>22</v>
+      </c>
+      <c r="I409">
+        <v>0</v>
+      </c>
+      <c r="J409">
+        <v>0</v>
+      </c>
+      <c r="K409">
+        <v>0</v>
+      </c>
+      <c r="L409">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>13</v>
+      </c>
+      <c r="B410" s="1">
+        <v>45763</v>
+      </c>
+      <c r="C410" t="s">
+        <v>15</v>
+      </c>
+      <c r="D410">
+        <v>259</v>
+      </c>
+      <c r="E410">
+        <v>21.14</v>
+      </c>
+      <c r="F410">
+        <v>1283</v>
+      </c>
+      <c r="G410">
+        <v>5</v>
+      </c>
+      <c r="H410">
+        <v>242</v>
+      </c>
+      <c r="I410">
+        <v>1</v>
+      </c>
+      <c r="J410">
+        <v>0</v>
+      </c>
+      <c r="K410">
+        <v>0</v>
+      </c>
+      <c r="L410">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>16</v>
+      </c>
+      <c r="B411" s="1">
+        <v>45763</v>
+      </c>
+      <c r="C411" t="s">
+        <v>15</v>
+      </c>
+      <c r="D411">
+        <v>251</v>
+      </c>
+      <c r="E411">
+        <v>22.13</v>
+      </c>
+      <c r="F411">
+        <v>1407</v>
+      </c>
+      <c r="G411">
+        <v>4</v>
+      </c>
+      <c r="H411">
+        <v>151</v>
+      </c>
+      <c r="I411">
+        <v>97</v>
+      </c>
+      <c r="J411">
+        <v>0</v>
+      </c>
+      <c r="K411">
+        <v>0</v>
+      </c>
+      <c r="L411">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>19</v>
+      </c>
+      <c r="B412" s="1">
+        <v>45763</v>
+      </c>
+      <c r="C412" t="s">
+        <v>15</v>
+      </c>
+      <c r="D412">
+        <v>256</v>
+      </c>
+      <c r="E412">
+        <v>22.24</v>
+      </c>
+      <c r="F412">
+        <v>1358</v>
+      </c>
+      <c r="G412">
+        <v>4</v>
+      </c>
+      <c r="H412">
+        <v>142</v>
+      </c>
+      <c r="I412">
+        <v>104</v>
+      </c>
+      <c r="J412">
+        <v>0</v>
+      </c>
+      <c r="K412">
+        <v>0</v>
+      </c>
+      <c r="L412">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>10</v>
+      </c>
+      <c r="B413" s="1">
+        <v>45763</v>
+      </c>
+      <c r="C413" t="s">
+        <v>20</v>
+      </c>
+      <c r="D413">
+        <v>12</v>
+      </c>
+      <c r="E413">
+        <v>0</v>
+      </c>
+      <c r="F413">
+        <v>0</v>
+      </c>
+      <c r="G413">
+        <v>4</v>
+      </c>
+      <c r="H413">
+        <v>8</v>
+      </c>
+      <c r="I413">
+        <v>0</v>
+      </c>
+      <c r="J413">
+        <v>0</v>
+      </c>
+      <c r="K413">
+        <v>0</v>
+      </c>
+      <c r="L413">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>23</v>
+      </c>
+      <c r="B414" s="1">
+        <v>45763</v>
+      </c>
+      <c r="C414" t="s">
+        <v>14</v>
+      </c>
+      <c r="D414">
+        <v>73</v>
+      </c>
+      <c r="E414">
+        <v>0</v>
+      </c>
+      <c r="F414">
+        <v>0</v>
+      </c>
+      <c r="G414">
+        <v>51</v>
+      </c>
+      <c r="H414">
+        <v>18</v>
+      </c>
+      <c r="I414">
+        <v>5</v>
+      </c>
+      <c r="J414">
+        <v>0</v>
+      </c>
+      <c r="K414">
+        <v>0</v>
+      </c>
+      <c r="L414">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>18</v>
+      </c>
+      <c r="B415" s="1">
+        <v>45763</v>
+      </c>
+      <c r="C415" t="s">
+        <v>20</v>
+      </c>
+      <c r="D415">
+        <v>61</v>
+      </c>
+      <c r="E415">
+        <v>0</v>
+      </c>
+      <c r="F415">
+        <v>0</v>
+      </c>
+      <c r="G415">
+        <v>57</v>
+      </c>
+      <c r="H415">
+        <v>4</v>
+      </c>
+      <c r="I415">
+        <v>0</v>
+      </c>
+      <c r="J415">
+        <v>0</v>
+      </c>
+      <c r="K415">
+        <v>0</v>
+      </c>
+      <c r="L415">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>18</v>
+      </c>
+      <c r="B416" s="1">
+        <v>45764</v>
+      </c>
+      <c r="C416" t="s">
+        <v>21</v>
+      </c>
+      <c r="D416">
+        <v>49</v>
+      </c>
+      <c r="E416">
+        <v>10.49</v>
+      </c>
+      <c r="F416">
+        <v>0</v>
+      </c>
+      <c r="G416">
+        <v>17</v>
+      </c>
+      <c r="H416">
+        <v>32</v>
+      </c>
+      <c r="I416">
+        <v>0</v>
+      </c>
+      <c r="J416">
+        <v>0</v>
+      </c>
+      <c r="K416">
+        <v>0</v>
+      </c>
+      <c r="L416">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>24</v>
+      </c>
+      <c r="B417" s="1">
+        <v>45764</v>
+      </c>
+      <c r="C417" t="s">
+        <v>15</v>
+      </c>
+      <c r="D417">
+        <v>45</v>
+      </c>
+      <c r="E417">
+        <v>4</v>
+      </c>
+      <c r="F417">
+        <v>210</v>
+      </c>
+      <c r="G417">
+        <v>7</v>
+      </c>
+      <c r="H417">
+        <v>37</v>
+      </c>
+      <c r="I417">
+        <v>0</v>
+      </c>
+      <c r="J417">
+        <v>0</v>
+      </c>
+      <c r="K417">
+        <v>0</v>
+      </c>
+      <c r="L417">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>10</v>
+      </c>
+      <c r="B418" s="1">
+        <v>45764</v>
+      </c>
+      <c r="C418" t="s">
+        <v>15</v>
+      </c>
+      <c r="D418">
+        <v>81</v>
+      </c>
+      <c r="E418">
+        <v>7.97</v>
+      </c>
+      <c r="F418">
+        <v>364</v>
+      </c>
+      <c r="G418">
+        <v>4</v>
+      </c>
+      <c r="H418">
+        <v>61</v>
+      </c>
+      <c r="I418">
+        <v>15</v>
+      </c>
+      <c r="J418">
+        <v>0</v>
+      </c>
+      <c r="K418">
+        <v>0</v>
+      </c>
+      <c r="L418">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>25</v>
+      </c>
+      <c r="B419" s="1">
+        <v>45764</v>
+      </c>
+      <c r="C419" t="s">
+        <v>15</v>
+      </c>
+      <c r="D419">
+        <v>17</v>
+      </c>
+      <c r="E419">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F419">
+        <v>72</v>
+      </c>
+      <c r="G419">
+        <v>5</v>
+      </c>
+      <c r="H419">
+        <v>11</v>
+      </c>
+      <c r="I419">
+        <v>0</v>
+      </c>
+      <c r="J419">
+        <v>0</v>
+      </c>
+      <c r="K419">
+        <v>0</v>
+      </c>
+      <c r="L419">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L346" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5076" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52763FE5-D4E9-4B84-8EFB-041AB3D18C54}"/>
+  <xr:revisionPtr revIDLastSave="5148" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6192375D-E9DD-482E-B4E9-CA9C5839F09E}"/>
   <bookViews>
     <workbookView xWindow="-19815" yWindow="3435" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="30">
   <si>
     <t>Participant</t>
   </si>
@@ -506,11 +506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:L419"/>
+  <dimension ref="A1:L425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A420" sqref="A420"/>
+      <pane ySplit="1" topLeftCell="A408" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A426" sqref="A426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16450,6 +16450,234 @@
         <v>6</v>
       </c>
     </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>25</v>
+      </c>
+      <c r="B420" s="1">
+        <v>45764</v>
+      </c>
+      <c r="C420" t="s">
+        <v>20</v>
+      </c>
+      <c r="D420">
+        <v>45</v>
+      </c>
+      <c r="E420">
+        <v>0</v>
+      </c>
+      <c r="F420">
+        <v>0</v>
+      </c>
+      <c r="G420">
+        <v>42</v>
+      </c>
+      <c r="H420">
+        <v>3</v>
+      </c>
+      <c r="I420">
+        <v>0</v>
+      </c>
+      <c r="J420">
+        <v>0</v>
+      </c>
+      <c r="K420">
+        <v>0</v>
+      </c>
+      <c r="L420">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>25</v>
+      </c>
+      <c r="B421" s="1">
+        <v>45764</v>
+      </c>
+      <c r="C421" t="s">
+        <v>15</v>
+      </c>
+      <c r="D421">
+        <v>15</v>
+      </c>
+      <c r="E421">
+        <v>2.02</v>
+      </c>
+      <c r="F421">
+        <v>82</v>
+      </c>
+      <c r="G421">
+        <v>1</v>
+      </c>
+      <c r="H421">
+        <v>3</v>
+      </c>
+      <c r="I421">
+        <v>11</v>
+      </c>
+      <c r="J421">
+        <v>1</v>
+      </c>
+      <c r="K421">
+        <v>0</v>
+      </c>
+      <c r="L421">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>24</v>
+      </c>
+      <c r="B422" s="1">
+        <v>45764</v>
+      </c>
+      <c r="C422" t="s">
+        <v>20</v>
+      </c>
+      <c r="D422">
+        <v>24</v>
+      </c>
+      <c r="E422">
+        <v>0</v>
+      </c>
+      <c r="F422">
+        <v>0</v>
+      </c>
+      <c r="G422">
+        <v>23</v>
+      </c>
+      <c r="H422">
+        <v>1</v>
+      </c>
+      <c r="I422">
+        <v>0</v>
+      </c>
+      <c r="J422">
+        <v>0</v>
+      </c>
+      <c r="K422">
+        <v>0</v>
+      </c>
+      <c r="L422">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>23</v>
+      </c>
+      <c r="B423" s="1">
+        <v>45764</v>
+      </c>
+      <c r="C423" t="s">
+        <v>15</v>
+      </c>
+      <c r="D423">
+        <v>110</v>
+      </c>
+      <c r="E423">
+        <v>11.04</v>
+      </c>
+      <c r="F423">
+        <v>687</v>
+      </c>
+      <c r="G423">
+        <v>3</v>
+      </c>
+      <c r="H423">
+        <v>66</v>
+      </c>
+      <c r="I423">
+        <v>35</v>
+      </c>
+      <c r="J423">
+        <v>0</v>
+      </c>
+      <c r="K423">
+        <v>0</v>
+      </c>
+      <c r="L423">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>18</v>
+      </c>
+      <c r="B424" s="1">
+        <v>45765</v>
+      </c>
+      <c r="C424" t="s">
+        <v>14</v>
+      </c>
+      <c r="D424">
+        <v>70</v>
+      </c>
+      <c r="E424">
+        <v>0</v>
+      </c>
+      <c r="F424">
+        <v>0</v>
+      </c>
+      <c r="G424">
+        <v>54</v>
+      </c>
+      <c r="H424">
+        <v>16</v>
+      </c>
+      <c r="I424">
+        <v>0</v>
+      </c>
+      <c r="J424">
+        <v>0</v>
+      </c>
+      <c r="K424">
+        <v>0</v>
+      </c>
+      <c r="L424">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>24</v>
+      </c>
+      <c r="B425" s="1">
+        <v>45765</v>
+      </c>
+      <c r="C425" t="s">
+        <v>15</v>
+      </c>
+      <c r="D425">
+        <v>57</v>
+      </c>
+      <c r="E425">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="F425">
+        <v>161</v>
+      </c>
+      <c r="G425">
+        <v>39</v>
+      </c>
+      <c r="H425">
+        <v>18</v>
+      </c>
+      <c r="I425">
+        <v>0</v>
+      </c>
+      <c r="J425">
+        <v>0</v>
+      </c>
+      <c r="K425">
+        <v>0</v>
+      </c>
+      <c r="L425">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L346" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5148" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6192375D-E9DD-482E-B4E9-CA9C5839F09E}"/>
+  <xr:revisionPtr revIDLastSave="5233" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C9E8473-E0D7-4F56-ADE1-553B93EAA731}"/>
   <bookViews>
     <workbookView xWindow="-19815" yWindow="3435" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="30">
   <si>
     <t>Participant</t>
   </si>
@@ -506,11 +506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:L425"/>
+  <dimension ref="A1:L432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A408" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A426" sqref="A426"/>
+      <pane ySplit="1" topLeftCell="A414" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A433" sqref="A433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16678,6 +16678,272 @@
         <v>6</v>
       </c>
     </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>16</v>
+      </c>
+      <c r="B426" s="1">
+        <v>45765</v>
+      </c>
+      <c r="C426" t="s">
+        <v>20</v>
+      </c>
+      <c r="D426">
+        <v>86</v>
+      </c>
+      <c r="E426">
+        <v>0</v>
+      </c>
+      <c r="F426">
+        <v>0</v>
+      </c>
+      <c r="G426">
+        <v>68</v>
+      </c>
+      <c r="H426">
+        <v>18</v>
+      </c>
+      <c r="I426">
+        <v>0</v>
+      </c>
+      <c r="J426">
+        <v>0</v>
+      </c>
+      <c r="K426">
+        <v>0</v>
+      </c>
+      <c r="L426">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>25</v>
+      </c>
+      <c r="B427" s="1">
+        <v>45765</v>
+      </c>
+      <c r="C427" t="s">
+        <v>21</v>
+      </c>
+      <c r="D427">
+        <v>116</v>
+      </c>
+      <c r="E427">
+        <v>31.2</v>
+      </c>
+      <c r="F427">
+        <v>1837</v>
+      </c>
+      <c r="G427">
+        <v>19</v>
+      </c>
+      <c r="H427">
+        <v>96</v>
+      </c>
+      <c r="I427">
+        <v>1</v>
+      </c>
+      <c r="J427">
+        <v>0</v>
+      </c>
+      <c r="K427">
+        <v>0</v>
+      </c>
+      <c r="L427">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>13</v>
+      </c>
+      <c r="B428" s="1">
+        <v>45765</v>
+      </c>
+      <c r="C428" t="s">
+        <v>15</v>
+      </c>
+      <c r="D428">
+        <v>11</v>
+      </c>
+      <c r="E428">
+        <v>1.05</v>
+      </c>
+      <c r="F428">
+        <v>72</v>
+      </c>
+      <c r="G428">
+        <v>1</v>
+      </c>
+      <c r="H428">
+        <v>10</v>
+      </c>
+      <c r="I428">
+        <v>0</v>
+      </c>
+      <c r="J428">
+        <v>0</v>
+      </c>
+      <c r="K428">
+        <v>0</v>
+      </c>
+      <c r="L428">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>17</v>
+      </c>
+      <c r="B429" s="1">
+        <v>45765</v>
+      </c>
+      <c r="C429" t="s">
+        <v>15</v>
+      </c>
+      <c r="D429">
+        <v>169</v>
+      </c>
+      <c r="E429">
+        <v>13.43</v>
+      </c>
+      <c r="F429">
+        <v>2053</v>
+      </c>
+      <c r="G429">
+        <v>3</v>
+      </c>
+      <c r="H429">
+        <v>65</v>
+      </c>
+      <c r="I429">
+        <v>82</v>
+      </c>
+      <c r="J429">
+        <v>7</v>
+      </c>
+      <c r="K429">
+        <v>0</v>
+      </c>
+      <c r="L429">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>10</v>
+      </c>
+      <c r="B430" s="1">
+        <v>45765</v>
+      </c>
+      <c r="C430" t="s">
+        <v>15</v>
+      </c>
+      <c r="D430">
+        <v>41</v>
+      </c>
+      <c r="E430">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="F430">
+        <v>184</v>
+      </c>
+      <c r="G430">
+        <v>1</v>
+      </c>
+      <c r="H430">
+        <v>38</v>
+      </c>
+      <c r="I430">
+        <v>1</v>
+      </c>
+      <c r="J430">
+        <v>0</v>
+      </c>
+      <c r="K430">
+        <v>0</v>
+      </c>
+      <c r="L430">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>13</v>
+      </c>
+      <c r="B431" s="1">
+        <v>45765</v>
+      </c>
+      <c r="C431" t="s">
+        <v>14</v>
+      </c>
+      <c r="D431">
+        <v>63</v>
+      </c>
+      <c r="E431">
+        <v>0</v>
+      </c>
+      <c r="F431">
+        <v>0</v>
+      </c>
+      <c r="G431">
+        <v>3</v>
+      </c>
+      <c r="H431">
+        <v>61</v>
+      </c>
+      <c r="I431">
+        <v>0</v>
+      </c>
+      <c r="J431">
+        <v>0</v>
+      </c>
+      <c r="K431">
+        <v>0</v>
+      </c>
+      <c r="L431">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>13</v>
+      </c>
+      <c r="B432" s="1">
+        <v>45765</v>
+      </c>
+      <c r="C432" t="s">
+        <v>15</v>
+      </c>
+      <c r="D432">
+        <v>11</v>
+      </c>
+      <c r="E432">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F432">
+        <v>36</v>
+      </c>
+      <c r="G432">
+        <v>1</v>
+      </c>
+      <c r="H432">
+        <v>10</v>
+      </c>
+      <c r="I432">
+        <v>0</v>
+      </c>
+      <c r="J432">
+        <v>0</v>
+      </c>
+      <c r="K432">
+        <v>0</v>
+      </c>
+      <c r="L432">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L346" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5233" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C9E8473-E0D7-4F56-ADE1-553B93EAA731}"/>
+  <xr:revisionPtr revIDLastSave="5245" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29250D83-56A0-4254-92BC-14423374B364}"/>
   <bookViews>
     <workbookView xWindow="-19815" yWindow="3435" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="30">
   <si>
     <t>Participant</t>
   </si>
@@ -506,11 +506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:L432"/>
+  <dimension ref="A1:L433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A414" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A433" sqref="A433"/>
+      <selection pane="bottomLeft" activeCell="A434" sqref="A434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16944,6 +16944,44 @@
         <v>6</v>
       </c>
     </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>10</v>
+      </c>
+      <c r="B433" s="1">
+        <v>45765</v>
+      </c>
+      <c r="C433" t="s">
+        <v>20</v>
+      </c>
+      <c r="D433">
+        <v>33</v>
+      </c>
+      <c r="E433">
+        <v>0</v>
+      </c>
+      <c r="F433">
+        <v>0</v>
+      </c>
+      <c r="G433">
+        <v>30</v>
+      </c>
+      <c r="H433">
+        <v>3</v>
+      </c>
+      <c r="I433">
+        <v>0</v>
+      </c>
+      <c r="J433">
+        <v>0</v>
+      </c>
+      <c r="K433">
+        <v>0</v>
+      </c>
+      <c r="L433">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L346" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5245" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29250D83-56A0-4254-92BC-14423374B364}"/>
+  <xr:revisionPtr revIDLastSave="5305" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F011DC3C-E583-405F-B518-EBDF19D8183D}"/>
   <bookViews>
     <workbookView xWindow="-19815" yWindow="3435" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="30">
   <si>
     <t>Participant</t>
   </si>
@@ -506,11 +506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:L433"/>
+  <dimension ref="A1:L438"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A414" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A434" sqref="A434"/>
+      <pane ySplit="1" topLeftCell="A420" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A439" sqref="A439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16982,6 +16982,196 @@
         <v>6</v>
       </c>
     </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>19</v>
+      </c>
+      <c r="B434" s="1">
+        <v>45765</v>
+      </c>
+      <c r="C434" t="s">
+        <v>20</v>
+      </c>
+      <c r="D434">
+        <v>90</v>
+      </c>
+      <c r="E434">
+        <v>0</v>
+      </c>
+      <c r="F434">
+        <v>0</v>
+      </c>
+      <c r="G434">
+        <v>68</v>
+      </c>
+      <c r="H434">
+        <v>22</v>
+      </c>
+      <c r="I434">
+        <v>0</v>
+      </c>
+      <c r="J434">
+        <v>0</v>
+      </c>
+      <c r="K434">
+        <v>0</v>
+      </c>
+      <c r="L434">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>17</v>
+      </c>
+      <c r="B435" s="1">
+        <v>45765</v>
+      </c>
+      <c r="C435" t="s">
+        <v>15</v>
+      </c>
+      <c r="D435">
+        <v>47</v>
+      </c>
+      <c r="E435">
+        <v>4.03</v>
+      </c>
+      <c r="F435">
+        <v>407</v>
+      </c>
+      <c r="G435">
+        <v>0</v>
+      </c>
+      <c r="H435">
+        <v>18</v>
+      </c>
+      <c r="I435">
+        <v>29</v>
+      </c>
+      <c r="J435">
+        <v>1</v>
+      </c>
+      <c r="K435">
+        <v>0</v>
+      </c>
+      <c r="L435">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>18</v>
+      </c>
+      <c r="B436" s="1">
+        <v>45766</v>
+      </c>
+      <c r="C436" t="s">
+        <v>21</v>
+      </c>
+      <c r="D436">
+        <v>96</v>
+      </c>
+      <c r="E436">
+        <v>20.05</v>
+      </c>
+      <c r="F436">
+        <v>0</v>
+      </c>
+      <c r="G436">
+        <v>21</v>
+      </c>
+      <c r="H436">
+        <v>75</v>
+      </c>
+      <c r="I436">
+        <v>0</v>
+      </c>
+      <c r="J436">
+        <v>0</v>
+      </c>
+      <c r="K436">
+        <v>0</v>
+      </c>
+      <c r="L436">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>10</v>
+      </c>
+      <c r="B437" s="1">
+        <v>45766</v>
+      </c>
+      <c r="C437" t="s">
+        <v>15</v>
+      </c>
+      <c r="D437">
+        <v>145</v>
+      </c>
+      <c r="E437">
+        <v>13.47</v>
+      </c>
+      <c r="F437">
+        <v>554</v>
+      </c>
+      <c r="G437">
+        <v>17</v>
+      </c>
+      <c r="H437">
+        <v>120</v>
+      </c>
+      <c r="I437">
+        <v>4</v>
+      </c>
+      <c r="J437">
+        <v>0</v>
+      </c>
+      <c r="K437">
+        <v>0</v>
+      </c>
+      <c r="L437">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>13</v>
+      </c>
+      <c r="B438" s="1">
+        <v>45766</v>
+      </c>
+      <c r="C438" t="s">
+        <v>15</v>
+      </c>
+      <c r="D438">
+        <v>150</v>
+      </c>
+      <c r="E438">
+        <v>12.49</v>
+      </c>
+      <c r="F438">
+        <v>804</v>
+      </c>
+      <c r="G438">
+        <v>15</v>
+      </c>
+      <c r="H438">
+        <v>132</v>
+      </c>
+      <c r="I438">
+        <v>0</v>
+      </c>
+      <c r="J438">
+        <v>0</v>
+      </c>
+      <c r="K438">
+        <v>0</v>
+      </c>
+      <c r="L438">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L346" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5305" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F011DC3C-E583-405F-B518-EBDF19D8183D}"/>
+  <xr:revisionPtr revIDLastSave="5414" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FCC0F78-056B-4B62-936E-EBF11F3F65AF}"/>
   <bookViews>
     <workbookView xWindow="-19815" yWindow="3435" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="30">
   <si>
     <t>Participant</t>
   </si>
@@ -506,11 +506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:L438"/>
+  <dimension ref="A1:L447"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A420" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A439" sqref="A439"/>
+      <pane ySplit="1" topLeftCell="A431" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A448" sqref="A448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17172,6 +17172,348 @@
         <v>6</v>
       </c>
     </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>24</v>
+      </c>
+      <c r="B439" s="1">
+        <v>45766</v>
+      </c>
+      <c r="C439" t="s">
+        <v>15</v>
+      </c>
+      <c r="D439">
+        <v>206</v>
+      </c>
+      <c r="E439">
+        <v>16.62</v>
+      </c>
+      <c r="F439">
+        <v>899</v>
+      </c>
+      <c r="G439">
+        <v>10</v>
+      </c>
+      <c r="H439">
+        <v>180</v>
+      </c>
+      <c r="I439">
+        <v>14</v>
+      </c>
+      <c r="J439">
+        <v>0</v>
+      </c>
+      <c r="K439">
+        <v>0</v>
+      </c>
+      <c r="L439">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>25</v>
+      </c>
+      <c r="B440" s="1">
+        <v>45766</v>
+      </c>
+      <c r="C440" t="s">
+        <v>15</v>
+      </c>
+      <c r="D440">
+        <v>199</v>
+      </c>
+      <c r="E440">
+        <v>22</v>
+      </c>
+      <c r="F440">
+        <v>748</v>
+      </c>
+      <c r="G440">
+        <v>2</v>
+      </c>
+      <c r="H440">
+        <v>97</v>
+      </c>
+      <c r="I440">
+        <v>96</v>
+      </c>
+      <c r="J440">
+        <v>2</v>
+      </c>
+      <c r="K440">
+        <v>0</v>
+      </c>
+      <c r="L440">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>23</v>
+      </c>
+      <c r="B441" s="1">
+        <v>45766</v>
+      </c>
+      <c r="C441" t="s">
+        <v>15</v>
+      </c>
+      <c r="D441">
+        <v>107</v>
+      </c>
+      <c r="E441">
+        <v>11.12</v>
+      </c>
+      <c r="F441">
+        <v>430</v>
+      </c>
+      <c r="G441">
+        <v>13</v>
+      </c>
+      <c r="H441">
+        <v>79</v>
+      </c>
+      <c r="I441">
+        <v>11</v>
+      </c>
+      <c r="J441">
+        <v>0</v>
+      </c>
+      <c r="K441">
+        <v>0</v>
+      </c>
+      <c r="L441">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>19</v>
+      </c>
+      <c r="B442" s="1">
+        <v>45766</v>
+      </c>
+      <c r="C442" t="s">
+        <v>15</v>
+      </c>
+      <c r="D442">
+        <v>36</v>
+      </c>
+      <c r="E442">
+        <v>3.78</v>
+      </c>
+      <c r="F442">
+        <v>253</v>
+      </c>
+      <c r="G442">
+        <v>1</v>
+      </c>
+      <c r="H442">
+        <v>18</v>
+      </c>
+      <c r="I442">
+        <v>17</v>
+      </c>
+      <c r="J442">
+        <v>0</v>
+      </c>
+      <c r="K442">
+        <v>0</v>
+      </c>
+      <c r="L442">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>13</v>
+      </c>
+      <c r="B443" s="1">
+        <v>45766</v>
+      </c>
+      <c r="C443" t="s">
+        <v>20</v>
+      </c>
+      <c r="D443">
+        <v>59</v>
+      </c>
+      <c r="E443">
+        <v>0</v>
+      </c>
+      <c r="F443">
+        <v>0</v>
+      </c>
+      <c r="G443">
+        <v>58</v>
+      </c>
+      <c r="H443">
+        <v>0</v>
+      </c>
+      <c r="I443">
+        <v>0</v>
+      </c>
+      <c r="J443">
+        <v>0</v>
+      </c>
+      <c r="K443">
+        <v>0</v>
+      </c>
+      <c r="L443">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>16</v>
+      </c>
+      <c r="B444" s="1">
+        <v>45766</v>
+      </c>
+      <c r="C444" t="s">
+        <v>15</v>
+      </c>
+      <c r="D444">
+        <v>57</v>
+      </c>
+      <c r="E444">
+        <v>6.13</v>
+      </c>
+      <c r="F444">
+        <v>207</v>
+      </c>
+      <c r="G444">
+        <v>1</v>
+      </c>
+      <c r="H444">
+        <v>11</v>
+      </c>
+      <c r="I444">
+        <v>28</v>
+      </c>
+      <c r="J444">
+        <v>17</v>
+      </c>
+      <c r="K444">
+        <v>0</v>
+      </c>
+      <c r="L444">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>13</v>
+      </c>
+      <c r="B445" s="1">
+        <v>45766</v>
+      </c>
+      <c r="C445" t="s">
+        <v>20</v>
+      </c>
+      <c r="D445">
+        <v>30</v>
+      </c>
+      <c r="E445">
+        <v>0</v>
+      </c>
+      <c r="F445">
+        <v>0</v>
+      </c>
+      <c r="G445">
+        <v>21</v>
+      </c>
+      <c r="H445">
+        <v>9</v>
+      </c>
+      <c r="I445">
+        <v>0</v>
+      </c>
+      <c r="J445">
+        <v>0</v>
+      </c>
+      <c r="K445">
+        <v>0</v>
+      </c>
+      <c r="L445">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>17</v>
+      </c>
+      <c r="B446" s="1">
+        <v>45766</v>
+      </c>
+      <c r="C446" t="s">
+        <v>20</v>
+      </c>
+      <c r="D446">
+        <v>38</v>
+      </c>
+      <c r="E446">
+        <v>0</v>
+      </c>
+      <c r="F446">
+        <v>0</v>
+      </c>
+      <c r="G446">
+        <v>37</v>
+      </c>
+      <c r="H446">
+        <v>1</v>
+      </c>
+      <c r="I446">
+        <v>0</v>
+      </c>
+      <c r="J446">
+        <v>0</v>
+      </c>
+      <c r="K446">
+        <v>0</v>
+      </c>
+      <c r="L446">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>18</v>
+      </c>
+      <c r="B447" s="1">
+        <v>45766</v>
+      </c>
+      <c r="C447" t="s">
+        <v>20</v>
+      </c>
+      <c r="D447">
+        <v>31</v>
+      </c>
+      <c r="E447">
+        <v>0</v>
+      </c>
+      <c r="F447">
+        <v>0</v>
+      </c>
+      <c r="G447">
+        <v>31</v>
+      </c>
+      <c r="H447">
+        <v>0</v>
+      </c>
+      <c r="I447">
+        <v>0</v>
+      </c>
+      <c r="J447">
+        <v>0</v>
+      </c>
+      <c r="K447">
+        <v>0</v>
+      </c>
+      <c r="L447">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L346" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5414" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FCC0F78-056B-4B62-936E-EBF11F3F65AF}"/>
+  <xr:revisionPtr revIDLastSave="5522" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76A62571-5CAC-42EE-AA34-276A3D4192E0}"/>
   <bookViews>
     <workbookView xWindow="-19815" yWindow="3435" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="30">
   <si>
     <t>Participant</t>
   </si>
@@ -506,11 +506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:L447"/>
+  <dimension ref="A1:L456"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A431" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A448" sqref="A448"/>
+      <pane ySplit="1" topLeftCell="A440" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A457" sqref="A457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17514,6 +17514,348 @@
         <v>6</v>
       </c>
     </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>25</v>
+      </c>
+      <c r="B448" s="1">
+        <v>45767</v>
+      </c>
+      <c r="C448" t="s">
+        <v>15</v>
+      </c>
+      <c r="D448">
+        <v>14</v>
+      </c>
+      <c r="E448">
+        <v>1.45</v>
+      </c>
+      <c r="F448">
+        <v>102</v>
+      </c>
+      <c r="G448">
+        <v>3</v>
+      </c>
+      <c r="H448">
+        <v>11</v>
+      </c>
+      <c r="I448">
+        <v>0</v>
+      </c>
+      <c r="J448">
+        <v>0</v>
+      </c>
+      <c r="K448">
+        <v>0</v>
+      </c>
+      <c r="L448">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>18</v>
+      </c>
+      <c r="B449" s="1">
+        <v>45767</v>
+      </c>
+      <c r="C449" t="s">
+        <v>15</v>
+      </c>
+      <c r="D449">
+        <v>80</v>
+      </c>
+      <c r="E449">
+        <v>9.5</v>
+      </c>
+      <c r="F449">
+        <v>344</v>
+      </c>
+      <c r="G449">
+        <v>6</v>
+      </c>
+      <c r="H449">
+        <v>64</v>
+      </c>
+      <c r="I449">
+        <v>10</v>
+      </c>
+      <c r="J449">
+        <v>0</v>
+      </c>
+      <c r="K449">
+        <v>0</v>
+      </c>
+      <c r="L449">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>25</v>
+      </c>
+      <c r="B450" s="1">
+        <v>45767</v>
+      </c>
+      <c r="C450" t="s">
+        <v>15</v>
+      </c>
+      <c r="D450">
+        <v>19</v>
+      </c>
+      <c r="E450">
+        <v>1.95</v>
+      </c>
+      <c r="F450">
+        <v>151</v>
+      </c>
+      <c r="G450">
+        <v>2</v>
+      </c>
+      <c r="H450">
+        <v>16</v>
+      </c>
+      <c r="I450">
+        <v>0</v>
+      </c>
+      <c r="J450">
+        <v>0</v>
+      </c>
+      <c r="K450">
+        <v>0</v>
+      </c>
+      <c r="L450">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>18</v>
+      </c>
+      <c r="B451" s="1">
+        <v>45767</v>
+      </c>
+      <c r="C451" t="s">
+        <v>14</v>
+      </c>
+      <c r="D451">
+        <v>50</v>
+      </c>
+      <c r="E451">
+        <v>2.33</v>
+      </c>
+      <c r="F451">
+        <v>1263</v>
+      </c>
+      <c r="G451">
+        <v>2</v>
+      </c>
+      <c r="H451">
+        <v>28</v>
+      </c>
+      <c r="I451">
+        <v>18</v>
+      </c>
+      <c r="J451">
+        <v>2</v>
+      </c>
+      <c r="K451">
+        <v>0</v>
+      </c>
+      <c r="L451">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>18</v>
+      </c>
+      <c r="B452" s="1">
+        <v>45767</v>
+      </c>
+      <c r="C452" t="s">
+        <v>15</v>
+      </c>
+      <c r="D452">
+        <v>12</v>
+      </c>
+      <c r="E452">
+        <v>1.17</v>
+      </c>
+      <c r="F452">
+        <v>7</v>
+      </c>
+      <c r="G452">
+        <v>0</v>
+      </c>
+      <c r="H452">
+        <v>11</v>
+      </c>
+      <c r="I452">
+        <v>0</v>
+      </c>
+      <c r="J452">
+        <v>0</v>
+      </c>
+      <c r="K452">
+        <v>0</v>
+      </c>
+      <c r="L452">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>19</v>
+      </c>
+      <c r="B453" s="1">
+        <v>45767</v>
+      </c>
+      <c r="C453" t="s">
+        <v>20</v>
+      </c>
+      <c r="D453">
+        <v>59</v>
+      </c>
+      <c r="E453">
+        <v>0</v>
+      </c>
+      <c r="F453">
+        <v>0</v>
+      </c>
+      <c r="G453">
+        <v>34</v>
+      </c>
+      <c r="H453">
+        <v>24</v>
+      </c>
+      <c r="I453">
+        <v>0</v>
+      </c>
+      <c r="J453">
+        <v>0</v>
+      </c>
+      <c r="K453">
+        <v>0</v>
+      </c>
+      <c r="L453">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>10</v>
+      </c>
+      <c r="B454" s="1">
+        <v>45767</v>
+      </c>
+      <c r="C454" t="s">
+        <v>15</v>
+      </c>
+      <c r="D454">
+        <v>91</v>
+      </c>
+      <c r="E454">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="F454">
+        <v>279</v>
+      </c>
+      <c r="G454">
+        <v>5</v>
+      </c>
+      <c r="H454">
+        <v>56</v>
+      </c>
+      <c r="I454">
+        <v>28</v>
+      </c>
+      <c r="J454">
+        <v>0</v>
+      </c>
+      <c r="K454">
+        <v>0</v>
+      </c>
+      <c r="L454">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>10</v>
+      </c>
+      <c r="B455" s="1">
+        <v>45767</v>
+      </c>
+      <c r="C455" t="s">
+        <v>21</v>
+      </c>
+      <c r="D455">
+        <v>26</v>
+      </c>
+      <c r="E455">
+        <v>6.21</v>
+      </c>
+      <c r="F455">
+        <v>0</v>
+      </c>
+      <c r="G455">
+        <v>26</v>
+      </c>
+      <c r="H455">
+        <v>0</v>
+      </c>
+      <c r="I455">
+        <v>0</v>
+      </c>
+      <c r="J455">
+        <v>0</v>
+      </c>
+      <c r="K455">
+        <v>0</v>
+      </c>
+      <c r="L455">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>17</v>
+      </c>
+      <c r="B456" s="1">
+        <v>45767</v>
+      </c>
+      <c r="C456" t="s">
+        <v>15</v>
+      </c>
+      <c r="D456">
+        <v>42</v>
+      </c>
+      <c r="E456">
+        <v>3.63</v>
+      </c>
+      <c r="F456">
+        <v>201</v>
+      </c>
+      <c r="G456">
+        <v>4</v>
+      </c>
+      <c r="H456">
+        <v>35</v>
+      </c>
+      <c r="I456">
+        <v>3</v>
+      </c>
+      <c r="J456">
+        <v>0</v>
+      </c>
+      <c r="K456">
+        <v>0</v>
+      </c>
+      <c r="L456">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L346" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5522" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76A62571-5CAC-42EE-AA34-276A3D4192E0}"/>
+  <xr:revisionPtr revIDLastSave="5594" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F26B34F-EE9B-44CE-838B-E042B19B40FB}"/>
   <bookViews>
-    <workbookView xWindow="-19815" yWindow="3435" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
+    <workbookView xWindow="-18945" yWindow="4305" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$346</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="30">
   <si>
     <t>Participant</t>
   </si>
@@ -506,11 +505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:L456"/>
+  <dimension ref="A1:L462"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A440" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A457" sqref="A457"/>
+      <pane ySplit="1" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A463" sqref="A463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17856,6 +17855,234 @@
         <v>6</v>
       </c>
     </row>
+    <row r="457" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>13</v>
+      </c>
+      <c r="B457" s="1">
+        <v>45767</v>
+      </c>
+      <c r="C457" t="s">
+        <v>20</v>
+      </c>
+      <c r="D457">
+        <v>69</v>
+      </c>
+      <c r="E457">
+        <v>0</v>
+      </c>
+      <c r="F457">
+        <v>0</v>
+      </c>
+      <c r="G457">
+        <v>70</v>
+      </c>
+      <c r="H457">
+        <v>0</v>
+      </c>
+      <c r="I457">
+        <v>0</v>
+      </c>
+      <c r="J457">
+        <v>0</v>
+      </c>
+      <c r="K457">
+        <v>0</v>
+      </c>
+      <c r="L457">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>17</v>
+      </c>
+      <c r="B458" s="1">
+        <v>45768</v>
+      </c>
+      <c r="C458" t="s">
+        <v>21</v>
+      </c>
+      <c r="D458">
+        <v>57</v>
+      </c>
+      <c r="E458">
+        <v>0</v>
+      </c>
+      <c r="F458">
+        <v>0</v>
+      </c>
+      <c r="G458">
+        <v>55</v>
+      </c>
+      <c r="H458">
+        <v>3</v>
+      </c>
+      <c r="I458">
+        <v>0</v>
+      </c>
+      <c r="J458">
+        <v>0</v>
+      </c>
+      <c r="K458">
+        <v>0</v>
+      </c>
+      <c r="L458">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>13</v>
+      </c>
+      <c r="B459" s="1">
+        <v>45768</v>
+      </c>
+      <c r="C459" t="s">
+        <v>15</v>
+      </c>
+      <c r="D459">
+        <v>20</v>
+      </c>
+      <c r="E459">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="F459">
+        <v>138</v>
+      </c>
+      <c r="G459">
+        <v>0</v>
+      </c>
+      <c r="H459">
+        <v>16</v>
+      </c>
+      <c r="I459">
+        <v>3</v>
+      </c>
+      <c r="J459">
+        <v>0</v>
+      </c>
+      <c r="K459">
+        <v>0</v>
+      </c>
+      <c r="L459">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>10</v>
+      </c>
+      <c r="B460" s="1">
+        <v>45768</v>
+      </c>
+      <c r="C460" t="s">
+        <v>20</v>
+      </c>
+      <c r="D460">
+        <v>65</v>
+      </c>
+      <c r="E460">
+        <v>0</v>
+      </c>
+      <c r="F460">
+        <v>0</v>
+      </c>
+      <c r="G460">
+        <v>63</v>
+      </c>
+      <c r="H460">
+        <v>2</v>
+      </c>
+      <c r="I460">
+        <v>0</v>
+      </c>
+      <c r="J460">
+        <v>0</v>
+      </c>
+      <c r="K460">
+        <v>0</v>
+      </c>
+      <c r="L460">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>13</v>
+      </c>
+      <c r="B461" s="1">
+        <v>45768</v>
+      </c>
+      <c r="C461" t="s">
+        <v>20</v>
+      </c>
+      <c r="D461">
+        <v>79</v>
+      </c>
+      <c r="E461">
+        <v>0</v>
+      </c>
+      <c r="F461">
+        <v>0</v>
+      </c>
+      <c r="G461">
+        <v>66</v>
+      </c>
+      <c r="H461">
+        <v>14</v>
+      </c>
+      <c r="I461">
+        <v>0</v>
+      </c>
+      <c r="J461">
+        <v>0</v>
+      </c>
+      <c r="K461">
+        <v>0</v>
+      </c>
+      <c r="L461">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>13</v>
+      </c>
+      <c r="B462" s="1">
+        <v>45768</v>
+      </c>
+      <c r="C462" t="s">
+        <v>15</v>
+      </c>
+      <c r="D462">
+        <v>23</v>
+      </c>
+      <c r="E462">
+        <v>2.33</v>
+      </c>
+      <c r="F462">
+        <v>115</v>
+      </c>
+      <c r="G462">
+        <v>2</v>
+      </c>
+      <c r="H462">
+        <v>20</v>
+      </c>
+      <c r="I462">
+        <v>1</v>
+      </c>
+      <c r="J462">
+        <v>0</v>
+      </c>
+      <c r="K462">
+        <v>0</v>
+      </c>
+      <c r="L462">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L346" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5594" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F26B34F-EE9B-44CE-838B-E042B19B40FB}"/>
+  <xr:revisionPtr revIDLastSave="5618" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34FE0E45-B881-4C75-8D28-FD96FA8043DA}"/>
   <bookViews>
     <workbookView xWindow="-18945" yWindow="4305" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="30">
   <si>
     <t>Participant</t>
   </si>
@@ -505,11 +505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:L462"/>
+  <dimension ref="A1:L464"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A463" sqref="A463"/>
+      <selection pane="bottomLeft" activeCell="A465" sqref="A465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18083,6 +18083,82 @@
         <v>7</v>
       </c>
     </row>
+    <row r="463" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>10</v>
+      </c>
+      <c r="B463" s="1">
+        <v>45768</v>
+      </c>
+      <c r="C463" t="s">
+        <v>20</v>
+      </c>
+      <c r="D463">
+        <v>11</v>
+      </c>
+      <c r="E463">
+        <v>0</v>
+      </c>
+      <c r="F463">
+        <v>0</v>
+      </c>
+      <c r="G463">
+        <v>11</v>
+      </c>
+      <c r="H463">
+        <v>0</v>
+      </c>
+      <c r="I463">
+        <v>0</v>
+      </c>
+      <c r="J463">
+        <v>0</v>
+      </c>
+      <c r="K463">
+        <v>0</v>
+      </c>
+      <c r="L463">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>10</v>
+      </c>
+      <c r="B464" s="1">
+        <v>45768</v>
+      </c>
+      <c r="C464" t="s">
+        <v>15</v>
+      </c>
+      <c r="D464">
+        <v>24</v>
+      </c>
+      <c r="E464">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F464">
+        <v>108</v>
+      </c>
+      <c r="G464">
+        <v>2</v>
+      </c>
+      <c r="H464">
+        <v>21</v>
+      </c>
+      <c r="I464">
+        <v>1</v>
+      </c>
+      <c r="J464">
+        <v>0</v>
+      </c>
+      <c r="K464">
+        <v>0</v>
+      </c>
+      <c r="L464">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L346" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5618" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34FE0E45-B881-4C75-8D28-FD96FA8043DA}"/>
+  <xr:revisionPtr revIDLastSave="5740" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E788AC4F-70E3-4D8A-BE4A-251F4C00B4F8}"/>
   <bookViews>
-    <workbookView xWindow="-18945" yWindow="4305" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
+    <workbookView xWindow="-18510" yWindow="4740" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$346</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="30">
   <si>
     <t>Participant</t>
   </si>
@@ -505,11 +506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:L464"/>
+  <dimension ref="A1:L474"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A465" sqref="A465"/>
+      <pane ySplit="1" topLeftCell="A456" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A475" sqref="A475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18159,6 +18160,386 @@
         <v>7</v>
       </c>
     </row>
+    <row r="465" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>13</v>
+      </c>
+      <c r="B465" s="1">
+        <v>45768</v>
+      </c>
+      <c r="C465" t="s">
+        <v>27</v>
+      </c>
+      <c r="D465">
+        <v>34</v>
+      </c>
+      <c r="E465">
+        <v>1.63</v>
+      </c>
+      <c r="F465">
+        <v>279</v>
+      </c>
+      <c r="G465">
+        <v>32</v>
+      </c>
+      <c r="H465">
+        <v>2</v>
+      </c>
+      <c r="I465">
+        <v>0</v>
+      </c>
+      <c r="J465">
+        <v>0</v>
+      </c>
+      <c r="K465">
+        <v>0</v>
+      </c>
+      <c r="L465">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>16</v>
+      </c>
+      <c r="B466" s="1">
+        <v>45768</v>
+      </c>
+      <c r="C466" t="s">
+        <v>26</v>
+      </c>
+      <c r="D466">
+        <v>42</v>
+      </c>
+      <c r="E466">
+        <v>0</v>
+      </c>
+      <c r="F466">
+        <v>0</v>
+      </c>
+      <c r="G466">
+        <v>13</v>
+      </c>
+      <c r="H466">
+        <v>29</v>
+      </c>
+      <c r="I466">
+        <v>0</v>
+      </c>
+      <c r="J466">
+        <v>0</v>
+      </c>
+      <c r="K466">
+        <v>0</v>
+      </c>
+      <c r="L466">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>19</v>
+      </c>
+      <c r="B467" s="1">
+        <v>45768</v>
+      </c>
+      <c r="C467" t="s">
+        <v>20</v>
+      </c>
+      <c r="D467">
+        <v>83</v>
+      </c>
+      <c r="E467">
+        <v>0</v>
+      </c>
+      <c r="F467">
+        <v>0</v>
+      </c>
+      <c r="G467">
+        <v>72</v>
+      </c>
+      <c r="H467">
+        <v>12</v>
+      </c>
+      <c r="I467">
+        <v>0</v>
+      </c>
+      <c r="J467">
+        <v>0</v>
+      </c>
+      <c r="K467">
+        <v>0</v>
+      </c>
+      <c r="L467">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>18</v>
+      </c>
+      <c r="B468" s="1">
+        <v>45769</v>
+      </c>
+      <c r="C468" t="s">
+        <v>20</v>
+      </c>
+      <c r="D468">
+        <v>48</v>
+      </c>
+      <c r="E468">
+        <v>0</v>
+      </c>
+      <c r="F468">
+        <v>0</v>
+      </c>
+      <c r="G468">
+        <v>42</v>
+      </c>
+      <c r="H468">
+        <v>7</v>
+      </c>
+      <c r="I468">
+        <v>0</v>
+      </c>
+      <c r="J468">
+        <v>0</v>
+      </c>
+      <c r="K468">
+        <v>0</v>
+      </c>
+      <c r="L468">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>24</v>
+      </c>
+      <c r="B469" s="1">
+        <v>45769</v>
+      </c>
+      <c r="C469" t="s">
+        <v>15</v>
+      </c>
+      <c r="D469">
+        <v>98</v>
+      </c>
+      <c r="E469">
+        <v>8.25</v>
+      </c>
+      <c r="F469">
+        <v>276</v>
+      </c>
+      <c r="G469">
+        <v>22</v>
+      </c>
+      <c r="H469">
+        <v>76</v>
+      </c>
+      <c r="I469">
+        <v>0</v>
+      </c>
+      <c r="J469">
+        <v>0</v>
+      </c>
+      <c r="K469">
+        <v>0</v>
+      </c>
+      <c r="L469">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>25</v>
+      </c>
+      <c r="B470" s="1">
+        <v>45769</v>
+      </c>
+      <c r="C470" t="s">
+        <v>15</v>
+      </c>
+      <c r="D470">
+        <v>16</v>
+      </c>
+      <c r="E470">
+        <v>1.7</v>
+      </c>
+      <c r="F470">
+        <v>167</v>
+      </c>
+      <c r="G470">
+        <v>1</v>
+      </c>
+      <c r="H470">
+        <v>14</v>
+      </c>
+      <c r="I470">
+        <v>0</v>
+      </c>
+      <c r="J470">
+        <v>0</v>
+      </c>
+      <c r="K470">
+        <v>0</v>
+      </c>
+      <c r="L470">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>13</v>
+      </c>
+      <c r="B471" s="1">
+        <v>45769</v>
+      </c>
+      <c r="C471" t="s">
+        <v>21</v>
+      </c>
+      <c r="D471">
+        <v>45</v>
+      </c>
+      <c r="E471">
+        <v>16.41</v>
+      </c>
+      <c r="F471">
+        <v>0</v>
+      </c>
+      <c r="G471">
+        <v>9</v>
+      </c>
+      <c r="H471">
+        <v>36</v>
+      </c>
+      <c r="I471">
+        <v>0</v>
+      </c>
+      <c r="J471">
+        <v>0</v>
+      </c>
+      <c r="K471">
+        <v>0</v>
+      </c>
+      <c r="L471">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>13</v>
+      </c>
+      <c r="B472" s="1">
+        <v>45769</v>
+      </c>
+      <c r="C472" t="s">
+        <v>21</v>
+      </c>
+      <c r="D472">
+        <v>30</v>
+      </c>
+      <c r="E472">
+        <v>10.67</v>
+      </c>
+      <c r="F472">
+        <v>0</v>
+      </c>
+      <c r="G472">
+        <v>2</v>
+      </c>
+      <c r="H472">
+        <v>28</v>
+      </c>
+      <c r="I472">
+        <v>0</v>
+      </c>
+      <c r="J472">
+        <v>0</v>
+      </c>
+      <c r="K472">
+        <v>0</v>
+      </c>
+      <c r="L472">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>13</v>
+      </c>
+      <c r="B473" s="1">
+        <v>45769</v>
+      </c>
+      <c r="C473" t="s">
+        <v>21</v>
+      </c>
+      <c r="D473">
+        <v>15</v>
+      </c>
+      <c r="E473">
+        <v>4.83</v>
+      </c>
+      <c r="F473">
+        <v>0</v>
+      </c>
+      <c r="G473">
+        <v>6</v>
+      </c>
+      <c r="H473">
+        <v>9</v>
+      </c>
+      <c r="I473">
+        <v>0</v>
+      </c>
+      <c r="J473">
+        <v>0</v>
+      </c>
+      <c r="K473">
+        <v>0</v>
+      </c>
+      <c r="L473">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>25</v>
+      </c>
+      <c r="B474" s="1">
+        <v>45769</v>
+      </c>
+      <c r="C474" t="s">
+        <v>15</v>
+      </c>
+      <c r="D474">
+        <v>60</v>
+      </c>
+      <c r="E474">
+        <v>5.81</v>
+      </c>
+      <c r="F474">
+        <v>161</v>
+      </c>
+      <c r="G474">
+        <v>12</v>
+      </c>
+      <c r="H474">
+        <v>23</v>
+      </c>
+      <c r="I474">
+        <v>12</v>
+      </c>
+      <c r="J474">
+        <v>7</v>
+      </c>
+      <c r="K474">
+        <v>0</v>
+      </c>
+      <c r="L474">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L346" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5740" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E788AC4F-70E3-4D8A-BE4A-251F4C00B4F8}"/>
+  <xr:revisionPtr revIDLastSave="5848" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCCA5696-02AF-44B4-B587-049A517BA315}"/>
   <bookViews>
     <workbookView xWindow="-18510" yWindow="4740" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="30">
   <si>
     <t>Participant</t>
   </si>
@@ -506,11 +506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:L474"/>
+  <dimension ref="A1:L483"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A456" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A475" sqref="A475"/>
+      <pane ySplit="1" topLeftCell="A466" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A484" sqref="A484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18540,6 +18540,348 @@
         <v>7</v>
       </c>
     </row>
+    <row r="475" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>10</v>
+      </c>
+      <c r="B475" s="1">
+        <v>45769</v>
+      </c>
+      <c r="C475" t="s">
+        <v>20</v>
+      </c>
+      <c r="D475">
+        <v>43</v>
+      </c>
+      <c r="E475">
+        <v>0</v>
+      </c>
+      <c r="F475">
+        <v>0</v>
+      </c>
+      <c r="G475">
+        <v>42</v>
+      </c>
+      <c r="H475">
+        <v>2</v>
+      </c>
+      <c r="I475">
+        <v>0</v>
+      </c>
+      <c r="J475">
+        <v>0</v>
+      </c>
+      <c r="K475">
+        <v>0</v>
+      </c>
+      <c r="L475">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>24</v>
+      </c>
+      <c r="B476" s="1">
+        <v>45769</v>
+      </c>
+      <c r="C476" t="s">
+        <v>20</v>
+      </c>
+      <c r="D476">
+        <v>90</v>
+      </c>
+      <c r="E476">
+        <v>0</v>
+      </c>
+      <c r="F476">
+        <v>0</v>
+      </c>
+      <c r="G476">
+        <v>55</v>
+      </c>
+      <c r="H476">
+        <v>33</v>
+      </c>
+      <c r="I476">
+        <v>2</v>
+      </c>
+      <c r="J476">
+        <v>0</v>
+      </c>
+      <c r="K476">
+        <v>0</v>
+      </c>
+      <c r="L476">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>19</v>
+      </c>
+      <c r="B477" s="1">
+        <v>45769</v>
+      </c>
+      <c r="C477" t="s">
+        <v>15</v>
+      </c>
+      <c r="D477">
+        <v>175</v>
+      </c>
+      <c r="E477">
+        <v>15.15</v>
+      </c>
+      <c r="F477">
+        <v>1299</v>
+      </c>
+      <c r="G477">
+        <v>1</v>
+      </c>
+      <c r="H477">
+        <v>89</v>
+      </c>
+      <c r="I477">
+        <v>83</v>
+      </c>
+      <c r="J477">
+        <v>0</v>
+      </c>
+      <c r="K477">
+        <v>0</v>
+      </c>
+      <c r="L477">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="478" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>16</v>
+      </c>
+      <c r="B478" s="1">
+        <v>45769</v>
+      </c>
+      <c r="C478" t="s">
+        <v>20</v>
+      </c>
+      <c r="D478">
+        <v>90</v>
+      </c>
+      <c r="E478">
+        <v>0</v>
+      </c>
+      <c r="F478">
+        <v>0</v>
+      </c>
+      <c r="G478">
+        <v>71</v>
+      </c>
+      <c r="H478">
+        <v>18</v>
+      </c>
+      <c r="I478">
+        <v>1</v>
+      </c>
+      <c r="J478">
+        <v>0</v>
+      </c>
+      <c r="K478">
+        <v>0</v>
+      </c>
+      <c r="L478">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>23</v>
+      </c>
+      <c r="B479" s="1">
+        <v>45769</v>
+      </c>
+      <c r="C479" t="s">
+        <v>15</v>
+      </c>
+      <c r="D479">
+        <v>34</v>
+      </c>
+      <c r="E479">
+        <v>3.55</v>
+      </c>
+      <c r="F479">
+        <v>97</v>
+      </c>
+      <c r="G479">
+        <v>7</v>
+      </c>
+      <c r="H479">
+        <v>12</v>
+      </c>
+      <c r="I479">
+        <v>11</v>
+      </c>
+      <c r="J479">
+        <v>0</v>
+      </c>
+      <c r="K479">
+        <v>0</v>
+      </c>
+      <c r="L479">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>16</v>
+      </c>
+      <c r="B480" s="1">
+        <v>45769</v>
+      </c>
+      <c r="C480" t="s">
+        <v>26</v>
+      </c>
+      <c r="D480">
+        <v>16</v>
+      </c>
+      <c r="E480">
+        <v>0</v>
+      </c>
+      <c r="F480">
+        <v>0</v>
+      </c>
+      <c r="G480">
+        <v>3</v>
+      </c>
+      <c r="H480">
+        <v>13</v>
+      </c>
+      <c r="I480">
+        <v>0</v>
+      </c>
+      <c r="J480">
+        <v>0</v>
+      </c>
+      <c r="K480">
+        <v>0</v>
+      </c>
+      <c r="L480">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>18</v>
+      </c>
+      <c r="B481" s="1">
+        <v>45769</v>
+      </c>
+      <c r="C481" t="s">
+        <v>21</v>
+      </c>
+      <c r="D481">
+        <v>31</v>
+      </c>
+      <c r="E481">
+        <v>6.01</v>
+      </c>
+      <c r="F481">
+        <v>0</v>
+      </c>
+      <c r="G481">
+        <v>2</v>
+      </c>
+      <c r="H481">
+        <v>29</v>
+      </c>
+      <c r="I481">
+        <v>0</v>
+      </c>
+      <c r="J481">
+        <v>0</v>
+      </c>
+      <c r="K481">
+        <v>0</v>
+      </c>
+      <c r="L481">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>16</v>
+      </c>
+      <c r="B482" s="1">
+        <v>45769</v>
+      </c>
+      <c r="C482" t="s">
+        <v>26</v>
+      </c>
+      <c r="D482">
+        <v>21</v>
+      </c>
+      <c r="E482">
+        <v>0</v>
+      </c>
+      <c r="F482">
+        <v>0</v>
+      </c>
+      <c r="G482">
+        <v>3</v>
+      </c>
+      <c r="H482">
+        <v>19</v>
+      </c>
+      <c r="I482">
+        <v>0</v>
+      </c>
+      <c r="J482">
+        <v>0</v>
+      </c>
+      <c r="K482">
+        <v>0</v>
+      </c>
+      <c r="L482">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>10</v>
+      </c>
+      <c r="B483" s="1">
+        <v>45770</v>
+      </c>
+      <c r="C483" t="s">
+        <v>15</v>
+      </c>
+      <c r="D483">
+        <v>95</v>
+      </c>
+      <c r="E483">
+        <v>9.57</v>
+      </c>
+      <c r="F483">
+        <v>331</v>
+      </c>
+      <c r="G483">
+        <v>5</v>
+      </c>
+      <c r="H483">
+        <v>59</v>
+      </c>
+      <c r="I483">
+        <v>26</v>
+      </c>
+      <c r="J483">
+        <v>3</v>
+      </c>
+      <c r="K483">
+        <v>0</v>
+      </c>
+      <c r="L483">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L346" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5848" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCCA5696-02AF-44B4-B587-049A517BA315}"/>
+  <xr:revisionPtr revIDLastSave="5921" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F7E4557-2D56-42AA-B2C7-75302C68B64E}"/>
   <bookViews>
     <workbookView xWindow="-18510" yWindow="4740" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="30">
   <si>
     <t>Participant</t>
   </si>
@@ -506,11 +506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:L483"/>
+  <dimension ref="A1:L489"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A466" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A484" sqref="A484"/>
+      <pane ySplit="1" topLeftCell="A480" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A490" sqref="A490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18882,6 +18882,234 @@
         <v>7</v>
       </c>
     </row>
+    <row r="484" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>25</v>
+      </c>
+      <c r="B484" s="1">
+        <v>45770</v>
+      </c>
+      <c r="C484" t="s">
+        <v>21</v>
+      </c>
+      <c r="D484">
+        <v>75</v>
+      </c>
+      <c r="E484">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="F484">
+        <v>1194</v>
+      </c>
+      <c r="G484">
+        <v>25</v>
+      </c>
+      <c r="H484">
+        <v>50</v>
+      </c>
+      <c r="I484">
+        <v>0</v>
+      </c>
+      <c r="J484">
+        <v>0</v>
+      </c>
+      <c r="K484">
+        <v>0</v>
+      </c>
+      <c r="L484">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>16</v>
+      </c>
+      <c r="B485" s="1">
+        <v>45770</v>
+      </c>
+      <c r="C485" t="s">
+        <v>15</v>
+      </c>
+      <c r="D485">
+        <v>123</v>
+      </c>
+      <c r="E485">
+        <v>12.22</v>
+      </c>
+      <c r="F485">
+        <v>292</v>
+      </c>
+      <c r="G485">
+        <v>3</v>
+      </c>
+      <c r="H485">
+        <v>48</v>
+      </c>
+      <c r="I485">
+        <v>71</v>
+      </c>
+      <c r="J485">
+        <v>1</v>
+      </c>
+      <c r="K485">
+        <v>0</v>
+      </c>
+      <c r="L485">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>10</v>
+      </c>
+      <c r="B486" s="1">
+        <v>45770</v>
+      </c>
+      <c r="C486" t="s">
+        <v>20</v>
+      </c>
+      <c r="D486">
+        <v>25</v>
+      </c>
+      <c r="E486">
+        <v>0</v>
+      </c>
+      <c r="F486">
+        <v>0</v>
+      </c>
+      <c r="G486">
+        <v>25</v>
+      </c>
+      <c r="H486">
+        <v>0</v>
+      </c>
+      <c r="I486">
+        <v>0</v>
+      </c>
+      <c r="J486">
+        <v>0</v>
+      </c>
+      <c r="K486">
+        <v>0</v>
+      </c>
+      <c r="L486">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>13</v>
+      </c>
+      <c r="B487" s="1">
+        <v>45770</v>
+      </c>
+      <c r="C487" t="s">
+        <v>15</v>
+      </c>
+      <c r="D487">
+        <v>97</v>
+      </c>
+      <c r="E487">
+        <v>9.09</v>
+      </c>
+      <c r="F487">
+        <v>559</v>
+      </c>
+      <c r="G487">
+        <v>3</v>
+      </c>
+      <c r="H487">
+        <v>88</v>
+      </c>
+      <c r="I487">
+        <v>6</v>
+      </c>
+      <c r="J487">
+        <v>0</v>
+      </c>
+      <c r="K487">
+        <v>0</v>
+      </c>
+      <c r="L487">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>18</v>
+      </c>
+      <c r="B488" s="1">
+        <v>45770</v>
+      </c>
+      <c r="C488" t="s">
+        <v>15</v>
+      </c>
+      <c r="D488">
+        <v>131</v>
+      </c>
+      <c r="E488">
+        <v>15.33</v>
+      </c>
+      <c r="F488">
+        <v>449</v>
+      </c>
+      <c r="G488">
+        <v>2</v>
+      </c>
+      <c r="H488">
+        <v>82</v>
+      </c>
+      <c r="I488">
+        <v>46</v>
+      </c>
+      <c r="J488">
+        <v>0</v>
+      </c>
+      <c r="K488">
+        <v>0</v>
+      </c>
+      <c r="L488">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>19</v>
+      </c>
+      <c r="B489" s="1">
+        <v>45770</v>
+      </c>
+      <c r="C489" t="s">
+        <v>20</v>
+      </c>
+      <c r="D489">
+        <v>31</v>
+      </c>
+      <c r="E489">
+        <v>0</v>
+      </c>
+      <c r="F489">
+        <v>0</v>
+      </c>
+      <c r="G489">
+        <v>26</v>
+      </c>
+      <c r="H489">
+        <v>5</v>
+      </c>
+      <c r="I489">
+        <v>0</v>
+      </c>
+      <c r="J489">
+        <v>0</v>
+      </c>
+      <c r="K489">
+        <v>0</v>
+      </c>
+      <c r="L489">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L346" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5921" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F7E4557-2D56-42AA-B2C7-75302C68B64E}"/>
+  <xr:revisionPtr revIDLastSave="5957" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C1C2FE8-C5BD-4A10-85E3-AE1CE2821930}"/>
   <bookViews>
     <workbookView xWindow="-18510" yWindow="4740" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="30">
   <si>
     <t>Participant</t>
   </si>
@@ -506,11 +506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:L489"/>
+  <dimension ref="A1:L492"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A480" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A490" sqref="A490"/>
+      <selection pane="bottomLeft" activeCell="A493" sqref="A493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19110,6 +19110,120 @@
         <v>7</v>
       </c>
     </row>
+    <row r="490" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>25</v>
+      </c>
+      <c r="B490" s="1">
+        <v>45771</v>
+      </c>
+      <c r="C490" t="s">
+        <v>15</v>
+      </c>
+      <c r="D490">
+        <v>90</v>
+      </c>
+      <c r="E490">
+        <v>10.27</v>
+      </c>
+      <c r="F490">
+        <v>837</v>
+      </c>
+      <c r="G490">
+        <v>1</v>
+      </c>
+      <c r="H490">
+        <v>39</v>
+      </c>
+      <c r="I490">
+        <v>49</v>
+      </c>
+      <c r="J490">
+        <v>0</v>
+      </c>
+      <c r="K490">
+        <v>0</v>
+      </c>
+      <c r="L490">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>13</v>
+      </c>
+      <c r="B491" s="1">
+        <v>45771</v>
+      </c>
+      <c r="C491" t="s">
+        <v>21</v>
+      </c>
+      <c r="D491">
+        <v>45</v>
+      </c>
+      <c r="E491">
+        <v>17.77</v>
+      </c>
+      <c r="F491">
+        <v>0</v>
+      </c>
+      <c r="G491">
+        <v>0</v>
+      </c>
+      <c r="H491">
+        <v>39</v>
+      </c>
+      <c r="I491">
+        <v>6</v>
+      </c>
+      <c r="J491">
+        <v>0</v>
+      </c>
+      <c r="K491">
+        <v>0</v>
+      </c>
+      <c r="L491">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>13</v>
+      </c>
+      <c r="B492" s="1">
+        <v>45771</v>
+      </c>
+      <c r="C492" t="s">
+        <v>21</v>
+      </c>
+      <c r="D492">
+        <v>30</v>
+      </c>
+      <c r="E492">
+        <v>7.72</v>
+      </c>
+      <c r="F492">
+        <v>0</v>
+      </c>
+      <c r="G492">
+        <v>28</v>
+      </c>
+      <c r="H492">
+        <v>2</v>
+      </c>
+      <c r="I492">
+        <v>0</v>
+      </c>
+      <c r="J492">
+        <v>0</v>
+      </c>
+      <c r="K492">
+        <v>0</v>
+      </c>
+      <c r="L492">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L346" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5957" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C1C2FE8-C5BD-4A10-85E3-AE1CE2821930}"/>
+  <xr:revisionPtr revIDLastSave="6031" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F181F203-5FD2-4FA6-87BC-BED5A9919255}"/>
   <bookViews>
     <workbookView xWindow="-18510" yWindow="4740" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="30">
   <si>
     <t>Participant</t>
   </si>
@@ -506,11 +506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:L492"/>
+  <dimension ref="A1:L498"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A480" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A493" sqref="A493"/>
+      <selection pane="bottomLeft" activeCell="A499" sqref="A499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19224,6 +19224,234 @@
         <v>7</v>
       </c>
     </row>
+    <row r="493" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>16</v>
+      </c>
+      <c r="B493" s="1">
+        <v>45771</v>
+      </c>
+      <c r="C493" t="s">
+        <v>15</v>
+      </c>
+      <c r="D493">
+        <v>112</v>
+      </c>
+      <c r="E493">
+        <v>10.33</v>
+      </c>
+      <c r="F493">
+        <v>325</v>
+      </c>
+      <c r="G493">
+        <v>1</v>
+      </c>
+      <c r="H493">
+        <v>26</v>
+      </c>
+      <c r="I493">
+        <v>74</v>
+      </c>
+      <c r="J493">
+        <v>9</v>
+      </c>
+      <c r="K493">
+        <v>0</v>
+      </c>
+      <c r="L493">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="494" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>24</v>
+      </c>
+      <c r="B494" s="1">
+        <v>45771</v>
+      </c>
+      <c r="C494" t="s">
+        <v>21</v>
+      </c>
+      <c r="D494">
+        <v>34</v>
+      </c>
+      <c r="E494">
+        <v>0</v>
+      </c>
+      <c r="F494">
+        <v>0</v>
+      </c>
+      <c r="G494">
+        <v>27</v>
+      </c>
+      <c r="H494">
+        <v>7</v>
+      </c>
+      <c r="I494">
+        <v>0</v>
+      </c>
+      <c r="J494">
+        <v>0</v>
+      </c>
+      <c r="K494">
+        <v>0</v>
+      </c>
+      <c r="L494">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>23</v>
+      </c>
+      <c r="B495" s="1">
+        <v>45771</v>
+      </c>
+      <c r="C495" t="s">
+        <v>15</v>
+      </c>
+      <c r="D495">
+        <v>193</v>
+      </c>
+      <c r="E495">
+        <v>20.25</v>
+      </c>
+      <c r="F495">
+        <v>753</v>
+      </c>
+      <c r="G495">
+        <v>7</v>
+      </c>
+      <c r="H495">
+        <v>100</v>
+      </c>
+      <c r="I495">
+        <v>78</v>
+      </c>
+      <c r="J495">
+        <v>0</v>
+      </c>
+      <c r="K495">
+        <v>0</v>
+      </c>
+      <c r="L495">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="496" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>17</v>
+      </c>
+      <c r="B496" s="1">
+        <v>45772</v>
+      </c>
+      <c r="C496" t="s">
+        <v>15</v>
+      </c>
+      <c r="D496">
+        <v>60</v>
+      </c>
+      <c r="E496">
+        <v>5.8</v>
+      </c>
+      <c r="F496">
+        <v>614</v>
+      </c>
+      <c r="G496">
+        <v>0</v>
+      </c>
+      <c r="H496">
+        <v>43</v>
+      </c>
+      <c r="I496">
+        <v>17</v>
+      </c>
+      <c r="J496">
+        <v>0</v>
+      </c>
+      <c r="K496">
+        <v>0</v>
+      </c>
+      <c r="L496">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="497" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>17</v>
+      </c>
+      <c r="B497" s="1">
+        <v>45772</v>
+      </c>
+      <c r="C497" t="s">
+        <v>20</v>
+      </c>
+      <c r="D497">
+        <v>12</v>
+      </c>
+      <c r="E497">
+        <v>0</v>
+      </c>
+      <c r="F497">
+        <v>0</v>
+      </c>
+      <c r="G497">
+        <v>12</v>
+      </c>
+      <c r="H497">
+        <v>0</v>
+      </c>
+      <c r="I497">
+        <v>0</v>
+      </c>
+      <c r="J497">
+        <v>0</v>
+      </c>
+      <c r="K497">
+        <v>0</v>
+      </c>
+      <c r="L497">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="498" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>10</v>
+      </c>
+      <c r="B498" s="1">
+        <v>45772</v>
+      </c>
+      <c r="C498" t="s">
+        <v>21</v>
+      </c>
+      <c r="D498">
+        <v>30</v>
+      </c>
+      <c r="E498">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="F498">
+        <v>0</v>
+      </c>
+      <c r="G498">
+        <v>19</v>
+      </c>
+      <c r="H498">
+        <v>11</v>
+      </c>
+      <c r="I498">
+        <v>0</v>
+      </c>
+      <c r="J498">
+        <v>0</v>
+      </c>
+      <c r="K498">
+        <v>0</v>
+      </c>
+      <c r="L498">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L346" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6031" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F181F203-5FD2-4FA6-87BC-BED5A9919255}"/>
+  <xr:revisionPtr revIDLastSave="6188" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8906DD48-85D7-4C2D-9F30-AC7EAC9974B5}"/>
   <bookViews>
     <workbookView xWindow="-18510" yWindow="4740" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="30">
   <si>
     <t>Participant</t>
   </si>
@@ -506,11 +506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:L498"/>
+  <dimension ref="A1:L511"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A480" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A499" sqref="A499"/>
+      <pane ySplit="1" topLeftCell="A496" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A512" sqref="A512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19452,6 +19452,500 @@
         <v>7</v>
       </c>
     </row>
+    <row r="499" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>25</v>
+      </c>
+      <c r="B499" s="1">
+        <v>45772</v>
+      </c>
+      <c r="C499" t="s">
+        <v>15</v>
+      </c>
+      <c r="D499">
+        <v>41</v>
+      </c>
+      <c r="E499">
+        <v>4.59</v>
+      </c>
+      <c r="F499">
+        <v>246</v>
+      </c>
+      <c r="G499">
+        <v>2</v>
+      </c>
+      <c r="H499">
+        <v>35</v>
+      </c>
+      <c r="I499">
+        <v>3</v>
+      </c>
+      <c r="J499">
+        <v>0</v>
+      </c>
+      <c r="K499">
+        <v>0</v>
+      </c>
+      <c r="L499">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="500" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>25</v>
+      </c>
+      <c r="B500" s="1">
+        <v>45772</v>
+      </c>
+      <c r="C500" t="s">
+        <v>20</v>
+      </c>
+      <c r="D500">
+        <v>31</v>
+      </c>
+      <c r="E500">
+        <v>0</v>
+      </c>
+      <c r="F500">
+        <v>0</v>
+      </c>
+      <c r="G500">
+        <v>28</v>
+      </c>
+      <c r="H500">
+        <v>3</v>
+      </c>
+      <c r="I500">
+        <v>0</v>
+      </c>
+      <c r="J500">
+        <v>0</v>
+      </c>
+      <c r="K500">
+        <v>0</v>
+      </c>
+      <c r="L500">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="501" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>10</v>
+      </c>
+      <c r="B501" s="1">
+        <v>45772</v>
+      </c>
+      <c r="C501" t="s">
+        <v>20</v>
+      </c>
+      <c r="D501">
+        <v>26</v>
+      </c>
+      <c r="E501">
+        <v>0</v>
+      </c>
+      <c r="F501">
+        <v>0</v>
+      </c>
+      <c r="G501">
+        <v>26</v>
+      </c>
+      <c r="H501">
+        <v>0</v>
+      </c>
+      <c r="I501">
+        <v>0</v>
+      </c>
+      <c r="J501">
+        <v>0</v>
+      </c>
+      <c r="K501">
+        <v>0</v>
+      </c>
+      <c r="L501">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="502" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>19</v>
+      </c>
+      <c r="B502" s="1">
+        <v>45772</v>
+      </c>
+      <c r="C502" t="s">
+        <v>15</v>
+      </c>
+      <c r="D502">
+        <v>122</v>
+      </c>
+      <c r="E502">
+        <v>11.82</v>
+      </c>
+      <c r="F502">
+        <v>728</v>
+      </c>
+      <c r="G502">
+        <v>1</v>
+      </c>
+      <c r="H502">
+        <v>85</v>
+      </c>
+      <c r="I502">
+        <v>36</v>
+      </c>
+      <c r="J502">
+        <v>0</v>
+      </c>
+      <c r="K502">
+        <v>0</v>
+      </c>
+      <c r="L502">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="503" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>10</v>
+      </c>
+      <c r="B503" s="1">
+        <v>45772</v>
+      </c>
+      <c r="C503" t="s">
+        <v>20</v>
+      </c>
+      <c r="D503">
+        <v>16</v>
+      </c>
+      <c r="E503">
+        <v>0</v>
+      </c>
+      <c r="F503">
+        <v>0</v>
+      </c>
+      <c r="G503">
+        <v>16</v>
+      </c>
+      <c r="H503">
+        <v>0</v>
+      </c>
+      <c r="I503">
+        <v>0</v>
+      </c>
+      <c r="J503">
+        <v>0</v>
+      </c>
+      <c r="K503">
+        <v>0</v>
+      </c>
+      <c r="L503">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="504" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>13</v>
+      </c>
+      <c r="B504" s="1">
+        <v>45772</v>
+      </c>
+      <c r="C504" t="s">
+        <v>21</v>
+      </c>
+      <c r="D504">
+        <v>116</v>
+      </c>
+      <c r="E504">
+        <v>34.69</v>
+      </c>
+      <c r="F504">
+        <v>1975</v>
+      </c>
+      <c r="G504">
+        <v>8</v>
+      </c>
+      <c r="H504">
+        <v>86</v>
+      </c>
+      <c r="I504">
+        <v>22</v>
+      </c>
+      <c r="J504">
+        <v>0</v>
+      </c>
+      <c r="K504">
+        <v>0</v>
+      </c>
+      <c r="L504">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="505" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>24</v>
+      </c>
+      <c r="B505" s="1">
+        <v>45773</v>
+      </c>
+      <c r="C505" t="s">
+        <v>21</v>
+      </c>
+      <c r="D505">
+        <v>61</v>
+      </c>
+      <c r="E505">
+        <v>0</v>
+      </c>
+      <c r="F505">
+        <v>0</v>
+      </c>
+      <c r="G505">
+        <v>36</v>
+      </c>
+      <c r="H505">
+        <v>26</v>
+      </c>
+      <c r="I505">
+        <v>0</v>
+      </c>
+      <c r="J505">
+        <v>0</v>
+      </c>
+      <c r="K505">
+        <v>0</v>
+      </c>
+      <c r="L505">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="506" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>24</v>
+      </c>
+      <c r="B506" s="1">
+        <v>45773</v>
+      </c>
+      <c r="C506" t="s">
+        <v>20</v>
+      </c>
+      <c r="D506">
+        <v>20</v>
+      </c>
+      <c r="E506">
+        <v>0</v>
+      </c>
+      <c r="F506">
+        <v>0</v>
+      </c>
+      <c r="G506">
+        <v>20</v>
+      </c>
+      <c r="H506">
+        <v>0</v>
+      </c>
+      <c r="I506">
+        <v>0</v>
+      </c>
+      <c r="J506">
+        <v>0</v>
+      </c>
+      <c r="K506">
+        <v>0</v>
+      </c>
+      <c r="L506">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="507" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>13</v>
+      </c>
+      <c r="B507" s="1">
+        <v>45773</v>
+      </c>
+      <c r="C507" t="s">
+        <v>15</v>
+      </c>
+      <c r="D507">
+        <v>29</v>
+      </c>
+      <c r="E507">
+        <v>3.09</v>
+      </c>
+      <c r="F507">
+        <v>154</v>
+      </c>
+      <c r="G507">
+        <v>1</v>
+      </c>
+      <c r="H507">
+        <v>29</v>
+      </c>
+      <c r="I507">
+        <v>0</v>
+      </c>
+      <c r="J507">
+        <v>0</v>
+      </c>
+      <c r="K507">
+        <v>0</v>
+      </c>
+      <c r="L507">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="508" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>10</v>
+      </c>
+      <c r="B508" s="1">
+        <v>45773</v>
+      </c>
+      <c r="C508" t="s">
+        <v>15</v>
+      </c>
+      <c r="D508">
+        <v>207</v>
+      </c>
+      <c r="E508">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="F508">
+        <v>1050</v>
+      </c>
+      <c r="G508">
+        <v>12</v>
+      </c>
+      <c r="H508">
+        <v>131</v>
+      </c>
+      <c r="I508">
+        <v>52</v>
+      </c>
+      <c r="J508">
+        <v>1</v>
+      </c>
+      <c r="K508">
+        <v>0</v>
+      </c>
+      <c r="L508">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="509" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>17</v>
+      </c>
+      <c r="B509" s="1">
+        <v>45773</v>
+      </c>
+      <c r="C509" t="s">
+        <v>15</v>
+      </c>
+      <c r="D509">
+        <v>127</v>
+      </c>
+      <c r="E509">
+        <v>10.74</v>
+      </c>
+      <c r="F509">
+        <v>933</v>
+      </c>
+      <c r="G509">
+        <v>5</v>
+      </c>
+      <c r="H509">
+        <v>95</v>
+      </c>
+      <c r="I509">
+        <v>28</v>
+      </c>
+      <c r="J509">
+        <v>0</v>
+      </c>
+      <c r="K509">
+        <v>0</v>
+      </c>
+      <c r="L509">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="510" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>24</v>
+      </c>
+      <c r="B510" s="1">
+        <v>45773</v>
+      </c>
+      <c r="C510" t="s">
+        <v>15</v>
+      </c>
+      <c r="D510">
+        <v>39</v>
+      </c>
+      <c r="E510">
+        <v>3.28</v>
+      </c>
+      <c r="F510">
+        <v>82</v>
+      </c>
+      <c r="G510">
+        <v>6</v>
+      </c>
+      <c r="H510">
+        <v>33</v>
+      </c>
+      <c r="I510">
+        <v>0</v>
+      </c>
+      <c r="J510">
+        <v>0</v>
+      </c>
+      <c r="K510">
+        <v>0</v>
+      </c>
+      <c r="L510">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="511" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>19</v>
+      </c>
+      <c r="B511" s="1">
+        <v>45773</v>
+      </c>
+      <c r="C511" t="s">
+        <v>20</v>
+      </c>
+      <c r="D511">
+        <v>89</v>
+      </c>
+      <c r="E511">
+        <v>0</v>
+      </c>
+      <c r="F511">
+        <v>0</v>
+      </c>
+      <c r="G511">
+        <v>70</v>
+      </c>
+      <c r="H511">
+        <v>19</v>
+      </c>
+      <c r="I511">
+        <v>0</v>
+      </c>
+      <c r="J511">
+        <v>0</v>
+      </c>
+      <c r="K511">
+        <v>0</v>
+      </c>
+      <c r="L511">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L346" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6188" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8906DD48-85D7-4C2D-9F30-AC7EAC9974B5}"/>
+  <xr:revisionPtr revIDLastSave="6224" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCC0A873-F4CE-4B41-A22E-11A58297DE36}"/>
   <bookViews>
     <workbookView xWindow="-18510" yWindow="4740" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="30">
   <si>
     <t>Participant</t>
   </si>
@@ -506,11 +506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:L511"/>
+  <dimension ref="A1:L514"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A496" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A512" sqref="A512"/>
+      <selection pane="bottomLeft" activeCell="A515" sqref="A515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19946,6 +19946,120 @@
         <v>7</v>
       </c>
     </row>
+    <row r="512" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>25</v>
+      </c>
+      <c r="B512" s="1">
+        <v>45774</v>
+      </c>
+      <c r="C512" t="s">
+        <v>15</v>
+      </c>
+      <c r="D512">
+        <v>92</v>
+      </c>
+      <c r="E512">
+        <v>9.84</v>
+      </c>
+      <c r="F512">
+        <v>1099</v>
+      </c>
+      <c r="G512">
+        <v>1</v>
+      </c>
+      <c r="H512">
+        <v>3</v>
+      </c>
+      <c r="I512">
+        <v>71</v>
+      </c>
+      <c r="J512">
+        <v>16</v>
+      </c>
+      <c r="K512">
+        <v>0</v>
+      </c>
+      <c r="L512">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="513" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>10</v>
+      </c>
+      <c r="B513" s="1">
+        <v>45774</v>
+      </c>
+      <c r="C513" t="s">
+        <v>21</v>
+      </c>
+      <c r="D513">
+        <v>55</v>
+      </c>
+      <c r="E513">
+        <v>15.7</v>
+      </c>
+      <c r="F513">
+        <v>0</v>
+      </c>
+      <c r="G513">
+        <v>54</v>
+      </c>
+      <c r="H513">
+        <v>1</v>
+      </c>
+      <c r="I513">
+        <v>0</v>
+      </c>
+      <c r="J513">
+        <v>0</v>
+      </c>
+      <c r="K513">
+        <v>0</v>
+      </c>
+      <c r="L513">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="514" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>17</v>
+      </c>
+      <c r="B514" s="1">
+        <v>45774</v>
+      </c>
+      <c r="C514" t="s">
+        <v>15</v>
+      </c>
+      <c r="D514">
+        <v>70</v>
+      </c>
+      <c r="E514">
+        <v>6.11</v>
+      </c>
+      <c r="F514">
+        <v>659</v>
+      </c>
+      <c r="G514">
+        <v>3</v>
+      </c>
+      <c r="H514">
+        <v>53</v>
+      </c>
+      <c r="I514">
+        <v>14</v>
+      </c>
+      <c r="J514">
+        <v>0</v>
+      </c>
+      <c r="K514">
+        <v>0</v>
+      </c>
+      <c r="L514">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L346" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6224" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCC0A873-F4CE-4B41-A22E-11A58297DE36}"/>
+  <xr:revisionPtr revIDLastSave="6272" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25D5360B-30C3-4BF2-A9DD-080208FAA915}"/>
   <bookViews>
     <workbookView xWindow="-18510" yWindow="4740" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="30">
   <si>
     <t>Participant</t>
   </si>
@@ -506,11 +506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:L514"/>
+  <dimension ref="A1:L518"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A496" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A515" sqref="A515"/>
+      <pane ySplit="1" topLeftCell="A500" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A519" sqref="A519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20060,6 +20060,158 @@
         <v>7</v>
       </c>
     </row>
+    <row r="515" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>17</v>
+      </c>
+      <c r="B515" s="1">
+        <v>45774</v>
+      </c>
+      <c r="C515" t="s">
+        <v>20</v>
+      </c>
+      <c r="D515">
+        <v>28</v>
+      </c>
+      <c r="E515">
+        <v>0</v>
+      </c>
+      <c r="F515">
+        <v>0</v>
+      </c>
+      <c r="G515">
+        <v>25</v>
+      </c>
+      <c r="H515">
+        <v>4</v>
+      </c>
+      <c r="I515">
+        <v>0</v>
+      </c>
+      <c r="J515">
+        <v>0</v>
+      </c>
+      <c r="K515">
+        <v>0</v>
+      </c>
+      <c r="L515">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="516" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>13</v>
+      </c>
+      <c r="B516" s="1">
+        <v>45774</v>
+      </c>
+      <c r="C516" t="s">
+        <v>15</v>
+      </c>
+      <c r="D516">
+        <v>188</v>
+      </c>
+      <c r="E516">
+        <v>18.059999999999999</v>
+      </c>
+      <c r="F516">
+        <v>1467</v>
+      </c>
+      <c r="G516">
+        <v>5</v>
+      </c>
+      <c r="H516">
+        <v>177</v>
+      </c>
+      <c r="I516">
+        <v>6</v>
+      </c>
+      <c r="J516">
+        <v>0</v>
+      </c>
+      <c r="K516">
+        <v>0</v>
+      </c>
+      <c r="L516">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="517" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>19</v>
+      </c>
+      <c r="B517" s="1">
+        <v>45774</v>
+      </c>
+      <c r="C517" t="s">
+        <v>15</v>
+      </c>
+      <c r="D517">
+        <v>55</v>
+      </c>
+      <c r="E517">
+        <v>5.8</v>
+      </c>
+      <c r="F517">
+        <v>322</v>
+      </c>
+      <c r="G517">
+        <v>1</v>
+      </c>
+      <c r="H517">
+        <v>8</v>
+      </c>
+      <c r="I517">
+        <v>46</v>
+      </c>
+      <c r="J517">
+        <v>0</v>
+      </c>
+      <c r="K517">
+        <v>0</v>
+      </c>
+      <c r="L517">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="518" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>18</v>
+      </c>
+      <c r="B518" s="1">
+        <v>45775</v>
+      </c>
+      <c r="C518" t="s">
+        <v>20</v>
+      </c>
+      <c r="D518">
+        <v>37</v>
+      </c>
+      <c r="E518">
+        <v>0</v>
+      </c>
+      <c r="F518">
+        <v>0</v>
+      </c>
+      <c r="G518">
+        <v>37</v>
+      </c>
+      <c r="H518">
+        <v>0</v>
+      </c>
+      <c r="I518">
+        <v>0</v>
+      </c>
+      <c r="J518">
+        <v>0</v>
+      </c>
+      <c r="K518">
+        <v>0</v>
+      </c>
+      <c r="L518">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L346" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6272" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25D5360B-30C3-4BF2-A9DD-080208FAA915}"/>
+  <xr:revisionPtr revIDLastSave="6453" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BCDD95B-765E-4B3B-88A6-A97BB4D0C513}"/>
   <bookViews>
     <workbookView xWindow="-18510" yWindow="4740" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="30">
   <si>
     <t>Participant</t>
   </si>
@@ -506,11 +506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:L518"/>
+  <dimension ref="A1:L533"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A500" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A519" sqref="A519"/>
+      <pane ySplit="1" topLeftCell="A518" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A534" sqref="A534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20212,6 +20212,576 @@
         <v>8</v>
       </c>
     </row>
+    <row r="519" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>25</v>
+      </c>
+      <c r="B519" s="1">
+        <v>45775</v>
+      </c>
+      <c r="C519" t="s">
+        <v>21</v>
+      </c>
+      <c r="D519">
+        <v>60</v>
+      </c>
+      <c r="E519">
+        <v>20.12</v>
+      </c>
+      <c r="F519">
+        <v>0</v>
+      </c>
+      <c r="G519">
+        <v>17</v>
+      </c>
+      <c r="H519">
+        <v>43</v>
+      </c>
+      <c r="I519">
+        <v>0</v>
+      </c>
+      <c r="J519">
+        <v>0</v>
+      </c>
+      <c r="K519">
+        <v>0</v>
+      </c>
+      <c r="L519">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="520" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>16</v>
+      </c>
+      <c r="B520" s="1">
+        <v>45775</v>
+      </c>
+      <c r="C520" t="s">
+        <v>26</v>
+      </c>
+      <c r="D520">
+        <v>63</v>
+      </c>
+      <c r="E520">
+        <v>0</v>
+      </c>
+      <c r="F520">
+        <v>0</v>
+      </c>
+      <c r="G520">
+        <v>10</v>
+      </c>
+      <c r="H520">
+        <v>53</v>
+      </c>
+      <c r="I520">
+        <v>0</v>
+      </c>
+      <c r="J520">
+        <v>0</v>
+      </c>
+      <c r="K520">
+        <v>0</v>
+      </c>
+      <c r="L520">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="521" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>10</v>
+      </c>
+      <c r="B521" s="1">
+        <v>45775</v>
+      </c>
+      <c r="C521" t="s">
+        <v>20</v>
+      </c>
+      <c r="D521">
+        <v>25</v>
+      </c>
+      <c r="E521">
+        <v>0</v>
+      </c>
+      <c r="F521">
+        <v>0</v>
+      </c>
+      <c r="G521">
+        <v>25</v>
+      </c>
+      <c r="H521">
+        <v>0</v>
+      </c>
+      <c r="I521">
+        <v>0</v>
+      </c>
+      <c r="J521">
+        <v>0</v>
+      </c>
+      <c r="K521">
+        <v>0</v>
+      </c>
+      <c r="L521">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="522" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>24</v>
+      </c>
+      <c r="B522" s="1">
+        <v>45775</v>
+      </c>
+      <c r="C522" t="s">
+        <v>15</v>
+      </c>
+      <c r="D522">
+        <v>47</v>
+      </c>
+      <c r="E522">
+        <v>4.01</v>
+      </c>
+      <c r="F522">
+        <v>190</v>
+      </c>
+      <c r="G522">
+        <v>10</v>
+      </c>
+      <c r="H522">
+        <v>37</v>
+      </c>
+      <c r="I522">
+        <v>0</v>
+      </c>
+      <c r="J522">
+        <v>0</v>
+      </c>
+      <c r="K522">
+        <v>0</v>
+      </c>
+      <c r="L522">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="523" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>19</v>
+      </c>
+      <c r="B523" s="1">
+        <v>45775</v>
+      </c>
+      <c r="C523" t="s">
+        <v>20</v>
+      </c>
+      <c r="D523">
+        <v>90</v>
+      </c>
+      <c r="E523">
+        <v>0</v>
+      </c>
+      <c r="F523">
+        <v>0</v>
+      </c>
+      <c r="G523">
+        <v>78</v>
+      </c>
+      <c r="H523">
+        <v>12</v>
+      </c>
+      <c r="I523">
+        <v>0</v>
+      </c>
+      <c r="J523">
+        <v>0</v>
+      </c>
+      <c r="K523">
+        <v>0</v>
+      </c>
+      <c r="L523">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="524" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>25</v>
+      </c>
+      <c r="B524" s="1">
+        <v>45775</v>
+      </c>
+      <c r="C524" t="s">
+        <v>20</v>
+      </c>
+      <c r="D524">
+        <v>31</v>
+      </c>
+      <c r="E524">
+        <v>0</v>
+      </c>
+      <c r="F524">
+        <v>0</v>
+      </c>
+      <c r="G524">
+        <v>31</v>
+      </c>
+      <c r="H524">
+        <v>0</v>
+      </c>
+      <c r="I524">
+        <v>0</v>
+      </c>
+      <c r="J524">
+        <v>0</v>
+      </c>
+      <c r="K524">
+        <v>0</v>
+      </c>
+      <c r="L524">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="525" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>13</v>
+      </c>
+      <c r="B525" s="1">
+        <v>45775</v>
+      </c>
+      <c r="C525" t="s">
+        <v>21</v>
+      </c>
+      <c r="D525">
+        <v>30</v>
+      </c>
+      <c r="E525">
+        <v>12.35</v>
+      </c>
+      <c r="F525">
+        <v>0</v>
+      </c>
+      <c r="G525">
+        <v>0</v>
+      </c>
+      <c r="H525">
+        <v>15</v>
+      </c>
+      <c r="I525">
+        <v>15</v>
+      </c>
+      <c r="J525">
+        <v>0</v>
+      </c>
+      <c r="K525">
+        <v>0</v>
+      </c>
+      <c r="L525">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="526" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>18</v>
+      </c>
+      <c r="B526" s="1">
+        <v>45775</v>
+      </c>
+      <c r="C526" t="s">
+        <v>15</v>
+      </c>
+      <c r="D526">
+        <v>32</v>
+      </c>
+      <c r="E526">
+        <v>4.01</v>
+      </c>
+      <c r="F526">
+        <v>49</v>
+      </c>
+      <c r="G526">
+        <v>2</v>
+      </c>
+      <c r="H526">
+        <v>30</v>
+      </c>
+      <c r="I526">
+        <v>0</v>
+      </c>
+      <c r="J526">
+        <v>0</v>
+      </c>
+      <c r="K526">
+        <v>0</v>
+      </c>
+      <c r="L526">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="527" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>13</v>
+      </c>
+      <c r="B527" s="1">
+        <v>45775</v>
+      </c>
+      <c r="C527" t="s">
+        <v>21</v>
+      </c>
+      <c r="D527">
+        <v>20</v>
+      </c>
+      <c r="E527">
+        <v>6.19</v>
+      </c>
+      <c r="F527">
+        <v>0</v>
+      </c>
+      <c r="G527">
+        <v>5</v>
+      </c>
+      <c r="H527">
+        <v>15</v>
+      </c>
+      <c r="I527">
+        <v>0</v>
+      </c>
+      <c r="J527">
+        <v>0</v>
+      </c>
+      <c r="K527">
+        <v>0</v>
+      </c>
+      <c r="L527">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="528" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>18</v>
+      </c>
+      <c r="B528" s="1">
+        <v>45776</v>
+      </c>
+      <c r="C528" t="s">
+        <v>21</v>
+      </c>
+      <c r="D528">
+        <v>36</v>
+      </c>
+      <c r="E528">
+        <v>7.84</v>
+      </c>
+      <c r="F528">
+        <v>0</v>
+      </c>
+      <c r="G528">
+        <v>12</v>
+      </c>
+      <c r="H528">
+        <v>24</v>
+      </c>
+      <c r="I528">
+        <v>0</v>
+      </c>
+      <c r="J528">
+        <v>0</v>
+      </c>
+      <c r="K528">
+        <v>0</v>
+      </c>
+      <c r="L528">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="529" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>13</v>
+      </c>
+      <c r="B529" s="1">
+        <v>45776</v>
+      </c>
+      <c r="C529" t="s">
+        <v>14</v>
+      </c>
+      <c r="D529">
+        <v>46</v>
+      </c>
+      <c r="E529">
+        <v>0</v>
+      </c>
+      <c r="F529">
+        <v>0</v>
+      </c>
+      <c r="G529">
+        <v>11</v>
+      </c>
+      <c r="H529">
+        <v>35</v>
+      </c>
+      <c r="I529">
+        <v>0</v>
+      </c>
+      <c r="J529">
+        <v>0</v>
+      </c>
+      <c r="K529">
+        <v>0</v>
+      </c>
+      <c r="L529">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="530" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>17</v>
+      </c>
+      <c r="B530" s="1">
+        <v>45776</v>
+      </c>
+      <c r="C530" t="s">
+        <v>21</v>
+      </c>
+      <c r="D530">
+        <v>60</v>
+      </c>
+      <c r="E530">
+        <v>0</v>
+      </c>
+      <c r="F530">
+        <v>0</v>
+      </c>
+      <c r="G530">
+        <v>34</v>
+      </c>
+      <c r="H530">
+        <v>26</v>
+      </c>
+      <c r="I530">
+        <v>0</v>
+      </c>
+      <c r="J530">
+        <v>0</v>
+      </c>
+      <c r="K530">
+        <v>0</v>
+      </c>
+      <c r="L530">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="531" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>13</v>
+      </c>
+      <c r="B531" s="1">
+        <v>45776</v>
+      </c>
+      <c r="C531" t="s">
+        <v>20</v>
+      </c>
+      <c r="D531">
+        <v>63</v>
+      </c>
+      <c r="E531">
+        <v>0</v>
+      </c>
+      <c r="F531">
+        <v>0</v>
+      </c>
+      <c r="G531">
+        <v>63</v>
+      </c>
+      <c r="H531">
+        <v>0</v>
+      </c>
+      <c r="I531">
+        <v>0</v>
+      </c>
+      <c r="J531">
+        <v>0</v>
+      </c>
+      <c r="K531">
+        <v>0</v>
+      </c>
+      <c r="L531">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="532" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>10</v>
+      </c>
+      <c r="B532" s="1">
+        <v>45776</v>
+      </c>
+      <c r="C532" t="s">
+        <v>15</v>
+      </c>
+      <c r="D532">
+        <v>81</v>
+      </c>
+      <c r="E532">
+        <v>7.97</v>
+      </c>
+      <c r="F532">
+        <v>420</v>
+      </c>
+      <c r="G532">
+        <v>6</v>
+      </c>
+      <c r="H532">
+        <v>63</v>
+      </c>
+      <c r="I532">
+        <v>7</v>
+      </c>
+      <c r="J532">
+        <v>0</v>
+      </c>
+      <c r="K532">
+        <v>0</v>
+      </c>
+      <c r="L532">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="533" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>25</v>
+      </c>
+      <c r="B533" s="1">
+        <v>45776</v>
+      </c>
+      <c r="C533" t="s">
+        <v>15</v>
+      </c>
+      <c r="D533">
+        <v>82</v>
+      </c>
+      <c r="E533">
+        <v>7.63</v>
+      </c>
+      <c r="F533">
+        <v>341</v>
+      </c>
+      <c r="G533">
+        <v>19</v>
+      </c>
+      <c r="H533">
+        <v>38</v>
+      </c>
+      <c r="I533">
+        <v>15</v>
+      </c>
+      <c r="J533">
+        <v>3</v>
+      </c>
+      <c r="K533">
+        <v>0</v>
+      </c>
+      <c r="L533">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L346" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6453" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BCDD95B-765E-4B3B-88A6-A97BB4D0C513}"/>
+  <xr:revisionPtr revIDLastSave="6539" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2113BF0A-1C24-486B-B791-7619C0353854}"/>
   <bookViews>
     <workbookView xWindow="-18510" yWindow="4740" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="30">
   <si>
     <t>Participant</t>
   </si>
@@ -506,11 +506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:L533"/>
+  <dimension ref="A1:L540"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A518" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A534" sqref="A534"/>
+      <pane ySplit="1" topLeftCell="A524" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C541" sqref="C541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20782,6 +20782,272 @@
         <v>8</v>
       </c>
     </row>
+    <row r="534" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>16</v>
+      </c>
+      <c r="B534" s="1">
+        <v>45776</v>
+      </c>
+      <c r="C534" t="s">
+        <v>26</v>
+      </c>
+      <c r="D534">
+        <v>69</v>
+      </c>
+      <c r="E534">
+        <v>0</v>
+      </c>
+      <c r="F534">
+        <v>0</v>
+      </c>
+      <c r="G534">
+        <v>13</v>
+      </c>
+      <c r="H534">
+        <v>44</v>
+      </c>
+      <c r="I534">
+        <v>12</v>
+      </c>
+      <c r="J534">
+        <v>0</v>
+      </c>
+      <c r="K534">
+        <v>0</v>
+      </c>
+      <c r="L534">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="535" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>17</v>
+      </c>
+      <c r="B535" s="1">
+        <v>45776</v>
+      </c>
+      <c r="C535" t="s">
+        <v>20</v>
+      </c>
+      <c r="D535">
+        <v>58</v>
+      </c>
+      <c r="E535">
+        <v>0</v>
+      </c>
+      <c r="F535">
+        <v>0</v>
+      </c>
+      <c r="G535">
+        <v>54</v>
+      </c>
+      <c r="H535">
+        <v>4</v>
+      </c>
+      <c r="I535">
+        <v>0</v>
+      </c>
+      <c r="J535">
+        <v>0</v>
+      </c>
+      <c r="K535">
+        <v>0</v>
+      </c>
+      <c r="L535">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="536" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>18</v>
+      </c>
+      <c r="B536" s="1">
+        <v>45776</v>
+      </c>
+      <c r="C536" t="s">
+        <v>15</v>
+      </c>
+      <c r="D536">
+        <v>35</v>
+      </c>
+      <c r="E536">
+        <v>3.22</v>
+      </c>
+      <c r="F536">
+        <v>0</v>
+      </c>
+      <c r="G536">
+        <v>0</v>
+      </c>
+      <c r="H536">
+        <v>16</v>
+      </c>
+      <c r="I536">
+        <v>16</v>
+      </c>
+      <c r="J536">
+        <v>0</v>
+      </c>
+      <c r="K536">
+        <v>0</v>
+      </c>
+      <c r="L536">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="537" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>24</v>
+      </c>
+      <c r="B537" s="1">
+        <v>45776</v>
+      </c>
+      <c r="C537" t="s">
+        <v>21</v>
+      </c>
+      <c r="D537">
+        <v>41</v>
+      </c>
+      <c r="E537">
+        <v>0</v>
+      </c>
+      <c r="F537">
+        <v>0</v>
+      </c>
+      <c r="G537">
+        <v>7</v>
+      </c>
+      <c r="H537">
+        <v>34</v>
+      </c>
+      <c r="I537">
+        <v>0</v>
+      </c>
+      <c r="J537">
+        <v>0</v>
+      </c>
+      <c r="K537">
+        <v>0</v>
+      </c>
+      <c r="L537">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="538" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>24</v>
+      </c>
+      <c r="B538" s="1">
+        <v>45776</v>
+      </c>
+      <c r="C538" t="s">
+        <v>20</v>
+      </c>
+      <c r="D538">
+        <v>25</v>
+      </c>
+      <c r="E538">
+        <v>0</v>
+      </c>
+      <c r="F538">
+        <v>0</v>
+      </c>
+      <c r="G538">
+        <v>25</v>
+      </c>
+      <c r="H538">
+        <v>0</v>
+      </c>
+      <c r="I538">
+        <v>0</v>
+      </c>
+      <c r="J538">
+        <v>0</v>
+      </c>
+      <c r="K538">
+        <v>0</v>
+      </c>
+      <c r="L538">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="539" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>24</v>
+      </c>
+      <c r="B539" s="1">
+        <v>45777</v>
+      </c>
+      <c r="C539" t="s">
+        <v>15</v>
+      </c>
+      <c r="D539">
+        <v>94</v>
+      </c>
+      <c r="E539">
+        <v>7.01</v>
+      </c>
+      <c r="F539">
+        <v>456</v>
+      </c>
+      <c r="G539">
+        <v>31</v>
+      </c>
+      <c r="H539">
+        <v>63</v>
+      </c>
+      <c r="I539">
+        <v>0</v>
+      </c>
+      <c r="J539">
+        <v>0</v>
+      </c>
+      <c r="K539">
+        <v>0</v>
+      </c>
+      <c r="L539">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="540" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>18</v>
+      </c>
+      <c r="B540" s="1">
+        <v>45777</v>
+      </c>
+      <c r="C540" t="s">
+        <v>20</v>
+      </c>
+      <c r="D540">
+        <v>28</v>
+      </c>
+      <c r="E540">
+        <v>0</v>
+      </c>
+      <c r="F540">
+        <v>0</v>
+      </c>
+      <c r="G540">
+        <v>27</v>
+      </c>
+      <c r="H540">
+        <v>2</v>
+      </c>
+      <c r="I540">
+        <v>0</v>
+      </c>
+      <c r="J540">
+        <v>0</v>
+      </c>
+      <c r="K540">
+        <v>0</v>
+      </c>
+      <c r="L540">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L346" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6539" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2113BF0A-1C24-486B-B791-7619C0353854}"/>
+  <xr:revisionPtr revIDLastSave="6626" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC2F7F2C-25FC-4D8A-B7CB-89BC4CCED093}"/>
   <bookViews>
     <workbookView xWindow="-18510" yWindow="4740" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="30">
   <si>
     <t>Participant</t>
   </si>
@@ -506,11 +506,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:L540"/>
+  <dimension ref="A1:L547"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A524" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C541" sqref="C541"/>
+      <pane ySplit="1" topLeftCell="A532" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A548" sqref="A548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21048,6 +21048,272 @@
         <v>8</v>
       </c>
     </row>
+    <row r="541" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>16</v>
+      </c>
+      <c r="B541" s="1">
+        <v>45777</v>
+      </c>
+      <c r="C541" t="s">
+        <v>15</v>
+      </c>
+      <c r="D541">
+        <v>119</v>
+      </c>
+      <c r="E541">
+        <v>11.2</v>
+      </c>
+      <c r="F541">
+        <v>413</v>
+      </c>
+      <c r="G541">
+        <v>5</v>
+      </c>
+      <c r="H541">
+        <v>59</v>
+      </c>
+      <c r="I541">
+        <v>54</v>
+      </c>
+      <c r="J541">
+        <v>0</v>
+      </c>
+      <c r="K541">
+        <v>0</v>
+      </c>
+      <c r="L541">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="542" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>25</v>
+      </c>
+      <c r="B542" s="1">
+        <v>45777</v>
+      </c>
+      <c r="C542" t="s">
+        <v>21</v>
+      </c>
+      <c r="D542">
+        <v>154</v>
+      </c>
+      <c r="E542">
+        <v>39.19</v>
+      </c>
+      <c r="F542">
+        <v>2195</v>
+      </c>
+      <c r="G542">
+        <v>43</v>
+      </c>
+      <c r="H542">
+        <v>111</v>
+      </c>
+      <c r="I542">
+        <v>0</v>
+      </c>
+      <c r="J542">
+        <v>0</v>
+      </c>
+      <c r="K542">
+        <v>0</v>
+      </c>
+      <c r="L542">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="543" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>10</v>
+      </c>
+      <c r="B543" s="1">
+        <v>45777</v>
+      </c>
+      <c r="C543" t="s">
+        <v>20</v>
+      </c>
+      <c r="D543">
+        <v>30</v>
+      </c>
+      <c r="E543">
+        <v>0</v>
+      </c>
+      <c r="F543">
+        <v>0</v>
+      </c>
+      <c r="G543">
+        <v>27</v>
+      </c>
+      <c r="H543">
+        <v>3</v>
+      </c>
+      <c r="I543">
+        <v>0</v>
+      </c>
+      <c r="J543">
+        <v>0</v>
+      </c>
+      <c r="K543">
+        <v>0</v>
+      </c>
+      <c r="L543">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="544" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>13</v>
+      </c>
+      <c r="B544" s="1">
+        <v>45777</v>
+      </c>
+      <c r="C544" t="s">
+        <v>15</v>
+      </c>
+      <c r="D544">
+        <v>40</v>
+      </c>
+      <c r="E544">
+        <v>4.04</v>
+      </c>
+      <c r="F544">
+        <v>322</v>
+      </c>
+      <c r="G544">
+        <v>0</v>
+      </c>
+      <c r="H544">
+        <v>35</v>
+      </c>
+      <c r="I544">
+        <v>5</v>
+      </c>
+      <c r="J544">
+        <v>0</v>
+      </c>
+      <c r="K544">
+        <v>0</v>
+      </c>
+      <c r="L544">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="545" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>10</v>
+      </c>
+      <c r="B545" s="1">
+        <v>45777</v>
+      </c>
+      <c r="C545" t="s">
+        <v>20</v>
+      </c>
+      <c r="D545">
+        <v>32</v>
+      </c>
+      <c r="E545">
+        <v>0</v>
+      </c>
+      <c r="F545">
+        <v>0</v>
+      </c>
+      <c r="G545">
+        <v>32</v>
+      </c>
+      <c r="H545">
+        <v>0</v>
+      </c>
+      <c r="I545">
+        <v>0</v>
+      </c>
+      <c r="J545">
+        <v>0</v>
+      </c>
+      <c r="K545">
+        <v>0</v>
+      </c>
+      <c r="L545">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="546" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>17</v>
+      </c>
+      <c r="B546" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C546" t="s">
+        <v>15</v>
+      </c>
+      <c r="D546">
+        <v>27</v>
+      </c>
+      <c r="E546">
+        <v>2.27</v>
+      </c>
+      <c r="F546">
+        <v>275</v>
+      </c>
+      <c r="G546">
+        <v>3</v>
+      </c>
+      <c r="H546">
+        <v>22</v>
+      </c>
+      <c r="I546">
+        <v>2</v>
+      </c>
+      <c r="J546">
+        <v>0</v>
+      </c>
+      <c r="K546">
+        <v>0</v>
+      </c>
+      <c r="L546">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="547" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>10</v>
+      </c>
+      <c r="B547" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C547" t="s">
+        <v>15</v>
+      </c>
+      <c r="D547">
+        <v>64</v>
+      </c>
+      <c r="E547">
+        <v>6.52</v>
+      </c>
+      <c r="F547">
+        <v>289</v>
+      </c>
+      <c r="G547">
+        <v>6</v>
+      </c>
+      <c r="H547">
+        <v>58</v>
+      </c>
+      <c r="I547">
+        <v>0</v>
+      </c>
+      <c r="J547">
+        <v>0</v>
+      </c>
+      <c r="K547">
+        <v>0</v>
+      </c>
+      <c r="L547">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L346" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6626" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC2F7F2C-25FC-4D8A-B7CB-89BC4CCED093}"/>
+  <xr:revisionPtr revIDLastSave="6771" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD0909D4-4775-4E86-A985-2CB6B44B8A0F}"/>
   <bookViews>
-    <workbookView xWindow="-18510" yWindow="4740" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
+    <workbookView xWindow="-18075" yWindow="5175" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$346</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="30">
   <si>
     <t>Participant</t>
   </si>
@@ -506,11 +505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:L547"/>
+  <dimension ref="A1:L559"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A532" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A548" sqref="A548"/>
+      <pane ySplit="1" topLeftCell="A544" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A560" sqref="A560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21314,6 +21313,462 @@
         <v>8</v>
       </c>
     </row>
+    <row r="548" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>25</v>
+      </c>
+      <c r="B548" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C548" t="s">
+        <v>15</v>
+      </c>
+      <c r="D548">
+        <v>111</v>
+      </c>
+      <c r="E548">
+        <v>12.01</v>
+      </c>
+      <c r="F548">
+        <v>1020</v>
+      </c>
+      <c r="G548">
+        <v>1</v>
+      </c>
+      <c r="H548">
+        <v>71</v>
+      </c>
+      <c r="I548">
+        <v>37</v>
+      </c>
+      <c r="J548">
+        <v>0</v>
+      </c>
+      <c r="K548">
+        <v>0</v>
+      </c>
+      <c r="L548">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="549" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>19</v>
+      </c>
+      <c r="B549" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C549" t="s">
+        <v>20</v>
+      </c>
+      <c r="D549">
+        <v>75</v>
+      </c>
+      <c r="E549">
+        <v>0</v>
+      </c>
+      <c r="F549">
+        <v>0</v>
+      </c>
+      <c r="G549">
+        <v>49</v>
+      </c>
+      <c r="H549">
+        <v>26</v>
+      </c>
+      <c r="I549">
+        <v>0</v>
+      </c>
+      <c r="J549">
+        <v>0</v>
+      </c>
+      <c r="K549">
+        <v>0</v>
+      </c>
+      <c r="L549">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="550" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>13</v>
+      </c>
+      <c r="B550" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C550" t="s">
+        <v>15</v>
+      </c>
+      <c r="D550">
+        <v>20</v>
+      </c>
+      <c r="E550">
+        <v>2.13</v>
+      </c>
+      <c r="F550">
+        <v>161</v>
+      </c>
+      <c r="G550">
+        <v>1</v>
+      </c>
+      <c r="H550">
+        <v>17</v>
+      </c>
+      <c r="I550">
+        <v>2</v>
+      </c>
+      <c r="J550">
+        <v>0</v>
+      </c>
+      <c r="K550">
+        <v>0</v>
+      </c>
+      <c r="L550">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="551" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>18</v>
+      </c>
+      <c r="B551" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C551" t="s">
+        <v>15</v>
+      </c>
+      <c r="D551">
+        <v>101</v>
+      </c>
+      <c r="E551">
+        <v>13.12</v>
+      </c>
+      <c r="F551">
+        <v>404</v>
+      </c>
+      <c r="G551">
+        <v>1</v>
+      </c>
+      <c r="H551">
+        <v>29</v>
+      </c>
+      <c r="I551">
+        <v>55</v>
+      </c>
+      <c r="J551">
+        <v>15</v>
+      </c>
+      <c r="K551">
+        <v>0</v>
+      </c>
+      <c r="L551">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="552" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>13</v>
+      </c>
+      <c r="B552" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C552" t="s">
+        <v>15</v>
+      </c>
+      <c r="D552">
+        <v>22</v>
+      </c>
+      <c r="E552">
+        <v>2.46</v>
+      </c>
+      <c r="F552">
+        <v>167</v>
+      </c>
+      <c r="G552">
+        <v>0</v>
+      </c>
+      <c r="H552">
+        <v>22</v>
+      </c>
+      <c r="I552">
+        <v>0</v>
+      </c>
+      <c r="J552">
+        <v>0</v>
+      </c>
+      <c r="K552">
+        <v>0</v>
+      </c>
+      <c r="L552">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="553" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
+        <v>10</v>
+      </c>
+      <c r="B553" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C553" t="s">
+        <v>20</v>
+      </c>
+      <c r="D553">
+        <v>36</v>
+      </c>
+      <c r="E553">
+        <v>0</v>
+      </c>
+      <c r="F553">
+        <v>0</v>
+      </c>
+      <c r="G553">
+        <v>36</v>
+      </c>
+      <c r="H553">
+        <v>0</v>
+      </c>
+      <c r="I553">
+        <v>0</v>
+      </c>
+      <c r="J553">
+        <v>0</v>
+      </c>
+      <c r="K553">
+        <v>0</v>
+      </c>
+      <c r="L553">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="554" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>13</v>
+      </c>
+      <c r="B554" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C554" t="s">
+        <v>14</v>
+      </c>
+      <c r="D554">
+        <v>40</v>
+      </c>
+      <c r="E554">
+        <v>0</v>
+      </c>
+      <c r="F554">
+        <v>0</v>
+      </c>
+      <c r="G554">
+        <v>4</v>
+      </c>
+      <c r="H554">
+        <v>36</v>
+      </c>
+      <c r="I554">
+        <v>0</v>
+      </c>
+      <c r="J554">
+        <v>0</v>
+      </c>
+      <c r="K554">
+        <v>0</v>
+      </c>
+      <c r="L554">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="555" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>13</v>
+      </c>
+      <c r="B555" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C555" t="s">
+        <v>15</v>
+      </c>
+      <c r="D555">
+        <v>32</v>
+      </c>
+      <c r="E555">
+        <v>3.54</v>
+      </c>
+      <c r="F555">
+        <v>187</v>
+      </c>
+      <c r="G555">
+        <v>2</v>
+      </c>
+      <c r="H555">
+        <v>21</v>
+      </c>
+      <c r="I555">
+        <v>10</v>
+      </c>
+      <c r="J555">
+        <v>0</v>
+      </c>
+      <c r="K555">
+        <v>0</v>
+      </c>
+      <c r="L555">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="556" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
+        <v>10</v>
+      </c>
+      <c r="B556" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C556" t="s">
+        <v>15</v>
+      </c>
+      <c r="D556">
+        <v>17</v>
+      </c>
+      <c r="E556">
+        <v>1.28</v>
+      </c>
+      <c r="F556">
+        <v>46</v>
+      </c>
+      <c r="G556">
+        <v>12</v>
+      </c>
+      <c r="H556">
+        <v>5</v>
+      </c>
+      <c r="I556">
+        <v>0</v>
+      </c>
+      <c r="J556">
+        <v>0</v>
+      </c>
+      <c r="K556">
+        <v>0</v>
+      </c>
+      <c r="L556">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="557" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A557" t="s">
+        <v>13</v>
+      </c>
+      <c r="B557" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C557" t="s">
+        <v>15</v>
+      </c>
+      <c r="D557">
+        <v>3</v>
+      </c>
+      <c r="E557">
+        <v>0.35</v>
+      </c>
+      <c r="F557">
+        <v>3</v>
+      </c>
+      <c r="G557">
+        <v>0</v>
+      </c>
+      <c r="H557">
+        <v>2</v>
+      </c>
+      <c r="I557">
+        <v>0</v>
+      </c>
+      <c r="J557">
+        <v>0</v>
+      </c>
+      <c r="K557">
+        <v>0</v>
+      </c>
+      <c r="L557">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="558" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A558" t="s">
+        <v>13</v>
+      </c>
+      <c r="B558" s="1">
+        <v>45778</v>
+      </c>
+      <c r="C558" t="s">
+        <v>21</v>
+      </c>
+      <c r="D558">
+        <v>60</v>
+      </c>
+      <c r="E558">
+        <v>20.77</v>
+      </c>
+      <c r="F558">
+        <v>0</v>
+      </c>
+      <c r="G558">
+        <v>10</v>
+      </c>
+      <c r="H558">
+        <v>50</v>
+      </c>
+      <c r="I558">
+        <v>0</v>
+      </c>
+      <c r="J558">
+        <v>0</v>
+      </c>
+      <c r="K558">
+        <v>0</v>
+      </c>
+      <c r="L558">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="559" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A559" t="s">
+        <v>24</v>
+      </c>
+      <c r="B559" s="1">
+        <v>45779</v>
+      </c>
+      <c r="C559" t="s">
+        <v>27</v>
+      </c>
+      <c r="D559">
+        <v>41</v>
+      </c>
+      <c r="E559">
+        <v>1.97</v>
+      </c>
+      <c r="F559">
+        <v>190</v>
+      </c>
+      <c r="G559">
+        <v>41</v>
+      </c>
+      <c r="H559">
+        <v>0</v>
+      </c>
+      <c r="I559">
+        <v>0</v>
+      </c>
+      <c r="J559">
+        <v>0</v>
+      </c>
+      <c r="K559">
+        <v>0</v>
+      </c>
+      <c r="L559">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L346" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6771" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD0909D4-4775-4E86-A985-2CB6B44B8A0F}"/>
+  <xr:revisionPtr revIDLastSave="6917" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7CE377C-17D4-46A2-84F1-8EC9EE2358EB}"/>
   <bookViews>
     <workbookView xWindow="-18075" yWindow="5175" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="30">
   <si>
     <t>Participant</t>
   </si>
@@ -505,11 +505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:L559"/>
+  <dimension ref="A1:L571"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A544" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A560" sqref="A560"/>
+      <pane ySplit="1" topLeftCell="A554" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A572" sqref="A572"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21769,6 +21769,462 @@
         <v>8</v>
       </c>
     </row>
+    <row r="560" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
+        <v>25</v>
+      </c>
+      <c r="B560" s="1">
+        <v>45779</v>
+      </c>
+      <c r="C560" t="s">
+        <v>21</v>
+      </c>
+      <c r="D560">
+        <v>168</v>
+      </c>
+      <c r="E560">
+        <v>31.55</v>
+      </c>
+      <c r="F560">
+        <v>2162</v>
+      </c>
+      <c r="G560">
+        <v>83</v>
+      </c>
+      <c r="H560">
+        <v>83</v>
+      </c>
+      <c r="I560">
+        <v>2</v>
+      </c>
+      <c r="J560">
+        <v>0</v>
+      </c>
+      <c r="K560">
+        <v>0</v>
+      </c>
+      <c r="L560">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="561" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
+        <v>10</v>
+      </c>
+      <c r="B561" s="1">
+        <v>45779</v>
+      </c>
+      <c r="C561" t="s">
+        <v>21</v>
+      </c>
+      <c r="D561">
+        <v>2</v>
+      </c>
+      <c r="E561">
+        <v>0.46</v>
+      </c>
+      <c r="F561">
+        <v>0</v>
+      </c>
+      <c r="G561">
+        <v>2</v>
+      </c>
+      <c r="H561">
+        <v>0</v>
+      </c>
+      <c r="I561">
+        <v>0</v>
+      </c>
+      <c r="J561">
+        <v>0</v>
+      </c>
+      <c r="K561">
+        <v>0</v>
+      </c>
+      <c r="L561">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="562" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
+        <v>10</v>
+      </c>
+      <c r="B562" s="1">
+        <v>45779</v>
+      </c>
+      <c r="C562" t="s">
+        <v>21</v>
+      </c>
+      <c r="D562">
+        <v>23</v>
+      </c>
+      <c r="E562">
+        <v>7.07</v>
+      </c>
+      <c r="F562">
+        <v>0</v>
+      </c>
+      <c r="G562">
+        <v>22</v>
+      </c>
+      <c r="H562">
+        <v>2</v>
+      </c>
+      <c r="I562">
+        <v>0</v>
+      </c>
+      <c r="J562">
+        <v>0</v>
+      </c>
+      <c r="K562">
+        <v>0</v>
+      </c>
+      <c r="L562">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="563" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
+        <v>10</v>
+      </c>
+      <c r="B563" s="1">
+        <v>45779</v>
+      </c>
+      <c r="C563" t="s">
+        <v>29</v>
+      </c>
+      <c r="D563">
+        <v>11</v>
+      </c>
+      <c r="E563">
+        <v>0</v>
+      </c>
+      <c r="F563">
+        <v>0</v>
+      </c>
+      <c r="G563">
+        <v>2</v>
+      </c>
+      <c r="H563">
+        <v>6</v>
+      </c>
+      <c r="I563">
+        <v>3</v>
+      </c>
+      <c r="J563">
+        <v>0</v>
+      </c>
+      <c r="K563">
+        <v>0</v>
+      </c>
+      <c r="L563">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="564" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A564" t="s">
+        <v>13</v>
+      </c>
+      <c r="B564" s="1">
+        <v>45779</v>
+      </c>
+      <c r="C564" t="s">
+        <v>21</v>
+      </c>
+      <c r="D564">
+        <v>143</v>
+      </c>
+      <c r="E564">
+        <v>41.62</v>
+      </c>
+      <c r="F564">
+        <v>2133</v>
+      </c>
+      <c r="G564">
+        <v>13</v>
+      </c>
+      <c r="H564">
+        <v>122</v>
+      </c>
+      <c r="I564">
+        <v>8</v>
+      </c>
+      <c r="J564">
+        <v>0</v>
+      </c>
+      <c r="K564">
+        <v>0</v>
+      </c>
+      <c r="L564">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="565" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A565" t="s">
+        <v>16</v>
+      </c>
+      <c r="B565" s="1">
+        <v>45779</v>
+      </c>
+      <c r="C565" t="s">
+        <v>21</v>
+      </c>
+      <c r="D565">
+        <v>5</v>
+      </c>
+      <c r="E565">
+        <v>0</v>
+      </c>
+      <c r="F565">
+        <v>0</v>
+      </c>
+      <c r="G565">
+        <v>5</v>
+      </c>
+      <c r="H565">
+        <v>0</v>
+      </c>
+      <c r="I565">
+        <v>0</v>
+      </c>
+      <c r="J565">
+        <v>0</v>
+      </c>
+      <c r="K565">
+        <v>0</v>
+      </c>
+      <c r="L565">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="566" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
+        <v>16</v>
+      </c>
+      <c r="B566" s="1">
+        <v>45779</v>
+      </c>
+      <c r="C566" t="s">
+        <v>28</v>
+      </c>
+      <c r="D566">
+        <v>12</v>
+      </c>
+      <c r="E566">
+        <v>0</v>
+      </c>
+      <c r="F566">
+        <v>0</v>
+      </c>
+      <c r="G566">
+        <v>1</v>
+      </c>
+      <c r="H566">
+        <v>5</v>
+      </c>
+      <c r="I566">
+        <v>5</v>
+      </c>
+      <c r="J566">
+        <v>0</v>
+      </c>
+      <c r="K566">
+        <v>0</v>
+      </c>
+      <c r="L566">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="567" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
+        <v>19</v>
+      </c>
+      <c r="B567" s="1">
+        <v>45779</v>
+      </c>
+      <c r="C567" t="s">
+        <v>15</v>
+      </c>
+      <c r="D567">
+        <v>108</v>
+      </c>
+      <c r="E567">
+        <v>10.59</v>
+      </c>
+      <c r="F567">
+        <v>781</v>
+      </c>
+      <c r="G567">
+        <v>1</v>
+      </c>
+      <c r="H567">
+        <v>13</v>
+      </c>
+      <c r="I567">
+        <v>92</v>
+      </c>
+      <c r="J567">
+        <v>1</v>
+      </c>
+      <c r="K567">
+        <v>0</v>
+      </c>
+      <c r="L567">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="568" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
+        <v>16</v>
+      </c>
+      <c r="B568" s="1">
+        <v>45779</v>
+      </c>
+      <c r="C568" t="s">
+        <v>20</v>
+      </c>
+      <c r="D568">
+        <v>75</v>
+      </c>
+      <c r="E568">
+        <v>0</v>
+      </c>
+      <c r="F568">
+        <v>0</v>
+      </c>
+      <c r="G568">
+        <v>19</v>
+      </c>
+      <c r="H568">
+        <v>52</v>
+      </c>
+      <c r="I568">
+        <v>4</v>
+      </c>
+      <c r="J568">
+        <v>0</v>
+      </c>
+      <c r="K568">
+        <v>0</v>
+      </c>
+      <c r="L568">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="569" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
+        <v>13</v>
+      </c>
+      <c r="B569" s="1">
+        <v>45779</v>
+      </c>
+      <c r="C569" t="s">
+        <v>21</v>
+      </c>
+      <c r="D569">
+        <v>95</v>
+      </c>
+      <c r="E569">
+        <v>25.64</v>
+      </c>
+      <c r="F569">
+        <v>1450</v>
+      </c>
+      <c r="G569">
+        <v>7</v>
+      </c>
+      <c r="H569">
+        <v>82</v>
+      </c>
+      <c r="I569">
+        <v>6</v>
+      </c>
+      <c r="J569">
+        <v>0</v>
+      </c>
+      <c r="K569">
+        <v>0</v>
+      </c>
+      <c r="L569">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="570" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
+        <v>18</v>
+      </c>
+      <c r="B570" s="1">
+        <v>45780</v>
+      </c>
+      <c r="C570" t="s">
+        <v>20</v>
+      </c>
+      <c r="D570">
+        <v>51</v>
+      </c>
+      <c r="E570">
+        <v>0</v>
+      </c>
+      <c r="F570">
+        <v>0</v>
+      </c>
+      <c r="G570">
+        <v>51</v>
+      </c>
+      <c r="H570">
+        <v>0</v>
+      </c>
+      <c r="I570">
+        <v>0</v>
+      </c>
+      <c r="J570">
+        <v>0</v>
+      </c>
+      <c r="K570">
+        <v>0</v>
+      </c>
+      <c r="L570">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="571" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
+        <v>17</v>
+      </c>
+      <c r="B571" s="1">
+        <v>45780</v>
+      </c>
+      <c r="C571" t="s">
+        <v>15</v>
+      </c>
+      <c r="D571">
+        <v>70</v>
+      </c>
+      <c r="E571">
+        <v>6.01</v>
+      </c>
+      <c r="F571">
+        <v>640</v>
+      </c>
+      <c r="G571">
+        <v>3</v>
+      </c>
+      <c r="H571">
+        <v>44</v>
+      </c>
+      <c r="I571">
+        <v>23</v>
+      </c>
+      <c r="J571">
+        <v>0</v>
+      </c>
+      <c r="K571">
+        <v>0</v>
+      </c>
+      <c r="L571">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L346" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6917" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7CE377C-17D4-46A2-84F1-8EC9EE2358EB}"/>
+  <xr:revisionPtr revIDLastSave="6953" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25B83594-0176-4A4E-9FEE-959C2C56C479}"/>
   <bookViews>
-    <workbookView xWindow="-18075" yWindow="5175" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
+    <workbookView xWindow="-28920" yWindow="1710" windowWidth="29040" windowHeight="15720" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="30">
   <si>
     <t>Participant</t>
   </si>
@@ -505,11 +505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:L571"/>
+  <dimension ref="A1:L574"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A554" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A572" sqref="A572"/>
+      <selection pane="bottomLeft" activeCell="A575" sqref="A575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22225,6 +22225,120 @@
         <v>8</v>
       </c>
     </row>
+    <row r="572" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>24</v>
+      </c>
+      <c r="B572" s="1">
+        <v>45780</v>
+      </c>
+      <c r="C572" t="s">
+        <v>15</v>
+      </c>
+      <c r="D572">
+        <v>109</v>
+      </c>
+      <c r="E572">
+        <v>9.08</v>
+      </c>
+      <c r="F572">
+        <v>528</v>
+      </c>
+      <c r="G572">
+        <v>10</v>
+      </c>
+      <c r="H572">
+        <v>98</v>
+      </c>
+      <c r="I572">
+        <v>0</v>
+      </c>
+      <c r="J572">
+        <v>0</v>
+      </c>
+      <c r="K572">
+        <v>0</v>
+      </c>
+      <c r="L572">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="573" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
+        <v>10</v>
+      </c>
+      <c r="B573" s="1">
+        <v>45780</v>
+      </c>
+      <c r="C573" t="s">
+        <v>15</v>
+      </c>
+      <c r="D573">
+        <v>32</v>
+      </c>
+      <c r="E573">
+        <v>3.41</v>
+      </c>
+      <c r="F573">
+        <v>121</v>
+      </c>
+      <c r="G573">
+        <v>6</v>
+      </c>
+      <c r="H573">
+        <v>26</v>
+      </c>
+      <c r="I573">
+        <v>0</v>
+      </c>
+      <c r="J573">
+        <v>0</v>
+      </c>
+      <c r="K573">
+        <v>0</v>
+      </c>
+      <c r="L573">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="574" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
+        <v>19</v>
+      </c>
+      <c r="B574" s="1">
+        <v>45780</v>
+      </c>
+      <c r="C574" t="s">
+        <v>20</v>
+      </c>
+      <c r="D574">
+        <v>90</v>
+      </c>
+      <c r="E574">
+        <v>0</v>
+      </c>
+      <c r="F574">
+        <v>0</v>
+      </c>
+      <c r="G574">
+        <v>59</v>
+      </c>
+      <c r="H574">
+        <v>31</v>
+      </c>
+      <c r="I574">
+        <v>0</v>
+      </c>
+      <c r="J574">
+        <v>0</v>
+      </c>
+      <c r="K574">
+        <v>0</v>
+      </c>
+      <c r="L574">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L346" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="6953" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25B83594-0176-4A4E-9FEE-959C2C56C479}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1710" windowWidth="29040" windowHeight="15720" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
+    <workbookView xWindow="-18075" yWindow="5175" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6953" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25B83594-0176-4A4E-9FEE-959C2C56C479}"/>
+  <xr:revisionPtr revIDLastSave="6977" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A387B77C-626E-4D0E-8DEC-48E4E1287519}"/>
   <bookViews>
     <workbookView xWindow="-18075" yWindow="5175" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="30">
   <si>
     <t>Participant</t>
   </si>
@@ -505,11 +505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:L574"/>
+  <dimension ref="A1:L576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A554" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A575" sqref="A575"/>
+      <pane ySplit="1" topLeftCell="A558" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A577" sqref="A577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22339,6 +22339,82 @@
         <v>8</v>
       </c>
     </row>
+    <row r="575" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
+        <v>10</v>
+      </c>
+      <c r="B575" s="1">
+        <v>45781</v>
+      </c>
+      <c r="C575" t="s">
+        <v>15</v>
+      </c>
+      <c r="D575">
+        <v>221</v>
+      </c>
+      <c r="E575">
+        <v>22.73</v>
+      </c>
+      <c r="F575">
+        <v>453</v>
+      </c>
+      <c r="G575">
+        <v>14</v>
+      </c>
+      <c r="H575">
+        <v>160</v>
+      </c>
+      <c r="I575">
+        <v>32</v>
+      </c>
+      <c r="J575">
+        <v>7</v>
+      </c>
+      <c r="K575">
+        <v>0</v>
+      </c>
+      <c r="L575">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="576" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
+        <v>18</v>
+      </c>
+      <c r="B576" s="1">
+        <v>45781</v>
+      </c>
+      <c r="C576" t="s">
+        <v>15</v>
+      </c>
+      <c r="D576">
+        <v>227</v>
+      </c>
+      <c r="E576">
+        <v>26.22</v>
+      </c>
+      <c r="F576">
+        <v>640</v>
+      </c>
+      <c r="G576">
+        <v>10</v>
+      </c>
+      <c r="H576">
+        <v>216</v>
+      </c>
+      <c r="I576">
+        <v>0</v>
+      </c>
+      <c r="J576">
+        <v>0</v>
+      </c>
+      <c r="K576">
+        <v>0</v>
+      </c>
+      <c r="L576">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L346" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TieDye_Weekly_Scoreboard.xlsx
+++ b/TieDye_Weekly_Scoreboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/af4ceb37827301da/Documents/2_Dev_Apps/Tie_Dye_50k/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6977" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A387B77C-626E-4D0E-8DEC-48E4E1287519}"/>
+  <xr:revisionPtr revIDLastSave="6989" documentId="8_{5009DB8A-94F6-4408-A2C7-52E8788C7D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B07A8102-588E-4C5B-B2DF-E203FB83617B}"/>
   <bookViews>
-    <workbookView xWindow="-18075" yWindow="5175" windowWidth="17280" windowHeight="11970" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
+    <workbookView xWindow="2796" yWindow="1068" windowWidth="17280" windowHeight="11976" xr2:uid="{EDD6118A-FE3C-41A1-855C-9C2CB562CD9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="30">
   <si>
     <t>Participant</t>
   </si>
@@ -505,11 +505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}">
-  <dimension ref="A1:L576"/>
+  <dimension ref="A1:L577"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A558" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A577" sqref="A577"/>
+      <selection pane="bottomLeft" activeCell="C578" sqref="C578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22415,6 +22415,44 @@
         <v>8</v>
       </c>
     </row>
+    <row r="577" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
+        <v>13</v>
+      </c>
+      <c r="B577" s="1">
+        <v>45781</v>
+      </c>
+      <c r="C577" t="s">
+        <v>20</v>
+      </c>
+      <c r="D577">
+        <v>57</v>
+      </c>
+      <c r="E577">
+        <v>0</v>
+      </c>
+      <c r="F577">
+        <v>0</v>
+      </c>
+      <c r="G577">
+        <v>57</v>
+      </c>
+      <c r="H577">
+        <v>1</v>
+      </c>
+      <c r="I577">
+        <v>0</v>
+      </c>
+      <c r="J577">
+        <v>0</v>
+      </c>
+      <c r="K577">
+        <v>0</v>
+      </c>
+      <c r="L577">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L346" xr:uid="{B201C7A1-51D1-4695-B3A7-76F3A58487F9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
